--- a/src/attributions/attributions_saliency_traj_165.xlsx
+++ b/src/attributions/attributions_saliency_traj_165.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03688029944896698</v>
+        <v>0.03064239025115967</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008809763006865978</v>
+        <v>0.01333566568791866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004508437588810921</v>
+        <v>0.002600640058517456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0110806142911315</v>
+        <v>0.006317188963294029</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01064600981771946</v>
+        <v>0.003490629605948925</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002675184980034828</v>
+        <v>0.007353659253567457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01110730692744255</v>
+        <v>0.001403734087944031</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002970834611915052</v>
+        <v>0.001869297353550792</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003759653074666858</v>
+        <v>0.0004235398955643177</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03228131681680679</v>
+        <v>0.02624965086579323</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007504904642701149</v>
+        <v>0.00783095508813858</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01147750578820705</v>
+        <v>0.002398312790319324</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01064358372241259</v>
+        <v>0.003002840094268322</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02056424133479595</v>
+        <v>0.002175292000174522</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00244496576488018</v>
+        <v>0.003165229223668575</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01549147348850965</v>
+        <v>0.003133560530841351</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.52472148835659e-05</v>
+        <v>0.00315348943695426</v>
       </c>
       <c r="R2" t="n">
-        <v>0.009471730329096317</v>
+        <v>0.001411493169143796</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003687022486701608</v>
+        <v>0.006103773601353168</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002303542569279671</v>
+        <v>0.008626993745565414</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002007324015721679</v>
+        <v>0.001547375693917274</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003745994763448834</v>
+        <v>0.00666850944980979</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0006446543848142028</v>
+        <v>0.008114107884466648</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003830330912023783</v>
+        <v>0.004197543021291494</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0006470318185165524</v>
+        <v>0.001240164623595774</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002149259671568871</v>
+        <v>0.003073366358876228</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001241083722561598</v>
+        <v>0.001882159500382841</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.00322756776586175</v>
+        <v>0.002205181634053588</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.002721577882766724</v>
+        <v>0.00738761480897665</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.004106549080461264</v>
+        <v>0.0001972935860976577</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.005127712618559599</v>
+        <v>0.001018999377265573</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.001104389084503055</v>
+        <v>0.008416567929089069</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00129302591085434</v>
+        <v>0.003467726754024625</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.004351256880909204</v>
+        <v>0.0008606607443653047</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.008011096157133579</v>
+        <v>0.001721864799037576</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.002133609261363745</v>
+        <v>0.00309390458278358</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.008993775583803654</v>
+        <v>0.0010872712591663</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0060546500608325</v>
+        <v>0.004089728929102421</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00302693503908813</v>
+        <v>0.003589707892388105</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00361276394687593</v>
+        <v>0.0003272304311394691</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0008455048082396388</v>
+        <v>0.003303691511973739</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00216097105294466</v>
+        <v>0.0005692169070243835</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001448792638257146</v>
+        <v>0.00054455193458125</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0001219127443619072</v>
+        <v>0.003158056642860174</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.001280275406315923</v>
+        <v>0.0005336151807568967</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01632703095674515</v>
+        <v>0.01472195517271757</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.001639736234210432</v>
+        <v>0.002161608077585697</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.005266156047582626</v>
+        <v>8.214032277464867e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.003950954414904118</v>
+        <v>0.006345923524349928</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.002169823506847024</v>
+        <v>0.003272929461672902</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.002708255080506206</v>
+        <v>0.00149505166336894</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0005705137737095356</v>
+        <v>0.006035975180566311</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.005592311732470989</v>
+        <v>0.005167306400835514</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.001402259804308414</v>
+        <v>0.003034750465303659</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.008858213201165199</v>
+        <v>0.0129933450371027</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.004726772662252188</v>
+        <v>0.01296116877347231</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.003821050049737096</v>
+        <v>0.0005430795717984438</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.002103691920638084</v>
+        <v>0.002550291828811169</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.001995807746425271</v>
+        <v>0.006728728767484426</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.001600602059625089</v>
+        <v>0.001024671830236912</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.006704719737172127</v>
+        <v>0.003623769152909517</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01692770794034004</v>
+        <v>0.00277811917476356</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.001993528567254543</v>
+        <v>0.007054434157907963</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.002079412573948503</v>
+        <v>0.0006766734295524657</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.00616577360779047</v>
+        <v>0.007137606386095285</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.001044333912432194</v>
+        <v>0.002823417540639639</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.00270133325830102</v>
+        <v>0.002218231093138456</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.004710321314632893</v>
+        <v>0.002321095205843449</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0009645093232393265</v>
+        <v>0.004265612922608852</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.001658783294260502</v>
+        <v>0.002256285864859819</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00223322631791234</v>
+        <v>0.001587879145517945</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.002327998401597142</v>
+        <v>0.001176188350655138</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.01423567719757557</v>
+        <v>0.008775882422924042</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.002736874390393496</v>
+        <v>0.006671234499663115</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003791881492361426</v>
+        <v>0.002984323538839817</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.005500671919435263</v>
+        <v>6.409399793483317e-05</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0007889789994806051</v>
+        <v>0.004027975257486105</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.001203154446557164</v>
+        <v>0.001999587984755635</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0002130184147972614</v>
+        <v>0.00258215144276619</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.003249937668442726</v>
+        <v>0.002532597631216049</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0009189074626192451</v>
+        <v>0.004356714896857738</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.006939827930182219</v>
+        <v>0.006447813473641872</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.008798578754067421</v>
+        <v>0.003561204532161355</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.001829474698752165</v>
+        <v>0.001421401393599808</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0009566861554048955</v>
+        <v>0.00122785521671176</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.001432041404768825</v>
+        <v>0.001215530559420586</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.001915265340358019</v>
+        <v>0.003644153475761414</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.003015738446265459</v>
+        <v>0.0007465564995072782</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00204390985891223</v>
+        <v>0.002305088099092245</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0006296323845162988</v>
+        <v>0.0004645426815841347</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.001435733633115888</v>
+        <v>0.007833480834960938</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.001824817503802478</v>
+        <v>0.004550473764538765</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.001332080108113587</v>
+        <v>0.0002138214185833931</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.002189976861700416</v>
+        <v>0.004645644687116146</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01055299211293459</v>
+        <v>0.006421519909054041</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.006921315565705299</v>
+        <v>0.003691236721351743</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001013191184028983</v>
+        <v>0.002483531134203076</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01180864684283733</v>
+        <v>0.004202927928417921</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0015477673150599</v>
+        <v>0.0006401555729098618</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.005951304454356432</v>
+        <v>0.005441987887024879</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.009011423215270042</v>
+        <v>0.004173136316239834</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.002637072931975126</v>
+        <v>0.002237340901046991</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.001129883341491222</v>
+        <v>0.0007282629958353937</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.001016531023196876</v>
+        <v>0.001438578590750694</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00117889977991581</v>
+        <v>0.003747655777260661</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.00246538850478828</v>
+        <v>0.0006377066019922495</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0002569365897215903</v>
+        <v>0.001613285043276846</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0005243590567260981</v>
+        <v>0.0003990783588960767</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.002627771813422441</v>
+        <v>0.004569104872643948</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.01390326488763094</v>
+        <v>0.01075793616473675</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.002621917286887765</v>
+        <v>0.004130610264837742</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.002353379968553782</v>
+        <v>0.004874110221862793</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.005958888214081526</v>
+        <v>0.009791355580091476</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.002108092652633786</v>
+        <v>0.007820699363946915</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.001003309618681669</v>
+        <v>0.006473154295235872</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.003597390837967396</v>
+        <v>0.008830609731376171</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.001632406027056277</v>
+        <v>0.0007094132015481591</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0009862121660262346</v>
+        <v>0.005037752911448479</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.007033614907413721</v>
+        <v>0.00206596334464848</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.002966753905639052</v>
+        <v>0.0005920552648603916</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.001402522204443812</v>
+        <v>0.007198266219347715</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0001959323999471962</v>
+        <v>0.004598012194037437</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.004762574099004269</v>
+        <v>0.007659775204956532</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.001257880707271397</v>
+        <v>0.0006655105389654636</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.001105623203329742</v>
+        <v>0.00180925871245563</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00192013313062489</v>
+        <v>0.001248476561158895</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0005701941554434597</v>
+        <v>0.005701006390154362</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.002635102951899171</v>
+        <v>0.002841718960553408</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.002703205915167928</v>
+        <v>0.00140546471811831</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.002528623212128878</v>
+        <v>0.0008812720770947635</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0006434565875679255</v>
+        <v>0.003551461733877659</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.001192732830531895</v>
+        <v>0.004018895793706179</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.004139320459216833</v>
+        <v>0.004094940144568682</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.01291242055594921</v>
+        <v>0.001612509367987514</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0007316951523534954</v>
+        <v>0.001785367843694985</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01137653831392527</v>
+        <v>0.006633831653743982</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0100750969722867</v>
+        <v>0.008545830845832825</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.001219168305397034</v>
+        <v>0.007860961370170116</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001924655633047223</v>
+        <v>0.003773381933569908</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0004366931680124253</v>
+        <v>0.0005799494683742523</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00184374675154686</v>
+        <v>0.00370349339209497</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0002054010110441595</v>
+        <v>0.001101151923649013</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.00965786911547184</v>
+        <v>0.002544372575357556</v>
       </c>
       <c r="EN2" t="n">
-        <v>6.094342097640038e-05</v>
+        <v>0.0004360306193120778</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.002554662525653839</v>
+        <v>0.0008468460873700678</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.005636094138026237</v>
+        <v>0.008387971669435501</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.002746256068348885</v>
+        <v>0.0005175094120204449</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.004753775428980589</v>
+        <v>0.000972876267042011</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.002236764878034592</v>
+        <v>0.002362402155995369</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.003737985156476498</v>
+        <v>0.009727058932185173</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.006698740180581808</v>
+        <v>0.001001665950752795</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.001876278547570109</v>
+        <v>0.002943988656625152</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0002158063871320337</v>
+        <v>0.003499068785458803</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.005786258727312088</v>
+        <v>0.006174700800329447</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.008094325661659241</v>
+        <v>0.004101828206330538</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.002610253170132637</v>
+        <v>0.002985199447721243</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0007409539539366961</v>
+        <v>0.0002072372881229967</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.001825417042709887</v>
+        <v>0.001808884437195957</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.002353611867874861</v>
+        <v>0.002716967836022377</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.002327848924323916</v>
+        <v>0.0002250756369903684</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00176745024509728</v>
+        <v>0.001873771310783923</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0005195440026000142</v>
+        <v>0.0005484962021000683</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.005645303521305323</v>
+        <v>0.002347997156903148</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.002719925018027425</v>
+        <v>0.002898499602451921</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.001645292155444622</v>
+        <v>0.002921442035585642</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.007246811408549547</v>
+        <v>0.002360600978136063</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0004409868270158768</v>
+        <v>0.0001582327822688967</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.004372279159724712</v>
+        <v>0.0006740383105352521</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.003216536715626717</v>
+        <v>0.001733324956148863</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0004137771902605891</v>
+        <v>0.0001153654302470386</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0007467171526513994</v>
+        <v>0.001415731501765549</v>
       </c>
       <c r="FP2" t="n">
-        <v>5.236407741904259e-05</v>
+        <v>0.004625509493052959</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.01254543103277683</v>
+        <v>0.00222176406532526</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00561577919870615</v>
+        <v>0.008561877533793449</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.002853490877896547</v>
+        <v>0.004366207867860794</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.004071771167218685</v>
+        <v>0.009504438377916813</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.002565037924796343</v>
+        <v>0.00526475952938199</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.002583604771643877</v>
+        <v>0.008057220838963985</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0008611972443759441</v>
+        <v>0.000667886168230325</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.002394198905676603</v>
+        <v>7.075793109834194e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.007244158070534468</v>
+        <v>0.000358989869710058</v>
       </c>
       <c r="FZ2" t="n">
-        <v>4.751168307848275e-05</v>
+        <v>0.005458422005176544</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.005832409486174583</v>
+        <v>0.0009953937260434031</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.002222135430201888</v>
+        <v>0.002555532148107886</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.005775406956672668</v>
+        <v>0.009510272182524204</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0002455794892739505</v>
+        <v>0.001945127965882421</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.007218301296234131</v>
+        <v>0.003516673808917403</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.002578319748863578</v>
+        <v>0.002334181685000658</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.00158585561439395</v>
+        <v>0.000701767101418227</v>
       </c>
     </row>
     <row r="3">
@@ -2711,6830 +2711,6830 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0001955548068508506</v>
+        <v>4.901096872345079e-06</v>
       </c>
       <c r="B5" t="n">
-        <v>6.564178329426795e-05</v>
+        <v>3.647983248811215e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>2.577615532572963e-06</v>
+        <v>3.936526354664238e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>6.106049113441259e-05</v>
+        <v>2.062375097011682e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000113840818812605</v>
+        <v>8.42841745907208e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>4.248515688232146e-05</v>
+        <v>1.051770959747955e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>6.082738764234819e-05</v>
+        <v>9.130026228376664e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>2.252694866911042e-05</v>
+        <v>6.050216256880958e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>1.543456528452225e-05</v>
+        <v>2.904142547777155e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001686455943854526</v>
+        <v>9.974150088964961e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>3.441085209487937e-05</v>
+        <v>2.86007416434586e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.706117291178089e-05</v>
+        <v>2.523738885429339e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>5.339536437531933e-05</v>
+        <v>1.468185655539855e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0001532591704744846</v>
+        <v>8.826493285596371e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>4.897749022347853e-06</v>
+        <v>1.734166289679706e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>6.777150701964274e-05</v>
+        <v>4.3719073801185e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.653693395084701e-06</v>
+        <v>6.865867817396065e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.779490412445739e-05</v>
+        <v>1.147412262980652e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>3.666656084533315e-06</v>
+        <v>1.244526742993912e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>1.300721123698168e-05</v>
+        <v>5.272239377518417e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>2.626396053528879e-06</v>
+        <v>1.013938685900939e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>2.108106855303049e-05</v>
+        <v>2.250892521260539e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>8.894797247194219e-06</v>
+        <v>1.603467012500914e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>4.45151272288058e-06</v>
+        <v>4.143661499256268e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.431273904017871e-05</v>
+        <v>5.03790170114371e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.210601269325707e-05</v>
+        <v>4.531665581453126e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.10910523289931e-05</v>
+        <v>5.778662398370216e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.694525730679743e-05</v>
+        <v>1.44070440910582e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.214136955240974e-05</v>
+        <v>3.934900973945332e-07</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.649522528168745e-05</v>
+        <v>5.01661020280153e-07</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.779339436325245e-05</v>
+        <v>1.160288888968353e-06</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.990409873542376e-05</v>
+        <v>5.505850708686921e-07</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.575113285274711e-06</v>
+        <v>1.64739196861774e-06</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.896049747709185e-06</v>
+        <v>1.667071387601027e-06</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.591596007230692e-05</v>
+        <v>1.770839048731432e-06</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.247408545168582e-05</v>
+        <v>2.24236441681569e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.364870255813003e-05</v>
+        <v>1.807242824725108e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.566178980283439e-05</v>
+        <v>5.341645646694815e-06</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.917652510514017e-06</v>
+        <v>2.031336862273747e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.222852319595404e-05</v>
+        <v>6.551933324772108e-07</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.481703813828062e-05</v>
+        <v>2.226914688208126e-07</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.713593175940332e-06</v>
+        <v>1.460641101402871e-07</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.054302174452459e-06</v>
+        <v>2.181385980293271e-06</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.348003135921317e-06</v>
+        <v>7.624433351338666e-07</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.303407877159771e-06</v>
+        <v>3.388326604181202e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.316827345173806e-05</v>
+        <v>2.283227104271646e-06</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.200975000567269e-06</v>
+        <v>2.250865327368956e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>6.377658792189322e-07</v>
+        <v>9.517448802398576e-07</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.999477899516933e-05</v>
+        <v>8.063500899879728e-06</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.689007957698777e-05</v>
+        <v>3.394811074031168e-06</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.665845229581464e-05</v>
+        <v>2.392047235844075e-06</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.217016870214138e-05</v>
+        <v>3.60735452886729e-06</v>
       </c>
       <c r="BA5" t="n">
-        <v>6.43903695163317e-06</v>
+        <v>1.728581651150307e-06</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.262330053781625e-05</v>
+        <v>6.180950549605768e-06</v>
       </c>
       <c r="BC5" t="n">
-        <v>4.669734698836692e-05</v>
+        <v>3.525920647007297e-06</v>
       </c>
       <c r="BD5" t="n">
-        <v>8.009316843526904e-06</v>
+        <v>7.554640887974529e-06</v>
       </c>
       <c r="BE5" t="n">
-        <v>6.82042946209549e-06</v>
+        <v>1.054373205988668e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.081489608623087e-05</v>
+        <v>2.852764282579301e-06</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.433055149391294e-05</v>
+        <v>6.859182576590683e-06</v>
       </c>
       <c r="BH5" t="n">
-        <v>6.874390237499028e-06</v>
+        <v>6.700119229208212e-06</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.951993883471005e-05</v>
+        <v>1.479645334256929e-06</v>
       </c>
       <c r="BJ5" t="n">
-        <v>5.184090696275234e-05</v>
+        <v>7.692511644563638e-06</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.477217210776871e-06</v>
+        <v>2.18080072045268e-06</v>
       </c>
       <c r="BL5" t="n">
-        <v>5.06323340232484e-06</v>
+        <v>2.685640538402367e-06</v>
       </c>
       <c r="BM5" t="n">
-        <v>3.576871677068993e-05</v>
+        <v>3.797536692218273e-06</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.569665414535848e-06</v>
+        <v>5.557942131417803e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.07764353742823e-05</v>
+        <v>7.616585548930743e-07</v>
       </c>
       <c r="BP5" t="n">
-        <v>2.108490662067197e-05</v>
+        <v>1.671098061706289e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>7.62671152187977e-06</v>
+        <v>4.609686357071041e-07</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.293770583288278e-05</v>
+        <v>1.441826384507294e-06</v>
       </c>
       <c r="BS5" t="n">
-        <v>7.33732895241701e-06</v>
+        <v>2.651970305578288e-07</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.18200105134747e-05</v>
+        <v>1.548985721910867e-07</v>
       </c>
       <c r="BU5" t="n">
-        <v>7.179613749030977e-05</v>
+        <v>4.485131057663239e-07</v>
       </c>
       <c r="BV5" t="n">
-        <v>3.68310520570958e-06</v>
+        <v>1.209150104841683e-05</v>
       </c>
       <c r="BW5" t="n">
-        <v>7.976262168085668e-06</v>
+        <v>4.347543836047407e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>3.89173801522702e-05</v>
+        <v>5.473461897054221e-06</v>
       </c>
       <c r="BY5" t="n">
-        <v>6.258404755499214e-05</v>
+        <v>7.65691879678343e-07</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2.119359123753384e-05</v>
+        <v>1.177644321614935e-06</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.464897741243476e-05</v>
+        <v>4.276486379239941e-06</v>
       </c>
       <c r="CB5" t="n">
-        <v>7.476283826690633e-06</v>
+        <v>1.269668246095534e-06</v>
       </c>
       <c r="CC5" t="n">
-        <v>5.063846401753835e-06</v>
+        <v>4.726775841845665e-06</v>
       </c>
       <c r="CD5" t="n">
-        <v>4.07434708904475e-05</v>
+        <v>4.355317457793717e-07</v>
       </c>
       <c r="CE5" t="n">
-        <v>2.886563197534997e-05</v>
+        <v>5.922904620092595e-06</v>
       </c>
       <c r="CF5" t="n">
-        <v>1.293283730774419e-06</v>
+        <v>4.27880468123476e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.32976265376783e-05</v>
+        <v>1.691119450697443e-06</v>
       </c>
       <c r="CH5" t="n">
-        <v>2.363828207307961e-05</v>
+        <v>1.10344569748122e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>1.232608951795555e-06</v>
+        <v>2.486269977453048e-06</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.360852456855355e-05</v>
+        <v>5.550455171032809e-07</v>
       </c>
       <c r="CK5" t="n">
-        <v>4.585862370731775e-06</v>
+        <v>4.477036270600365e-07</v>
       </c>
       <c r="CL5" t="n">
-        <v>6.01445526626776e-06</v>
+        <v>3.439157580942265e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>1.185016299132258e-05</v>
+        <v>3.405805728107225e-06</v>
       </c>
       <c r="CN5" t="n">
-        <v>1.202939620270627e-05</v>
+        <v>9.691457307781093e-07</v>
       </c>
       <c r="CO5" t="n">
-        <v>5.629716724797618e-06</v>
+        <v>1.604509179742308e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>5.174915713723749e-06</v>
+        <v>4.579835604090476e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.886557947727852e-05</v>
+        <v>3.745338972294121e-06</v>
       </c>
       <c r="CR5" t="n">
-        <v>1.208812864206266e-05</v>
+        <v>1.793811861716677e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>8.875627827364951e-06</v>
+        <v>6.73357499181293e-06</v>
       </c>
       <c r="CT5" t="n">
-        <v>3.435639155213721e-05</v>
+        <v>4.830464604310691e-06</v>
       </c>
       <c r="CU5" t="n">
-        <v>5.06663945998298e-06</v>
+        <v>1.583131847837649e-07</v>
       </c>
       <c r="CV5" t="n">
-        <v>3.664383984869346e-05</v>
+        <v>2.803228653647238e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>2.865287206077483e-05</v>
+        <v>5.254234110907419e-06</v>
       </c>
       <c r="CX5" t="n">
-        <v>7.8843504525139e-06</v>
+        <v>3.898129307344789e-06</v>
       </c>
       <c r="CY5" t="n">
-        <v>9.363210665469524e-06</v>
+        <v>3.960600224672817e-06</v>
       </c>
       <c r="CZ5" t="n">
-        <v>1.481509207224008e-05</v>
+        <v>1.316703446718748e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>2.599225808808114e-06</v>
+        <v>2.969350362036494e-06</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.060344584402628e-05</v>
+        <v>1.181229436042486e-06</v>
       </c>
       <c r="DC5" t="n">
-        <v>3.362440565979341e-06</v>
+        <v>1.208598860102938e-06</v>
       </c>
       <c r="DD5" t="n">
-        <v>1.035316290654009e-05</v>
+        <v>2.259306484120316e-06</v>
       </c>
       <c r="DE5" t="n">
-        <v>3.000685683218762e-05</v>
+        <v>2.645498852871242e-06</v>
       </c>
       <c r="DF5" t="n">
-        <v>4.109212750336155e-05</v>
+        <v>1.253026084668818e-06</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.063367744791321e-05</v>
+        <v>7.766156159050297e-06</v>
       </c>
       <c r="DH5" t="n">
-        <v>9.278683137381449e-06</v>
+        <v>1.918458838190418e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.815765790524893e-05</v>
+        <v>4.61956324215862e-06</v>
       </c>
       <c r="DJ5" t="n">
-        <v>5.901370059291366e-07</v>
+        <v>2.556456138336216e-06</v>
       </c>
       <c r="DK5" t="n">
-        <v>5.978429726383183e-06</v>
+        <v>2.215920858361642e-06</v>
       </c>
       <c r="DL5" t="n">
-        <v>5.073708962299861e-06</v>
+        <v>5.359929673431907e-06</v>
       </c>
       <c r="DM5" t="n">
-        <v>1.714097015792504e-05</v>
+        <v>1.234297997143585e-07</v>
       </c>
       <c r="DN5" t="n">
-        <v>9.937920140146161e-07</v>
+        <v>2.164362911116768e-08</v>
       </c>
       <c r="DO5" t="n">
-        <v>2.487640449544415e-05</v>
+        <v>2.328864866285585e-06</v>
       </c>
       <c r="DP5" t="n">
-        <v>8.628123396192677e-06</v>
+        <v>4.526552856987109e-06</v>
       </c>
       <c r="DQ5" t="n">
-        <v>2.225767093477771e-05</v>
+        <v>1.180293907054875e-06</v>
       </c>
       <c r="DR5" t="n">
-        <v>2.457972004776821e-05</v>
+        <v>1.158984105131822e-06</v>
       </c>
       <c r="DS5" t="n">
-        <v>1.054770746122813e-05</v>
+        <v>2.730651203819434e-06</v>
       </c>
       <c r="DT5" t="n">
-        <v>8.991827598947566e-06</v>
+        <v>5.30042711943679e-07</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.923157105920836e-05</v>
+        <v>1.436012553313049e-07</v>
       </c>
       <c r="DV5" t="n">
-        <v>2.346413566556294e-06</v>
+        <v>7.133649887691718e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.137797335104551e-05</v>
+        <v>2.445349764457205e-06</v>
       </c>
       <c r="DX5" t="n">
-        <v>3.702030153363012e-05</v>
+        <v>5.218164915277157e-06</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.549919397803023e-05</v>
+        <v>5.332452474249294e-06</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.504907049820758e-05</v>
+        <v>1.56621933911083e-06</v>
       </c>
       <c r="EA5" t="n">
-        <v>6.771734661015216e-06</v>
+        <v>1.564952526678098e-06</v>
       </c>
       <c r="EB5" t="n">
-        <v>4.284817350708181e-06</v>
+        <v>5.899961706745671e-06</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.953960236278363e-05</v>
+        <v>1.848708620855177e-06</v>
       </c>
       <c r="ED5" t="n">
-        <v>4.435553273651749e-05</v>
+        <v>1.285419216401351e-06</v>
       </c>
       <c r="EE5" t="n">
-        <v>1.755132075231813e-06</v>
+        <v>7.611324690515175e-07</v>
       </c>
       <c r="EF5" t="n">
-        <v>6.488241342594847e-05</v>
+        <v>1.020631316350773e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>5.877115836483426e-05</v>
+        <v>3.403961954973056e-06</v>
       </c>
       <c r="EH5" t="n">
-        <v>2.727540504565695e-06</v>
+        <v>1.236190428244299e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>2.594153738755267e-05</v>
+        <v>8.689995638633263e-07</v>
       </c>
       <c r="EJ5" t="n">
-        <v>2.151156877516769e-05</v>
+        <v>1.094502522391849e-06</v>
       </c>
       <c r="EK5" t="n">
-        <v>7.609740350744687e-06</v>
+        <v>2.287365305164712e-06</v>
       </c>
       <c r="EL5" t="n">
-        <v>8.029128366615623e-06</v>
+        <v>6.828591949670226e-07</v>
       </c>
       <c r="EM5" t="n">
-        <v>3.203476444468834e-05</v>
+        <v>1.332527176600706e-06</v>
       </c>
       <c r="EN5" t="n">
-        <v>3.732547384061036e-06</v>
+        <v>1.368424705106008e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>7.365178134932648e-06</v>
+        <v>1.964758666872513e-07</v>
       </c>
       <c r="EP5" t="n">
-        <v>2.914247852459084e-05</v>
+        <v>8.220162612815329e-07</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1.683166260590951e-06</v>
+        <v>5.540367510548094e-06</v>
       </c>
       <c r="ER5" t="n">
-        <v>1.274331043532584e-05</v>
+        <v>1.236317217490068e-07</v>
       </c>
       <c r="ES5" t="n">
-        <v>3.486347122816369e-05</v>
+        <v>2.046237796093919e-06</v>
       </c>
       <c r="ET5" t="n">
-        <v>1.128156782215228e-05</v>
+        <v>3.328363391119638e-06</v>
       </c>
       <c r="EU5" t="n">
-        <v>1.149302806879859e-05</v>
+        <v>2.521341457395465e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>3.259495497331955e-05</v>
+        <v>8.411161616095342e-06</v>
       </c>
       <c r="EW5" t="n">
-        <v>2.021880391112063e-06</v>
+        <v>1.384742972732056e-06</v>
       </c>
       <c r="EX5" t="n">
-        <v>3.514757554512471e-05</v>
+        <v>1.2927478110214e-07</v>
       </c>
       <c r="EY5" t="n">
-        <v>2.670729736564681e-05</v>
+        <v>5.088763828098308e-06</v>
       </c>
       <c r="EZ5" t="n">
-        <v>4.720132892543916e-06</v>
+        <v>3.308644409116823e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>1.123236870625988e-05</v>
+        <v>2.712128434723127e-06</v>
       </c>
       <c r="FB5" t="n">
-        <v>1.337268531642621e-05</v>
+        <v>7.470001150977623e-07</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.809663672247552e-06</v>
+        <v>2.595528485471732e-06</v>
       </c>
       <c r="FD5" t="n">
-        <v>1.037622678268235e-05</v>
+        <v>1.975165332623874e-06</v>
       </c>
       <c r="FE5" t="n">
-        <v>6.987097549426835e-07</v>
+        <v>3.519601534662797e-07</v>
       </c>
       <c r="FF5" t="n">
-        <v>6.630322786804754e-06</v>
+        <v>3.381683200132102e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>2.977947042381857e-05</v>
+        <v>3.413984359212918e-06</v>
       </c>
       <c r="FH5" t="n">
-        <v>3.038851446035551e-06</v>
+        <v>6.857109013935769e-08</v>
       </c>
       <c r="FI5" t="n">
-        <v>1.354908454231918e-05</v>
+        <v>5.88973216508748e-06</v>
       </c>
       <c r="FJ5" t="n">
-        <v>7.280874797288561e-06</v>
+        <v>3.020902340722387e-06</v>
       </c>
       <c r="FK5" t="n">
-        <v>3.62647115252912e-05</v>
+        <v>3.725823773947923e-07</v>
       </c>
       <c r="FL5" t="n">
-        <v>1.692509613349102e-05</v>
+        <v>1.763547970767831e-06</v>
       </c>
       <c r="FM5" t="n">
-        <v>1.516097108833492e-05</v>
+        <v>6.434598276428005e-08</v>
       </c>
       <c r="FN5" t="n">
-        <v>9.118862180912402e-06</v>
+        <v>6.020412001817022e-06</v>
       </c>
       <c r="FO5" t="n">
-        <v>1.450160380045418e-05</v>
+        <v>1.830619339671102e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>1.638868161535356e-05</v>
+        <v>1.687292296992382e-07</v>
       </c>
       <c r="FQ5" t="n">
-        <v>5.763591980212368e-05</v>
+        <v>3.312178023406886e-06</v>
       </c>
       <c r="FR5" t="n">
-        <v>1.093632636184338e-05</v>
+        <v>2.139030925718544e-07</v>
       </c>
       <c r="FS5" t="n">
-        <v>2.735127418418415e-05</v>
+        <v>2.031214734188325e-07</v>
       </c>
       <c r="FT5" t="n">
-        <v>5.892923581996001e-06</v>
+        <v>9.076736205315683e-06</v>
       </c>
       <c r="FU5" t="n">
-        <v>1.490924387326231e-05</v>
+        <v>1.006898060040839e-06</v>
       </c>
       <c r="FV5" t="n">
-        <v>1.958046232175548e-05</v>
+        <v>3.425896238695714e-06</v>
       </c>
       <c r="FW5" t="n">
-        <v>3.700838078657398e-06</v>
+        <v>2.543378741393099e-06</v>
       </c>
       <c r="FX5" t="n">
-        <v>9.526852409180719e-06</v>
+        <v>1.338393531113979e-06</v>
       </c>
       <c r="FY5" t="n">
-        <v>2.761437281151302e-05</v>
+        <v>6.456828486989252e-06</v>
       </c>
       <c r="FZ5" t="n">
-        <v>2.155305810447317e-05</v>
+        <v>2.906960389736923e-06</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.244996747118421e-05</v>
+        <v>7.59328884214483e-08</v>
       </c>
       <c r="GB5" t="n">
-        <v>6.093925094319275e-06</v>
+        <v>5.23617245562491e-07</v>
       </c>
       <c r="GC5" t="n">
-        <v>1.98172729142243e-05</v>
+        <v>1.813706262510095e-06</v>
       </c>
       <c r="GD5" t="n">
-        <v>2.013454650295898e-05</v>
+        <v>4.804464424523758e-06</v>
       </c>
       <c r="GE5" t="n">
-        <v>2.712305649765767e-05</v>
+        <v>9.96144262899179e-06</v>
       </c>
       <c r="GF5" t="n">
-        <v>1.615127621334977e-05</v>
+        <v>1.939776666404214e-06</v>
       </c>
       <c r="GG5" t="n">
-        <v>1.104793045669794e-05</v>
+        <v>3.839195869659306e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0004020653723273426</v>
+        <v>9.013726958073676e-05</v>
       </c>
       <c r="B6" t="n">
-        <v>8.651535608805716e-06</v>
+        <v>0.01256097387522459</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004179232637397945</v>
+        <v>0.001039525028318167</v>
       </c>
       <c r="D6" t="n">
-        <v>9.9993369076401e-05</v>
+        <v>0.004663453903049231</v>
       </c>
       <c r="E6" t="n">
-        <v>2.748403130681254e-05</v>
+        <v>0.00351404445245862</v>
       </c>
       <c r="F6" t="n">
-        <v>2.713556750677526e-05</v>
+        <v>0.005614263471215963</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001850167027441785</v>
+        <v>0.000982457771897316</v>
       </c>
       <c r="H6" t="n">
-        <v>5.433416663436219e-05</v>
+        <v>0.002154237125068903</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001124732370954007</v>
+        <v>0.0005354995373636484</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003377502143848687</v>
+        <v>0.001728065079078078</v>
       </c>
       <c r="K6" t="n">
-        <v>5.331558713805862e-05</v>
+        <v>0.01102332584559917</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000382196216378361</v>
+        <v>0.0001268235209863633</v>
       </c>
       <c r="M6" t="n">
-        <v>6.473543908214197e-05</v>
+        <v>0.003548896405845881</v>
       </c>
       <c r="N6" t="n">
-        <v>0.000142996635986492</v>
+        <v>0.002107054460793734</v>
       </c>
       <c r="O6" t="n">
-        <v>3.562500569387339e-05</v>
+        <v>0.006334485020488501</v>
       </c>
       <c r="P6" t="n">
-        <v>0.000178837712155655</v>
+        <v>0.0009945172350853682</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.960910443216562e-05</v>
+        <v>0.0008365886751562357</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0001441727508790791</v>
+        <v>0.0006165446247905493</v>
       </c>
       <c r="S6" t="n">
-        <v>1.912549487315118e-05</v>
+        <v>0.0006035799742676318</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0001568666339153424</v>
+        <v>0.001325643388554454</v>
       </c>
       <c r="U6" t="n">
-        <v>4.684945452027023e-05</v>
+        <v>0.0002504688745830208</v>
       </c>
       <c r="V6" t="n">
-        <v>1.618891474208795e-05</v>
+        <v>0.0009538698941469193</v>
       </c>
       <c r="W6" t="n">
-        <v>2.942733999589109e-06</v>
+        <v>0.001412652200087905</v>
       </c>
       <c r="X6" t="n">
-        <v>9.077171853277832e-06</v>
+        <v>0.0003002127632498741</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.315156936878338e-05</v>
+        <v>0.0004931119037792087</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0001545926061226055</v>
+        <v>0.001587779494002461</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.451516128436197e-06</v>
+        <v>0.0007569309673272073</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.479807052528486e-05</v>
+        <v>0.0005640265881083906</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.831102604744956e-07</v>
+        <v>0.0007471864810213447</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.839549622673076e-05</v>
+        <v>0.0007781313615851104</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.267613884527236e-05</v>
+        <v>0.000213621009606868</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.025693437550217e-05</v>
+        <v>0.0006346488371491432</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.895060894545168e-05</v>
+        <v>0.0005647915531881154</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.715430623036809e-05</v>
+        <v>0.0002594200777821243</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0001629230682738125</v>
+        <v>0.0003179762279614806</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0001297870330745354</v>
+        <v>0.0008298620814457536</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.379849219229072e-05</v>
+        <v>0.001377889420837164</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.099293674807996e-05</v>
+        <v>0.001393182552419603</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.857020419673063e-05</v>
+        <v>0.0006667133420705795</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.611214823555201e-05</v>
+        <v>0.0001759572332957759</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.866755312425084e-05</v>
+        <v>2.566753573773894e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.839943590515759e-05</v>
+        <v>0.0008777244365774095</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6.309897798928432e-06</v>
+        <v>0.0002603985776659101</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.620782495592721e-05</v>
+        <v>0.0004838047898374498</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.220510279788869e-06</v>
+        <v>0.0009091776446439326</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.00017745845252648</v>
+        <v>0.0007070614956319332</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.05922424356686e-05</v>
+        <v>0.009004761464893818</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0001968613069038838</v>
+        <v>0.0008554582018405199</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.657440437469631e-05</v>
+        <v>0.001133560319431126</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.756909088930115e-05</v>
+        <v>9.790879266802222e-05</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.0001367677468806505</v>
+        <v>0.00223515322431922</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9.742333531903569e-06</v>
+        <v>0.001135904807597399</v>
       </c>
       <c r="BA6" t="n">
-        <v>5.306716775521636e-05</v>
+        <v>0.0008395748445764184</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.430452099768445e-05</v>
+        <v>0.001270067412406206</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0001010531705105677</v>
+        <v>0.0005439851665869355</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.136151008220622e-06</v>
+        <v>0.001981978537514806</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.000148344348417595</v>
+        <v>0.002316054189577699</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.322604996152222e-05</v>
+        <v>4.077987978234887e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>8.373619493795559e-06</v>
+        <v>0.003957285545766354</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.078357217920711e-05</v>
+        <v>0.003207386005669832</v>
       </c>
       <c r="BI6" t="n">
-        <v>8.733683353057131e-05</v>
+        <v>0.0008225332130677998</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4.142745456192642e-05</v>
+        <v>0.001433155499398708</v>
       </c>
       <c r="BK6" t="n">
-        <v>5.407057324191555e-05</v>
+        <v>0.0002088983310386539</v>
       </c>
       <c r="BL6" t="n">
-        <v>6.879306965856813e-06</v>
+        <v>0.001320457085967064</v>
       </c>
       <c r="BM6" t="n">
-        <v>4.769919542013668e-05</v>
+        <v>0.001633308362215757</v>
       </c>
       <c r="BN6" t="n">
-        <v>8.331006392836571e-05</v>
+        <v>0.001094800652936101</v>
       </c>
       <c r="BO6" t="n">
-        <v>5.527159373741597e-05</v>
+        <v>0.0004140171804465353</v>
       </c>
       <c r="BP6" t="n">
-        <v>7.913677109172568e-05</v>
+        <v>0.0008396682096645236</v>
       </c>
       <c r="BQ6" t="n">
-        <v>4.001997149316594e-05</v>
+        <v>0.001222976366989315</v>
       </c>
       <c r="BR6" t="n">
-        <v>5.434616105048917e-05</v>
+        <v>0.0005905438447371125</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.939091089298017e-05</v>
+        <v>0.0007665751618333161</v>
       </c>
       <c r="BT6" t="n">
-        <v>8.56784845382208e-06</v>
+        <v>0.0005265054642222822</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.0001112161407945678</v>
+        <v>0.0005133567610755563</v>
       </c>
       <c r="BV6" t="n">
-        <v>4.782761607202701e-06</v>
+        <v>0.004671348258852959</v>
       </c>
       <c r="BW6" t="n">
-        <v>8.922964480007067e-05</v>
+        <v>0.001339876558631659</v>
       </c>
       <c r="BX6" t="n">
-        <v>8.637439896119758e-05</v>
+        <v>0.0005780662759207189</v>
       </c>
       <c r="BY6" t="n">
-        <v>3.111487239948474e-05</v>
+        <v>9.001178841572255e-05</v>
       </c>
       <c r="BZ6" t="n">
-        <v>5.203150794841349e-05</v>
+        <v>0.0004250835627317429</v>
       </c>
       <c r="CA6" t="n">
-        <v>2.865435089915991e-05</v>
+        <v>0.000311749055981636</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.42358849188895e-05</v>
+        <v>0.000213432518648915</v>
       </c>
       <c r="CC6" t="n">
-        <v>4.436331437318586e-05</v>
+        <v>0.0009703585528768599</v>
       </c>
       <c r="CD6" t="n">
-        <v>8.190244261641055e-05</v>
+        <v>7.966451084939763e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>7.695264503126964e-05</v>
+        <v>0.002089135348796844</v>
       </c>
       <c r="CF6" t="n">
-        <v>9.17112483875826e-05</v>
+        <v>0.000805527379270643</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.192769534303807e-05</v>
+        <v>0.0009429635829292238</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.701699147815816e-06</v>
+        <v>0.0001768506917869672</v>
       </c>
       <c r="CI6" t="n">
-        <v>3.974725041189231e-05</v>
+        <v>0.0008743289508856833</v>
       </c>
       <c r="CJ6" t="n">
-        <v>4.440811244421639e-05</v>
+        <v>0.00107309187296778</v>
       </c>
       <c r="CK6" t="n">
-        <v>2.207746183557902e-05</v>
+        <v>2.267025774926879e-05</v>
       </c>
       <c r="CL6" t="n">
-        <v>2.671104994078632e-06</v>
+        <v>0.0005729999393224716</v>
       </c>
       <c r="CM6" t="n">
-        <v>9.487844181421679e-07</v>
+        <v>0.002707142382860184</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.000140504285809584</v>
+        <v>0.0009314591879956424</v>
       </c>
       <c r="CO6" t="n">
-        <v>3.857987030642107e-05</v>
+        <v>0.0001247361360583454</v>
       </c>
       <c r="CP6" t="n">
-        <v>4.368365989648737e-05</v>
+        <v>0.002253187820315361</v>
       </c>
       <c r="CQ6" t="n">
-        <v>2.670047979336232e-05</v>
+        <v>0.001184446620754898</v>
       </c>
       <c r="CR6" t="n">
-        <v>7.825477950973436e-06</v>
+        <v>0.0001632526109460741</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.312071526626823e-05</v>
+        <v>0.002790016587823629</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.276035527553177e-05</v>
+        <v>0.002499419962987304</v>
       </c>
       <c r="CU6" t="n">
-        <v>9.727336146170273e-05</v>
+        <v>0.0006868792115710676</v>
       </c>
       <c r="CV6" t="n">
-        <v>7.263933366630226e-05</v>
+        <v>7.646750600542873e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>6.07823531026952e-05</v>
+        <v>0.001852212240919471</v>
       </c>
       <c r="CX6" t="n">
-        <v>9.709192090667784e-05</v>
+        <v>0.0009202277869917452</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.399635766574647e-05</v>
+        <v>0.001384862815029919</v>
       </c>
       <c r="CZ6" t="n">
-        <v>3.578009636839852e-05</v>
+        <v>0.0003236481861677021</v>
       </c>
       <c r="DA6" t="n">
-        <v>3.108555029029958e-05</v>
+        <v>0.001074574654921889</v>
       </c>
       <c r="DB6" t="n">
-        <v>4.428129250300117e-05</v>
+        <v>0.0009370375191792846</v>
       </c>
       <c r="DC6" t="n">
-        <v>6.510013008664828e-06</v>
+        <v>0.0004004203656222671</v>
       </c>
       <c r="DD6" t="n">
-        <v>5.873523150512483e-06</v>
+        <v>0.0002639912418089807</v>
       </c>
       <c r="DE6" t="n">
-        <v>5.900153701077215e-05</v>
+        <v>0.00127571658231318</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0001087744094547816</v>
+        <v>0.00144882476888597</v>
       </c>
       <c r="DG6" t="n">
-        <v>3.207321242371108e-06</v>
+        <v>0.0001943015959113836</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.722899469314143e-05</v>
+        <v>0.003096319502219558</v>
       </c>
       <c r="DI6" t="n">
-        <v>8.181785960914567e-05</v>
+        <v>0.002543893875554204</v>
       </c>
       <c r="DJ6" t="n">
-        <v>3.245190237066709e-05</v>
+        <v>0.001107907854020596</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.600254108780064e-05</v>
+        <v>0.000868643750436604</v>
       </c>
       <c r="DL6" t="n">
-        <v>3.955333886551671e-05</v>
+        <v>0.0005522655555978417</v>
       </c>
       <c r="DM6" t="n">
-        <v>6.40662110527046e-05</v>
+        <v>0.001583814504556358</v>
       </c>
       <c r="DN6" t="n">
-        <v>2.153653895220486e-06</v>
+        <v>0.000488448713440448</v>
       </c>
       <c r="DO6" t="n">
-        <v>8.063095447141677e-05</v>
+        <v>0.00020134802616667</v>
       </c>
       <c r="DP6" t="n">
-        <v>1.555658673169091e-05</v>
+        <v>0.00169972877483815</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.967782736755908e-08</v>
+        <v>1.703199814073741e-05</v>
       </c>
       <c r="DR6" t="n">
-        <v>3.548290624166839e-05</v>
+        <v>0.001215803320519626</v>
       </c>
       <c r="DS6" t="n">
-        <v>3.539443423505872e-05</v>
+        <v>0.001175732119008899</v>
       </c>
       <c r="DT6" t="n">
-        <v>2.33638293138938e-05</v>
+        <v>0.0006637029000557959</v>
       </c>
       <c r="DU6" t="n">
-        <v>4.911775613436475e-05</v>
+        <v>0.0002770522842183709</v>
       </c>
       <c r="DV6" t="n">
-        <v>5.787283589597791e-05</v>
+        <v>0.001194910611957312</v>
       </c>
       <c r="DW6" t="n">
-        <v>2.643018888193183e-05</v>
+        <v>0.0002573571400716901</v>
       </c>
       <c r="DX6" t="n">
-        <v>5.710962068405934e-05</v>
+        <v>0.0009359890827909112</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.532521491753869e-05</v>
+        <v>0.0008823351236060262</v>
       </c>
       <c r="DZ6" t="n">
-        <v>5.001882527722046e-06</v>
+        <v>0.0006202084477990866</v>
       </c>
       <c r="EA6" t="n">
-        <v>4.721797813544981e-05</v>
+        <v>0.0002639666781760752</v>
       </c>
       <c r="EB6" t="n">
-        <v>2.790521830320358e-05</v>
+        <v>0.001297924667596817</v>
       </c>
       <c r="EC6" t="n">
-        <v>2.988963387906551e-07</v>
+        <v>0.000313272699713707</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.0001006050879368559</v>
+        <v>0.001217277022078633</v>
       </c>
       <c r="EE6" t="n">
-        <v>4.840070232603466e-06</v>
+        <v>0.0003126142255496234</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.0001214767034980468</v>
+        <v>0.0003774217329919338</v>
       </c>
       <c r="EG6" t="n">
-        <v>8.638833242002875e-05</v>
+        <v>0.002133678644895554</v>
       </c>
       <c r="EH6" t="n">
-        <v>8.584186434745789e-05</v>
+        <v>0.0004717270494438708</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.666277967160568e-05</v>
+        <v>0.0002938679826911539</v>
       </c>
       <c r="EJ6" t="n">
-        <v>3.69669942301698e-06</v>
+        <v>0.0001214069488923997</v>
       </c>
       <c r="EK6" t="n">
-        <v>5.035909998696297e-05</v>
+        <v>0.0004279481363482773</v>
       </c>
       <c r="EL6" t="n">
-        <v>4.735853508464061e-05</v>
+        <v>0.001043744035996497</v>
       </c>
       <c r="EM6" t="n">
-        <v>7.943230593809858e-05</v>
+        <v>0.0004190289182588458</v>
       </c>
       <c r="EN6" t="n">
-        <v>4.342543979873881e-05</v>
+        <v>0.000119660617201589</v>
       </c>
       <c r="EO6" t="n">
-        <v>2.26420488615986e-05</v>
+        <v>5.26494113728404e-05</v>
       </c>
       <c r="EP6" t="n">
-        <v>6.139546894701198e-05</v>
+        <v>0.001280829077586532</v>
       </c>
       <c r="EQ6" t="n">
-        <v>2.934744043159299e-05</v>
+        <v>0.001027579652145505</v>
       </c>
       <c r="ER6" t="n">
-        <v>8.423486178799067e-06</v>
+        <v>0.000538854394108057</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.10111304820748e-05</v>
+        <v>0.0002597762504592538</v>
       </c>
       <c r="ET6" t="n">
-        <v>5.755983511335216e-05</v>
+        <v>0.001395156956277788</v>
       </c>
       <c r="EU6" t="n">
-        <v>8.469659951515496e-05</v>
+        <v>0.0006688730791211128</v>
       </c>
       <c r="EV6" t="n">
-        <v>7.086309051373973e-05</v>
+        <v>0.001742302672937512</v>
       </c>
       <c r="EW6" t="n">
-        <v>5.613837493001483e-05</v>
+        <v>0.001426349976100028</v>
       </c>
       <c r="EX6" t="n">
-        <v>6.764330464648083e-05</v>
+        <v>0.0003830599598586559</v>
       </c>
       <c r="EY6" t="n">
-        <v>6.121663318481296e-05</v>
+        <v>0.001651872647926211</v>
       </c>
       <c r="EZ6" t="n">
-        <v>9.263723040930927e-05</v>
+        <v>0.0004835054569412023</v>
       </c>
       <c r="FA6" t="n">
-        <v>1.508566128904931e-05</v>
+        <v>0.0008736643940210342</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.254351627721917e-05</v>
+        <v>0.0002300143096363172</v>
       </c>
       <c r="FC6" t="n">
-        <v>1.261284251086181e-05</v>
+        <v>0.0009969657985493541</v>
       </c>
       <c r="FD6" t="n">
-        <v>5.201123713050038e-05</v>
+        <v>0.001170151401311159</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.078902732842835e-05</v>
+        <v>1.2004993550363e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.441852236894192e-05</v>
+        <v>0.0005925537552684546</v>
       </c>
       <c r="FG6" t="n">
-        <v>4.418981552589685e-05</v>
+        <v>0.0002189650840591639</v>
       </c>
       <c r="FH6" t="n">
-        <v>3.411145371501334e-06</v>
+        <v>0.0002762858930509537</v>
       </c>
       <c r="FI6" t="n">
-        <v>6.253392348298803e-05</v>
+        <v>0.001878457143902779</v>
       </c>
       <c r="FJ6" t="n">
-        <v>4.468779661692679e-05</v>
+        <v>0.003197936341166496</v>
       </c>
       <c r="FK6" t="n">
-        <v>7.839616591809317e-05</v>
+        <v>0.0005341659998521209</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.0001114175756811164</v>
+        <v>0.001392462407238781</v>
       </c>
       <c r="FM6" t="n">
-        <v>2.102716098306701e-05</v>
+        <v>0.0003571462875697762</v>
       </c>
       <c r="FN6" t="n">
-        <v>7.423466740874574e-06</v>
+        <v>0.0003182666259817779</v>
       </c>
       <c r="FO6" t="n">
-        <v>5.067761230748147e-05</v>
+        <v>0.001265189726836979</v>
       </c>
       <c r="FP6" t="n">
-        <v>4.522588278632611e-05</v>
+        <v>0.001244613784365356</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.0002451203181408346</v>
+        <v>0.002748003927990794</v>
       </c>
       <c r="FR6" t="n">
-        <v>4.684268787968904e-05</v>
+        <v>0.0007900593336671591</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.19349715532735e-06</v>
+        <v>0.001138201914727688</v>
       </c>
       <c r="FT6" t="n">
-        <v>6.584622315131128e-05</v>
+        <v>0.001563087454997003</v>
       </c>
       <c r="FU6" t="n">
-        <v>6.928507355041802e-05</v>
+        <v>0.0006692001479677856</v>
       </c>
       <c r="FV6" t="n">
-        <v>4.955776603310369e-06</v>
+        <v>0.0009899104479700327</v>
       </c>
       <c r="FW6" t="n">
-        <v>9.853292431216687e-05</v>
+        <v>0.00121460179798305</v>
       </c>
       <c r="FX6" t="n">
-        <v>2.943236540886573e-05</v>
+        <v>0.0002019747334998101</v>
       </c>
       <c r="FY6" t="n">
-        <v>4.819434252567589e-05</v>
+        <v>0.002112170215696096</v>
       </c>
       <c r="FZ6" t="n">
-        <v>2.923708598245867e-05</v>
+        <v>8.275494474219158e-05</v>
       </c>
       <c r="GA6" t="n">
-        <v>6.449092325055972e-06</v>
+        <v>0.0005286425584927201</v>
       </c>
       <c r="GB6" t="n">
-        <v>1.622363924980164e-06</v>
+        <v>0.0001677376276347786</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.428716223017545e-05</v>
+        <v>8.175476978067309e-06</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.0001036900575854816</v>
+        <v>0.0002207256620749831</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.900426650536247e-05</v>
+        <v>0.003126385621726513</v>
       </c>
       <c r="GF6" t="n">
-        <v>4.909886047244072e-05</v>
+        <v>0.0004109784495085478</v>
       </c>
       <c r="GG6" t="n">
-        <v>8.094343684206251e-08</v>
+        <v>0.0007072346052154899</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.000136661808937788</v>
+        <v>1.602014435775345e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>5.649635932059027e-05</v>
+        <v>1.194737524201628e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>1.421810611645924e-05</v>
+        <v>1.131290218836511e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>4.319537401897833e-05</v>
+        <v>7.160921086324379e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>7.96370004536584e-05</v>
+        <v>3.494605152809527e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>3.286994979134761e-05</v>
+        <v>3.078115014432115e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>6.57773416605778e-05</v>
+        <v>7.077207442307554e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>3.127857053186744e-05</v>
+        <v>1.277175556424481e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>1.628479367354885e-05</v>
+        <v>8.40504071675241e-07</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001138594816438854</v>
+        <v>3.124618160654791e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>2.802456583594903e-05</v>
+        <v>9.652039807406254e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>6.660285635007313e-06</v>
+        <v>6.297871664173726e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>2.241416405013297e-05</v>
+        <v>5.152880930836545e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>9.689644502941519e-05</v>
+        <v>3.548380391293904e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>5.412226528278552e-06</v>
+        <v>5.565678748098435e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>6.802170537412167e-05</v>
+        <v>1.6090253893708e-06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.376595264446223e-07</v>
+        <v>1.895956984299119e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>8.670908755448181e-06</v>
+        <v>4.14739076859405e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>5.68812720302958e-06</v>
+        <v>2.48491915044724e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>8.461768629786093e-06</v>
+        <v>1.809165496524656e-06</v>
       </c>
       <c r="U7" t="n">
-        <v>8.570011686970247e-07</v>
+        <v>2.892702468670905e-07</v>
       </c>
       <c r="V7" t="n">
-        <v>3.407174972380744e-06</v>
+        <v>1.182049231829296e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.272216534038307e-06</v>
+        <v>5.361468424780469e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>6.521009709103964e-06</v>
+        <v>1.285684675167431e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.462056388845667e-05</v>
+        <v>1.466042135689349e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.704393384396099e-05</v>
+        <v>1.384536062687403e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.956953024608083e-06</v>
+        <v>1.672173198130622e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.525433956179768e-05</v>
+        <v>7.583796559629263e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.663289918331429e-06</v>
+        <v>5.248180201533614e-08</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.47609844134422e-05</v>
+        <v>3.360809728292224e-07</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.683330265223049e-05</v>
+        <v>5.094742618894088e-07</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.241415813841741e-06</v>
+        <v>1.98814447571749e-07</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.993699793791166e-07</v>
+        <v>9.834431580202363e-08</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.265893388335826e-05</v>
+        <v>6.756819175279816e-07</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.588898107409477e-05</v>
+        <v>4.081848032910784e-07</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.659811823628843e-05</v>
+        <v>6.707929856020201e-07</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.044360189756844e-05</v>
+        <v>7.277019449247746e-07</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.870700523606502e-08</v>
+        <v>1.630515839678992e-06</v>
       </c>
       <c r="AM7" t="n">
-        <v>5.401866474130657e-06</v>
+        <v>3.936656867153943e-07</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.932119266712107e-05</v>
+        <v>1.115158738684841e-07</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.979159242182504e-05</v>
+        <v>2.655289392805571e-07</v>
       </c>
       <c r="AP7" t="n">
-        <v>7.960574293974787e-06</v>
+        <v>2.857271397260774e-08</v>
       </c>
       <c r="AQ7" t="n">
-        <v>5.362917363527231e-06</v>
+        <v>6.768696039216593e-07</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.596721794314362e-07</v>
+        <v>7.967140192022271e-08</v>
       </c>
       <c r="AS7" t="n">
-        <v>7.989492587512359e-06</v>
+        <v>9.963690672520897e-07</v>
       </c>
       <c r="AT7" t="n">
-        <v>6.310949538601562e-05</v>
+        <v>9.012453574541723e-07</v>
       </c>
       <c r="AU7" t="n">
-        <v>2.511942329874728e-05</v>
+        <v>7.552760507678613e-06</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.560461664164905e-06</v>
+        <v>5.227356609793787e-07</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.312093627348077e-05</v>
+        <v>2.540782816140563e-06</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.101821130258031e-05</v>
+        <v>1.27782777781249e-06</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.522818729426945e-05</v>
+        <v>4.813113037016592e-07</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.113198322855169e-05</v>
+        <v>9.050166340784926e-07</v>
       </c>
       <c r="BA7" t="n">
-        <v>8.659070772409905e-06</v>
+        <v>6.161539545246342e-07</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.396622974425554e-05</v>
+        <v>1.753507035573421e-06</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.2401301470818e-05</v>
+        <v>9.050374956132146e-07</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.838294565459364e-06</v>
+        <v>2.574043946879101e-06</v>
       </c>
       <c r="BE7" t="n">
-        <v>4.439973963599186e-06</v>
+        <v>3.476670372037916e-06</v>
       </c>
       <c r="BF7" t="n">
-        <v>7.352161901508225e-08</v>
+        <v>1.227090365318873e-06</v>
       </c>
       <c r="BG7" t="n">
-        <v>2.348798807361163e-05</v>
+        <v>2.327578613403603e-06</v>
       </c>
       <c r="BH7" t="n">
-        <v>7.631221706105862e-06</v>
+        <v>2.450118017804925e-06</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.330367897229735e-05</v>
+        <v>3.374618131601892e-07</v>
       </c>
       <c r="BJ7" t="n">
-        <v>2.694092290767003e-05</v>
+        <v>2.216432221757714e-06</v>
       </c>
       <c r="BK7" t="n">
-        <v>4.969069323124131e-06</v>
+        <v>7.633866516698617e-07</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.863291229004972e-06</v>
+        <v>1.137030949394102e-06</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.757705285854172e-05</v>
+        <v>1.645127326810325e-06</v>
       </c>
       <c r="BN7" t="n">
-        <v>2.299681455042446e-06</v>
+        <v>1.964178181879106e-06</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.647299541218672e-05</v>
+        <v>1.676530274608012e-07</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.922973933687899e-05</v>
+        <v>9.431934131498565e-07</v>
       </c>
       <c r="BQ7" t="n">
-        <v>9.962793228623923e-06</v>
+        <v>2.729433958847949e-07</v>
       </c>
       <c r="BR7" t="n">
-        <v>2.126676554325968e-05</v>
+        <v>2.147996553958365e-07</v>
       </c>
       <c r="BS7" t="n">
-        <v>2.166910599044058e-05</v>
+        <v>1.775457292296778e-07</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.404052818543278e-05</v>
+        <v>8.473292467670035e-08</v>
       </c>
       <c r="BU7" t="n">
-        <v>3.834184099105187e-05</v>
+        <v>2.669332843652228e-07</v>
       </c>
       <c r="BV7" t="n">
-        <v>4.330993760959245e-06</v>
+        <v>4.201012416160665e-06</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.81180439540185e-07</v>
+        <v>1.492721708018507e-06</v>
       </c>
       <c r="BX7" t="n">
-        <v>3.400493005756289e-05</v>
+        <v>1.877327804322704e-06</v>
       </c>
       <c r="BY7" t="n">
-        <v>4.665417509386316e-05</v>
+        <v>1.695487412689545e-07</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.323174910794478e-05</v>
+        <v>5.425327458397078e-07</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.755113044055179e-05</v>
+        <v>1.460638259231928e-06</v>
       </c>
       <c r="CB7" t="n">
-        <v>9.042443025464308e-07</v>
+        <v>3.237191492644342e-07</v>
       </c>
       <c r="CC7" t="n">
-        <v>1.236428829543001e-06</v>
+        <v>1.343963276667637e-06</v>
       </c>
       <c r="CD7" t="n">
-        <v>2.678140117495786e-05</v>
+        <v>1.065801598088001e-07</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.783364314178471e-05</v>
+        <v>1.948969611476059e-06</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.996387138409773e-06</v>
+        <v>1.344979068562679e-06</v>
       </c>
       <c r="CG7" t="n">
-        <v>1.012583197734784e-05</v>
+        <v>6.15830572314735e-07</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.475793942518067e-05</v>
+        <v>1.781367870989925e-07</v>
       </c>
       <c r="CI7" t="n">
-        <v>2.546655423429911e-06</v>
+        <v>7.643805020052241e-07</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.377000990032684e-05</v>
+        <v>2.248575441399225e-07</v>
       </c>
       <c r="CK7" t="n">
-        <v>6.144402050267672e-06</v>
+        <v>9.394020139552595e-08</v>
       </c>
       <c r="CL7" t="n">
-        <v>6.71114730721456e-06</v>
+        <v>9.758877013155143e-07</v>
       </c>
       <c r="CM7" t="n">
-        <v>3.055073648283724e-06</v>
+        <v>1.647248382141697e-06</v>
       </c>
       <c r="CN7" t="n">
-        <v>1.444859935872955e-05</v>
+        <v>6.587030156879337e-07</v>
       </c>
       <c r="CO7" t="n">
-        <v>1.020202125801006e-05</v>
+        <v>4.658832608583907e-07</v>
       </c>
       <c r="CP7" t="n">
-        <v>5.894753485335968e-06</v>
+        <v>1.625412323846831e-06</v>
       </c>
       <c r="CQ7" t="n">
-        <v>6.448436124628643e-06</v>
+        <v>1.532278474769555e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>2.373397728661075e-05</v>
+        <v>6.180695208968245e-07</v>
       </c>
       <c r="CS7" t="n">
-        <v>1.555529934194055e-06</v>
+        <v>2.195641854996211e-06</v>
       </c>
       <c r="CT7" t="n">
-        <v>2.111430694640148e-05</v>
+        <v>1.598638505129202e-06</v>
       </c>
       <c r="CU7" t="n">
-        <v>6.348017905111192e-06</v>
+        <v>1.223057353172408e-07</v>
       </c>
       <c r="CV7" t="n">
-        <v>2.175659938075114e-05</v>
+        <v>6.618940062708134e-08</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.448347120458493e-05</v>
+        <v>1.668552386036026e-06</v>
       </c>
       <c r="CX7" t="n">
-        <v>2.570148126324057e-06</v>
+        <v>1.321963850386965e-06</v>
       </c>
       <c r="CY7" t="n">
-        <v>7.560255653515924e-06</v>
+        <v>1.32908303385193e-06</v>
       </c>
       <c r="CZ7" t="n">
-        <v>9.906369996315334e-06</v>
+        <v>2.524227511457866e-07</v>
       </c>
       <c r="DA7" t="n">
-        <v>4.692183665611083e-06</v>
+        <v>8.489110996379168e-07</v>
       </c>
       <c r="DB7" t="n">
-        <v>1.417169914930128e-05</v>
+        <v>4.07125241963513e-07</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.228374458150938e-05</v>
+        <v>3.64306856681651e-07</v>
       </c>
       <c r="DD7" t="n">
-        <v>8.177054041880183e-06</v>
+        <v>6.132560770311102e-07</v>
       </c>
       <c r="DE7" t="n">
-        <v>1.721883199934382e-05</v>
+        <v>6.681055424451188e-07</v>
       </c>
       <c r="DF7" t="n">
-        <v>3.922901669284329e-05</v>
+        <v>6.955502271921432e-07</v>
       </c>
       <c r="DG7" t="n">
-        <v>3.58891225005209e-06</v>
+        <v>2.014395249716472e-06</v>
       </c>
       <c r="DH7" t="n">
-        <v>2.33154514717171e-06</v>
+        <v>6.03029639023589e-06</v>
       </c>
       <c r="DI7" t="n">
-        <v>2.846747975127073e-06</v>
+        <v>1.332835154244094e-06</v>
       </c>
       <c r="DJ7" t="n">
-        <v>6.415034476958681e-07</v>
+        <v>8.217000981858291e-07</v>
       </c>
       <c r="DK7" t="n">
-        <v>4.427220574143576e-06</v>
+        <v>8.838637768349145e-07</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.52725860971259e-05</v>
+        <v>1.646802047616802e-06</v>
       </c>
       <c r="DM7" t="n">
-        <v>2.480134071447537e-06</v>
+        <v>7.580109695481951e-08</v>
       </c>
       <c r="DN7" t="n">
-        <v>2.02640876523219e-06</v>
+        <v>3.329180913169694e-07</v>
       </c>
       <c r="DO7" t="n">
-        <v>1.096286632673582e-05</v>
+        <v>1.090201521947165e-06</v>
       </c>
       <c r="DP7" t="n">
-        <v>7.332230325118871e-06</v>
+        <v>1.585656377756095e-06</v>
       </c>
       <c r="DQ7" t="n">
-        <v>5.358174803404836e-06</v>
+        <v>5.192714525037445e-07</v>
       </c>
       <c r="DR7" t="n">
-        <v>2.754564229690004e-05</v>
+        <v>2.075677656421249e-07</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.724280082271434e-05</v>
+        <v>6.35736341791926e-07</v>
       </c>
       <c r="DT7" t="n">
-        <v>9.253531061403919e-06</v>
+        <v>3.610402359299769e-07</v>
       </c>
       <c r="DU7" t="n">
-        <v>1.675269231782295e-05</v>
+        <v>3.334433529289527e-08</v>
       </c>
       <c r="DV7" t="n">
-        <v>5.758669431088492e-06</v>
+        <v>2.012502136494732e-06</v>
       </c>
       <c r="DW7" t="n">
-        <v>8.803706805338152e-06</v>
+        <v>4.113218778911687e-07</v>
       </c>
       <c r="DX7" t="n">
-        <v>2.769010461634025e-05</v>
+        <v>1.559754196023277e-06</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.169714232673869e-05</v>
+        <v>1.444620238544303e-06</v>
       </c>
       <c r="DZ7" t="n">
-        <v>2.210809952885029e-07</v>
+        <v>1.495034638310244e-07</v>
       </c>
       <c r="EA7" t="n">
-        <v>3.295318492746446e-06</v>
+        <v>6.618822112613998e-07</v>
       </c>
       <c r="EB7" t="n">
-        <v>1.242017879121704e-05</v>
+        <v>1.634371642467158e-06</v>
       </c>
       <c r="EC7" t="n">
-        <v>5.406976924859919e-06</v>
+        <v>8.038487635531055e-07</v>
       </c>
       <c r="ED7" t="n">
-        <v>2.491840132279322e-05</v>
+        <v>4.342063277817942e-07</v>
       </c>
       <c r="EE7" t="n">
-        <v>3.31940805153863e-06</v>
+        <v>2.504225449229125e-07</v>
       </c>
       <c r="EF7" t="n">
-        <v>4.42808486695867e-05</v>
+        <v>1.220497694021105e-07</v>
       </c>
       <c r="EG7" t="n">
-        <v>3.922553878510371e-05</v>
+        <v>1.114193651119422e-06</v>
       </c>
       <c r="EH7" t="n">
-        <v>3.140462013107026e-06</v>
+        <v>4.940066560266132e-07</v>
       </c>
       <c r="EI7" t="n">
-        <v>2.042502637777943e-05</v>
+        <v>2.947373900497041e-07</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.428421637683641e-05</v>
+        <v>4.030004276955879e-07</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.745981307976763e-06</v>
+        <v>6.661402380814252e-07</v>
       </c>
       <c r="EL7" t="n">
-        <v>1.743531356623862e-05</v>
+        <v>2.859388246179151e-07</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.481951014488004e-06</v>
+        <v>5.859274665453995e-07</v>
       </c>
       <c r="EN7" t="n">
-        <v>7.914181878732052e-06</v>
+        <v>3.173353491092712e-07</v>
       </c>
       <c r="EO7" t="n">
-        <v>6.969670266698813e-06</v>
+        <v>1.823367199449422e-07</v>
       </c>
       <c r="EP7" t="n">
-        <v>3.065652708755806e-05</v>
+        <v>1.88386763966264e-07</v>
       </c>
       <c r="EQ7" t="n">
-        <v>3.731868673639838e-06</v>
+        <v>1.983496076718438e-06</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.545724444440566e-06</v>
+        <v>2.71527881068323e-07</v>
       </c>
       <c r="ES7" t="n">
-        <v>2.558641426730901e-05</v>
+        <v>4.436485312453442e-07</v>
       </c>
       <c r="ET7" t="n">
-        <v>5.708085382138961e-07</v>
+        <v>8.472368904222094e-07</v>
       </c>
       <c r="EU7" t="n">
-        <v>6.803704764024587e-06</v>
+        <v>8.520590313310095e-07</v>
       </c>
       <c r="EV7" t="n">
-        <v>2.076883538393304e-05</v>
+        <v>2.45420642386307e-06</v>
       </c>
       <c r="EW7" t="n">
-        <v>5.90703280067828e-07</v>
+        <v>3.243879405090411e-07</v>
       </c>
       <c r="EX7" t="n">
-        <v>2.102045982610434e-05</v>
+        <v>8.400786555284867e-08</v>
       </c>
       <c r="EY7" t="n">
-        <v>1.275383056054125e-05</v>
+        <v>1.601824010322161e-06</v>
       </c>
       <c r="EZ7" t="n">
-        <v>7.60783109399199e-07</v>
+        <v>1.125157041315106e-06</v>
       </c>
       <c r="FA7" t="n">
-        <v>1.083950519387145e-05</v>
+        <v>9.252152608496544e-07</v>
       </c>
       <c r="FB7" t="n">
-        <v>1.026049631036585e-05</v>
+        <v>3.380419144605185e-08</v>
       </c>
       <c r="FC7" t="n">
-        <v>1.522825982647191e-06</v>
+        <v>8.114191700769879e-07</v>
       </c>
       <c r="FD7" t="n">
-        <v>1.384602001053281e-05</v>
+        <v>6.942127583897673e-07</v>
       </c>
       <c r="FE7" t="n">
-        <v>1.014167173707392e-05</v>
+        <v>9.275759538240891e-08</v>
       </c>
       <c r="FF7" t="n">
-        <v>6.633920747844968e-06</v>
+        <v>9.471017392570502e-07</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.103207614505664e-05</v>
+        <v>1.164081368187908e-06</v>
       </c>
       <c r="FH7" t="n">
-        <v>3.176488007738953e-06</v>
+        <v>1.806978673357662e-07</v>
       </c>
       <c r="FI7" t="n">
-        <v>9.406485332874581e-06</v>
+        <v>1.871223503258079e-06</v>
       </c>
       <c r="FJ7" t="n">
-        <v>4.357741545391036e-06</v>
+        <v>1.144611701420217e-06</v>
       </c>
       <c r="FK7" t="n">
-        <v>2.873794437618926e-05</v>
+        <v>2.030495238614094e-07</v>
       </c>
       <c r="FL7" t="n">
-        <v>4.399298177304445e-06</v>
+        <v>6.596196158170642e-07</v>
       </c>
       <c r="FM7" t="n">
-        <v>1.805506144592073e-07</v>
+        <v>1.553097916939805e-08</v>
       </c>
       <c r="FN7" t="n">
-        <v>1.395685831084847e-05</v>
+        <v>1.833473561418941e-06</v>
       </c>
       <c r="FO7" t="n">
-        <v>6.903840130689787e-06</v>
+        <v>5.32445653789182e-07</v>
       </c>
       <c r="FP7" t="n">
-        <v>2.227878758276347e-05</v>
+        <v>1.044273858497036e-07</v>
       </c>
       <c r="FQ7" t="n">
-        <v>2.945710912172217e-05</v>
+        <v>9.578283197697601e-07</v>
       </c>
       <c r="FR7" t="n">
-        <v>2.886169340854394e-06</v>
+        <v>1.151193131931905e-07</v>
       </c>
       <c r="FS7" t="n">
-        <v>1.093096670956584e-05</v>
+        <v>3.268236170583805e-08</v>
       </c>
       <c r="FT7" t="n">
-        <v>8.533861546311527e-06</v>
+        <v>3.170582203892991e-06</v>
       </c>
       <c r="FU7" t="n">
-        <v>5.248252364253858e-06</v>
+        <v>6.315040081972256e-07</v>
       </c>
       <c r="FV7" t="n">
-        <v>4.25100552092772e-06</v>
+        <v>1.504379383732157e-06</v>
       </c>
       <c r="FW7" t="n">
-        <v>8.198020623240154e-06</v>
+        <v>1.175371949102555e-06</v>
       </c>
       <c r="FX7" t="n">
-        <v>2.131147084583063e-06</v>
+        <v>4.99230338846246e-07</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.719111423881259e-05</v>
+        <v>2.392982878518524e-06</v>
       </c>
       <c r="FZ7" t="n">
-        <v>1.738767059578095e-05</v>
+        <v>9.328149417342502e-07</v>
       </c>
       <c r="GA7" t="n">
-        <v>1.663225157244597e-05</v>
+        <v>1.885831437675733e-07</v>
       </c>
       <c r="GB7" t="n">
-        <v>6.334944373520557e-06</v>
+        <v>3.812477586961904e-07</v>
       </c>
       <c r="GC7" t="n">
-        <v>2.674817369552329e-05</v>
+        <v>1.312355266236409e-06</v>
       </c>
       <c r="GD7" t="n">
-        <v>2.411975947325118e-05</v>
+        <v>1.629201278774417e-06</v>
       </c>
       <c r="GE7" t="n">
-        <v>1.197897836391348e-05</v>
+        <v>3.220332018827321e-06</v>
       </c>
       <c r="GF7" t="n">
-        <v>3.329563185161533e-07</v>
+        <v>2.738964042237058e-07</v>
       </c>
       <c r="GG7" t="n">
-        <v>7.667712452530395e-06</v>
+        <v>1.097911763281445e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002589253941550851</v>
+        <v>0.005433950107544661</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0006099119782447815</v>
+        <v>0.02746078185737133</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005438785534352064</v>
+        <v>0.004602905362844467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0009485663613304496</v>
+        <v>0.008615244179964066</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002025533001869917</v>
+        <v>0.008930252864956856</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002885035064537078</v>
+        <v>0.02445491217076778</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001112411729991436</v>
+        <v>0.0006393142975866795</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0005736392922699451</v>
+        <v>0.01089558750391006</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0005248010857030749</v>
+        <v>0.00321120535954833</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00250009004957974</v>
+        <v>0.008420387282967567</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003616414032876492</v>
+        <v>0.0282837375998497</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005069273989647627</v>
+        <v>0.003055132459849119</v>
       </c>
       <c r="M8" t="n">
-        <v>6.969070818740875e-05</v>
+        <v>0.007787878625094891</v>
       </c>
       <c r="N8" t="n">
-        <v>0.000284481473499909</v>
+        <v>0.0001587530132383108</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0007298153359442949</v>
+        <v>0.02424885332584381</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0005757731851190329</v>
+        <v>0.003641699906438589</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002095197094604373</v>
+        <v>0.005352461710572243</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001524621504358947</v>
+        <v>0.002912956289947033</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0001601335097802803</v>
+        <v>0.001219976576976478</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001808559522032738</v>
+        <v>0.002084622625261545</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0004087025881744921</v>
+        <v>0.003081513103097677</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0004900294588878751</v>
+        <v>0.001801502308808267</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0007515553152188659</v>
+        <v>0.0006251753075048327</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0001096185587812215</v>
+        <v>0.0007418981986120343</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0004488752456381917</v>
+        <v>0.001289824489504099</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001242731232196093</v>
+        <v>0.002738614566624165</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.117376713315025e-05</v>
+        <v>0.002277143066748977</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0001291578228119761</v>
+        <v>0.001234531169757247</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0002380416553933173</v>
+        <v>0.002422815188765526</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0007379077142104506</v>
+        <v>0.004389309324324131</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0001091173762688413</v>
+        <v>0.002859393833205104</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0004626232257578522</v>
+        <v>0.001134267309680581</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0003579573822207749</v>
+        <v>0.002195168053731322</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0007201117114163935</v>
+        <v>9.222142398357391e-05</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001112374477088451</v>
+        <v>0.004709746222943068</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.00138066872023046</v>
+        <v>0.001373305916786194</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0007273011142387986</v>
+        <v>0.004699526354670525</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.001340320333838463</v>
+        <v>0.00406821072101593</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0008891174220480025</v>
+        <v>3.804883453994989e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.001142196473665535</v>
+        <v>0.001302819116972387</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0003414427919778973</v>
+        <v>0.0002626638161018491</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0005313350702635944</v>
+        <v>0.003172358497977257</v>
       </c>
       <c r="AQ8" t="n">
-        <v>7.890148117439821e-05</v>
+        <v>0.001581388642080128</v>
       </c>
       <c r="AR8" t="n">
-        <v>4.311489828978665e-05</v>
+        <v>0.001935402629896998</v>
       </c>
       <c r="AS8" t="n">
-        <v>8.154718670994043e-06</v>
+        <v>0.004371871240437031</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001118468935601413</v>
+        <v>0.001438580802641809</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.001582306576892734</v>
+        <v>0.01712122373282909</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.002956027397885919</v>
+        <v>0.00439623836427927</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0009319663513451815</v>
+        <v>0.0006404116284102201</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0005695755244232714</v>
+        <v>0.002023905981332064</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.001215592375956476</v>
+        <v>0.0119746895506978</v>
       </c>
       <c r="AZ8" t="n">
-        <v>7.308924978133291e-05</v>
+        <v>0.002531966660171747</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0003533379349391907</v>
+        <v>0.003855749731883407</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0007913295412436128</v>
+        <v>0.00429226690903306</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.000489048776216805</v>
+        <v>0.002031905110925436</v>
       </c>
       <c r="BD8" t="n">
-        <v>7.977072527864948e-05</v>
+        <v>0.008445153012871742</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.001295711263082922</v>
+        <v>0.008855900727212429</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0001894877350423485</v>
+        <v>0.002192552667111158</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.001538595068268478</v>
+        <v>0.002159898169338703</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0005054167122580111</v>
+        <v>0.006726678926497698</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.001065310440026224</v>
+        <v>0.0009681695373728871</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0003713330079335719</v>
+        <v>0.002634804230183363</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0007526004919782281</v>
+        <v>0.0008416327182203531</v>
       </c>
       <c r="BL8" t="n">
-        <v>1.635277658351697e-05</v>
+        <v>0.001723877619951963</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0004337403224781156</v>
+        <v>0.00373336486518383</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.001272391527891159</v>
+        <v>0.003364337608218193</v>
       </c>
       <c r="BO8" t="n">
-        <v>3.608891711337492e-05</v>
+        <v>0.002702378900721669</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.00059294025413692</v>
+        <v>0.001767892739735544</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0001279581774724647</v>
+        <v>0.0006911510718055069</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0008895060745999217</v>
+        <v>0.003715859726071358</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.001144362497143447</v>
+        <v>0.0001381882466375828</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0003013535460922867</v>
+        <v>0.005388086196035147</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.001104545430280268</v>
+        <v>0.0006664748652838171</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0003832716320175678</v>
+        <v>0.008374730125069618</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.001566320424899459</v>
+        <v>0.00240633636713028</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0006704612169414759</v>
+        <v>0.001115610357373953</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0004744075704365969</v>
+        <v>0.0008491710177622736</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0008604765171185136</v>
+        <v>0.007232677657157183</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0004265173920430243</v>
+        <v>0.0006553304265253246</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0002160129515687004</v>
+        <v>0.003006689017638564</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0001147943185060285</v>
+        <v>0.002153936307877302</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0005009248852729797</v>
+        <v>0.0002781496150419116</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0008812898304313421</v>
+        <v>0.00444432906806469</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.001079711131751537</v>
+        <v>0.002613181713968515</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0001742325403029099</v>
+        <v>0.001799948862753808</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0002270127442898229</v>
+        <v>0.0006180994096212089</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0003442475281190127</v>
+        <v>0.002840102650225163</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0001353830157313496</v>
+        <v>0.001706440467387438</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0003661860828287899</v>
+        <v>0.001189096597954631</v>
       </c>
       <c r="CL8" t="n">
-        <v>9.721844980958849e-05</v>
+        <v>0.002620472107082605</v>
       </c>
       <c r="CM8" t="n">
-        <v>4.420930054038763e-06</v>
+        <v>0.006837931927293539</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.001068238401785493</v>
+        <v>0.003386701457202435</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0002054126234725118</v>
+        <v>0.0005453083431348205</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0001703173184068874</v>
+        <v>0.008114423602819443</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0001799167948774993</v>
+        <v>0.004791830666363239</v>
       </c>
       <c r="CR8" t="n">
-        <v>9.505433263257146e-05</v>
+        <v>0.004703868646174669</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0003451934608165175</v>
+        <v>0.006219579372555017</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0001645820448175073</v>
+        <v>0.004926295951008797</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.0002142157172784209</v>
+        <v>0.001118550426326692</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0005071297055110335</v>
+        <v>0.0003724477719515562</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.0009220170904882252</v>
+        <v>0.004149661399424076</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.001173565397039056</v>
+        <v>0.001792589202523232</v>
       </c>
       <c r="CY8" t="n">
-        <v>4.128908040001988e-05</v>
+        <v>0.003014679532498121</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0006892535020597279</v>
+        <v>0.0005664420314133167</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.000336450437316671</v>
+        <v>0.002852203790098429</v>
       </c>
       <c r="DB8" t="n">
-        <v>6.42867962596938e-05</v>
+        <v>0.001672095153480768</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0002414762711850926</v>
+        <v>0.002146031707525253</v>
       </c>
       <c r="DD8" t="n">
-        <v>6.602324720006436e-05</v>
+        <v>0.001917234156280756</v>
       </c>
       <c r="DE8" t="n">
-        <v>8.7313586845994e-05</v>
+        <v>0.004329860210418701</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.001718797022476792</v>
+        <v>0.004032217431813478</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0003643514937721193</v>
+        <v>0.0003639034403022379</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.0005641842144541442</v>
+        <v>0.003680393565446138</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.000627480389084667</v>
+        <v>0.01148951984941959</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0001941324444487691</v>
+        <v>0.0007339077419601381</v>
       </c>
       <c r="DK8" t="n">
-        <v>8.548653568141162e-05</v>
+        <v>0.003237210679799318</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0002906534064095467</v>
+        <v>0.004406710155308247</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0005337668699212372</v>
+        <v>0.008714242838323116</v>
       </c>
       <c r="DN8" t="n">
-        <v>2.940716512966901e-05</v>
+        <v>0.00128989783115685</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.0009456485859118402</v>
+        <v>0.001513262744992971</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0002937682729680091</v>
+        <v>0.001717895152978599</v>
       </c>
       <c r="DQ8" t="n">
-        <v>5.678757588611916e-07</v>
+        <v>0.003298032796010375</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0001898244663607329</v>
+        <v>0.0009033090900629759</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.001005847472697496</v>
+        <v>0.002158087678253651</v>
       </c>
       <c r="DT8" t="n">
-        <v>7.400948379654437e-05</v>
+        <v>0.001479332451708615</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0001686178147792816</v>
+        <v>8.166296174749732e-05</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0003733297344297171</v>
+        <v>0.000629627495072782</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0002059655234916136</v>
+        <v>0.0004218298709020019</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0002707804669626057</v>
+        <v>0.003519649151712656</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.000442308810306713</v>
+        <v>0.002673492766916752</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.0003018892602995038</v>
+        <v>0.003135181730613112</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0007214519428089261</v>
+        <v>0.001990837277844548</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0007935557514429092</v>
+        <v>0.002497443929314613</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0006769458996132016</v>
+        <v>0.0004783757030963898</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0007337427814491093</v>
+        <v>0.002135143615305424</v>
       </c>
       <c r="EE8" t="n">
-        <v>2.771354047581553e-06</v>
+        <v>0.001575876725837588</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0009433602099306881</v>
+        <v>0.001876855036243796</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.0006460461881943047</v>
+        <v>0.006062780041247606</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.00112567376345396</v>
+        <v>0.002244463423267007</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0002842125832103193</v>
+        <v>0.00263700308278203</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0001115496852435172</v>
+        <v>0.0009435976389795542</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.001253147260285914</v>
+        <v>0.003741429653018713</v>
       </c>
       <c r="EL8" t="n">
-        <v>9.678505011834204e-05</v>
+        <v>0.002160677453503013</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.001057623885571957</v>
+        <v>0.001749693183228374</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.0005691967671737075</v>
+        <v>0.0008657271391712129</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0001261442375835031</v>
+        <v>0.0003525311476550996</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0004795877612195909</v>
+        <v>0.001423167064785957</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0001190542825497687</v>
+        <v>0.001740464707836509</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0001692254008958116</v>
+        <v>0.002684857230633497</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.0001405255025019869</v>
+        <v>0.003260217839851975</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0006691133603453636</v>
+        <v>0.0008090353803709149</v>
       </c>
       <c r="EU8" t="n">
-        <v>2.246208896394819e-05</v>
+        <v>0.004626437090337276</v>
       </c>
       <c r="EV8" t="n">
-        <v>1.054044696502388e-05</v>
+        <v>0.01067245658487082</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.0004832985578104854</v>
+        <v>0.000359373923856765</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0006351342890411615</v>
+        <v>0.001115621067583561</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.0006708707078360021</v>
+        <v>0.003698222106322646</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.001151113538071513</v>
+        <v>0.001286105019971728</v>
       </c>
       <c r="FA8" t="n">
-        <v>1.863599754869938e-05</v>
+        <v>0.001573586603626609</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0005786251276731491</v>
+        <v>0.0001694058591965586</v>
       </c>
       <c r="FC8" t="n">
-        <v>7.424638897646219e-05</v>
+        <v>0.002365674125030637</v>
       </c>
       <c r="FD8" t="n">
-        <v>1.489207716076635e-05</v>
+        <v>0.002675469499081373</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.000410900596762076</v>
+        <v>0.001819886267185211</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.0001953647297341377</v>
+        <v>0.003021940588951111</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0005204402259550989</v>
+        <v>0.0006654873141087592</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0004505373653955758</v>
+        <v>0.001932848594151437</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.0009879418648779392</v>
+        <v>0.003937745932489634</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.0009952564723789692</v>
+        <v>0.006408256478607655</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.000502275419421494</v>
+        <v>0.001263856887817383</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0005206142086535692</v>
+        <v>0.002348213922232389</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.000553747289814055</v>
+        <v>0.0007668480975553393</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0002716704620979726</v>
+        <v>0.00243291724473238</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.0007580394158139825</v>
+        <v>0.004688703455030918</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0006398236146196723</v>
+        <v>0.002971628215163946</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.002492481376975775</v>
+        <v>0.003754005068913102</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.001009292318485677</v>
+        <v>0.001401702640578151</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.0005706625524908304</v>
+        <v>0.00226376811042428</v>
       </c>
       <c r="FT8" t="n">
-        <v>8.004771370906383e-05</v>
+        <v>0.0005210329545661807</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0005454690544866025</v>
+        <v>0.004792041145265102</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0003730455646291375</v>
+        <v>0.002956804353743792</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.000356283358996734</v>
+        <v>0.0006866854964755476</v>
       </c>
       <c r="FX8" t="n">
-        <v>4.727120540337637e-06</v>
+        <v>0.0009093333501368761</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0007232498610392213</v>
+        <v>0.00608349684625864</v>
       </c>
       <c r="FZ8" t="n">
-        <v>7.121606904547662e-05</v>
+        <v>0.00311502767726779</v>
       </c>
       <c r="GA8" t="n">
-        <v>1.390948455082253e-05</v>
+        <v>0.0001503799576312304</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0006218284252099693</v>
+        <v>0.0007608198211528361</v>
       </c>
       <c r="GC8" t="n">
-        <v>8.855996566126123e-05</v>
+        <v>0.001962572801858187</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.000929728732444346</v>
+        <v>0.002603160450235009</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0002990851935464889</v>
+        <v>0.007396154571324587</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0001615764485904947</v>
+        <v>0.004482715856283903</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0002786065742839128</v>
+        <v>0.001547694904729724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.005820805206894875</v>
+        <v>0.001674755476415157</v>
       </c>
       <c r="B9" t="n">
-        <v>0.000632737937849015</v>
+        <v>0.02930710650980473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008732479996979237</v>
+        <v>0.002403112361207604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001776878256350756</v>
+        <v>0.01124268397688866</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002069635782390833</v>
+        <v>0.008482621051371098</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002795474429149181</v>
+        <v>0.02563685551285744</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001942328177392483</v>
+        <v>0.00222168629989028</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001293197856284678</v>
+        <v>0.006942333653569221</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001752177719026804</v>
+        <v>0.000529731041751802</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005596138071268797</v>
+        <v>0.005100348964333534</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002463186101522297</v>
+        <v>0.02806218527257442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009203759022057056</v>
+        <v>0.0004697145195677876</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0006320860702544451</v>
+        <v>0.009599726647138596</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0009990258840844035</v>
+        <v>0.002807219047099352</v>
       </c>
       <c r="O9" t="n">
-        <v>6.3981773564592e-05</v>
+        <v>0.0236255619674921</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001674804370850325</v>
+        <v>0.002362747211009264</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002766171470284462</v>
+        <v>0.004360429011285305</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002951339120045304</v>
+        <v>9.938153380062431e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.000309936614939943</v>
+        <v>0.0007081457297317684</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002590184798464179</v>
+        <v>0.002283333335071802</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0005410032463259995</v>
+        <v>0.0003642004448920488</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0008316105231642723</v>
+        <v>0.00404061283916235</v>
       </c>
       <c r="W9" t="n">
-        <v>1.85851713467855e-05</v>
+        <v>0.003197654383257031</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0002045646542683244</v>
+        <v>0.0008398519130423665</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0006653144955635071</v>
+        <v>0.001107678515836596</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.002115958137437701</v>
+        <v>0.002771295607089996</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.266092971898615e-05</v>
+        <v>0.002424841281026602</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0002358566998736933</v>
+        <v>0.002462102565914392</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0004052339354529977</v>
+        <v>0.001288715749979019</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0004679013218265027</v>
+        <v>0.002008209703490138</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.081806840375066e-05</v>
+        <v>0.002377121243625879</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0001584385026944801</v>
+        <v>0.003034223802387714</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.001028700615279377</v>
+        <v>0.001099446322768927</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0003826408355962485</v>
+        <v>0.001117773354053497</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.002361246151849627</v>
+        <v>0.003362008836120367</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.002159947296604514</v>
+        <v>0.0004509671125560999</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.00123597914353013</v>
+        <v>0.004544001072645187</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.00151549931615591</v>
+        <v>0.003059911075979471</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.0009847211185842752</v>
+        <v>0.002597432117909193</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.001531084650196135</v>
+        <v>0.0007563089020550251</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0003339993127156049</v>
+        <v>0.001143402652814984</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0003728646843228489</v>
+        <v>0.001801366568543017</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9.317715012002736e-06</v>
+        <v>0.0004135313793085515</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0004771014791913331</v>
+        <v>0.002191004808992147</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0001145041023846716</v>
+        <v>0.001979382010176778</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.002457403345033526</v>
+        <v>0.001005592755973339</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.001544806640595198</v>
+        <v>0.019881222397089</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.003895016852766275</v>
+        <v>0.002883949549868703</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.001833078218623996</v>
+        <v>0.0006033590179868042</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0008324350928887725</v>
+        <v>0.002752114087343216</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.002491486258804798</v>
+        <v>0.01166157424449921</v>
       </c>
       <c r="AZ9" t="n">
-        <v>9.275576303480193e-05</v>
+        <v>0.0001311158412136137</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0005434682825580239</v>
+        <v>0.000822740257717669</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0009208141709677875</v>
+        <v>0.00208602799102664</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.001114526763558388</v>
+        <v>0.001784291234798729</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0002553621889092028</v>
+        <v>0.006759621202945709</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.003103632247075438</v>
+        <v>0.007573043461889029</v>
       </c>
       <c r="BF9" t="n">
-        <v>8.515106310369447e-05</v>
+        <v>0.002517492976039648</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.001348722958937287</v>
+        <v>0.008239924907684326</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.0002996032999362797</v>
+        <v>0.009609146043658257</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.00143771746661514</v>
+        <v>0.000155446701683104</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0006416260730475187</v>
+        <v>0.0005290087428875268</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.001081929542124271</v>
+        <v>0.001896100351586938</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.0003605511737987399</v>
+        <v>0.002781106624752283</v>
       </c>
       <c r="BM9" t="n">
-        <v>4.021715722046793e-05</v>
+        <v>0.007125111762434244</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.001999325817450881</v>
+        <v>0.001922390423715115</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0001889780978672206</v>
+        <v>0.002133568050339818</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.001628151279874146</v>
+        <v>0.001022879267111421</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.430258609820157e-05</v>
+        <v>0.003094461048021913</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0003731587203219533</v>
+        <v>0.002501483540982008</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.001108781551010907</v>
+        <v>0.001313095213845372</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.0003020520962309092</v>
+        <v>0.0005131111829541624</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.002303488785400987</v>
+        <v>0.0001390199031447992</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.000665519037283957</v>
+        <v>0.01129064615815878</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.001791591639630497</v>
+        <v>0.001036634435877204</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.001464055734686553</v>
+        <v>0.002822140697389841</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0001728726492729038</v>
+        <v>0.002046098932623863</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.001076323329471052</v>
+        <v>0.004261000081896782</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0002274198195664212</v>
+        <v>0.001957609783858061</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.000211687118280679</v>
+        <v>8.158286073012277e-05</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.0002547951298765838</v>
+        <v>0.001779457787051797</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.001120752189308405</v>
+        <v>8.540775161236525e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.001312316977418959</v>
+        <v>0.004600361455231905</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.001835236791521311</v>
+        <v>0.001987254712730646</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.0002459613024257123</v>
+        <v>0.002074181335046887</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0001215937081724405</v>
+        <v>1.167921436717734e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.0004032154683955014</v>
+        <v>0.00471904594451189</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.0004098713397979736</v>
+        <v>0.001502390950918198</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.0004615163779817522</v>
+        <v>9.74640206550248e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.0001444817171432078</v>
+        <v>0.00150224706158042</v>
       </c>
       <c r="CM9" t="n">
-        <v>3.710268356371671e-05</v>
+        <v>0.007221272215247154</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.002364150248467922</v>
+        <v>0.002277564024552703</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.0002321783249499276</v>
+        <v>0.0006160092307254672</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0001526220585219562</v>
+        <v>0.003314726753160357</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.0007269938942044973</v>
+        <v>0.0004906547255814075</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0005643549957312644</v>
+        <v>0.0006822991417720914</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.0002304853987880051</v>
+        <v>0.004936832468956709</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0002091965870931745</v>
+        <v>0.005336269270628691</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.00122293212916702</v>
+        <v>0.001359708490781486</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.0009923919569700956</v>
+        <v>0.0003030028310604393</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.001195443444885314</v>
+        <v>0.003612657077610493</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.00196189759299159</v>
+        <v>0.00181083579082042</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.0001566307037137449</v>
+        <v>0.003216949757188559</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.0008138775592669845</v>
+        <v>0.0004698676930274814</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.0003266946878284216</v>
+        <v>0.004822926130145788</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.0003243247338104993</v>
+        <v>0.001292387372814119</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.0003544409410096705</v>
+        <v>0.00107417581602931</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.0001595440553501248</v>
+        <v>0.0004440540506038815</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.0005923421704210341</v>
+        <v>0.001867697923444211</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.002909894101321697</v>
+        <v>0.003574629547074437</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0005706572555936873</v>
+        <v>0.0009432124788872898</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.0004338244907557964</v>
+        <v>0.006517502944916487</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0008864331757649779</v>
+        <v>0.006936336867511272</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0007393520791083574</v>
+        <v>0.001379871391691267</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.0002641408354975283</v>
+        <v>0.002036249963566661</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.0002601761370897293</v>
+        <v>0.001770706381648779</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.001160141313448548</v>
+        <v>0.006711459718644619</v>
       </c>
       <c r="DN9" t="n">
-        <v>5.085704106022604e-05</v>
+        <v>5.748320836573839e-05</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.001972431084141135</v>
+        <v>0.0003130002878606319</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.0004159070376772434</v>
+        <v>0.00355256418697536</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0001500413636676967</v>
+        <v>0.0003379650879651308</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0002390715380897745</v>
+        <v>0.001351623330265284</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.000798623776063323</v>
+        <v>0.002223776886239648</v>
       </c>
       <c r="DT9" t="n">
-        <v>9.809516632230952e-05</v>
+        <v>0.0007810469251126051</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0004174671485088766</v>
+        <v>0.002263362752273679</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0004583917616400868</v>
+        <v>0.001122178859077394</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.0003589069528970867</v>
+        <v>0.0005823099636472762</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0003459409927017987</v>
+        <v>0.002458195434883237</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.0002377132477704436</v>
+        <v>0.002118765143677592</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.0002698361058719456</v>
+        <v>0.001732862088829279</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0009137020679190755</v>
+        <v>0.002244080416858196</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.000266003335127607</v>
+        <v>0.003772584954276681</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.0004390858812257648</v>
+        <v>0.0001445986272301525</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0008650003001093864</v>
+        <v>0.0007434700382873416</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.0001803654304239899</v>
+        <v>0.001522373408079147</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.002009558957070112</v>
+        <v>0.001320661744102836</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.0008220972958952188</v>
+        <v>0.005384435877203941</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.001770456903614104</v>
+        <v>0.001184149878099561</v>
       </c>
       <c r="EI9" t="n">
-        <v>6.532238330692053e-05</v>
+        <v>0.001046003773808479</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0003088914672844112</v>
+        <v>0.0002018372761085629</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.001599645824171603</v>
+        <v>0.004634789656847715</v>
       </c>
       <c r="EL9" t="n">
-        <v>4.623514541890472e-05</v>
+        <v>0.001240585814230144</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.001464092405512929</v>
+        <v>0.001738450024276972</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.0008074786746874452</v>
+        <v>0.0002571949153207242</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.0003418541746214032</v>
+        <v>0.000514462823048234</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.0004967406275682151</v>
+        <v>0.001445813104510307</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.0007698914851062</v>
+        <v>0.0008190087974071503</v>
       </c>
       <c r="ER9" t="n">
-        <v>9.090732783079147e-05</v>
+        <v>0.001907902886159718</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.0005446437280625105</v>
+        <v>0.0001615329238120466</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.001399519853293896</v>
+        <v>0.003416553838178515</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.0007622998091392219</v>
+        <v>0.002157014096155763</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.0001363237970508635</v>
+        <v>0.006681222934275866</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.0009367361781187356</v>
+        <v>0.0002273046993650496</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.001136728329584002</v>
+        <v>0.0005895310896448791</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.001032251515425742</v>
+        <v>0.003044834593310952</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.001973194070160389</v>
+        <v>0.0005682423943653703</v>
       </c>
       <c r="FA9" t="n">
-        <v>8.003519178600982e-05</v>
+        <v>0.002032161457464099</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0005002747639082372</v>
+        <v>0.0008576133986935019</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.0001268005580641329</v>
+        <v>0.004614083562046289</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.0003614735323935747</v>
+        <v>0.002034872304648161</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.0005210703238844872</v>
+        <v>6.651724106632173e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.0003601602511480451</v>
+        <v>0.001719602732919157</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.0006628932314924896</v>
+        <v>0.0009919056901708245</v>
       </c>
       <c r="FH9" t="n">
-        <v>8.060946129262447e-05</v>
+        <v>0.0002779219066724181</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.001220172271132469</v>
+        <v>0.002717559691518545</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.001237624790519476</v>
+        <v>0.004840338602662086</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.0003910726227331907</v>
+        <v>0.001577135175466537</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.001175907556898892</v>
+        <v>0.0006543640047311783</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.000248870812356472</v>
+        <v>4.710569191956893e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.0002432113687973469</v>
+        <v>0.001683413283899426</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.0008900401298888028</v>
+        <v>0.001149794785305858</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.0002733429428189993</v>
+        <v>0.002676913980394602</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.004044414032250643</v>
+        <v>0.006742728408426046</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.0005100610433146358</v>
+        <v>0.0006697605713270605</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.0001743842149153352</v>
+        <v>0.003690546145662665</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0002125805185642093</v>
+        <v>0.0013821916654706</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.0004788855148945004</v>
+        <v>0.002431857399642467</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.0004254973609931767</v>
+        <v>0.001703195041045547</v>
       </c>
       <c r="FW9" t="n">
-        <v>8.937556413002312e-05</v>
+        <v>0.002754192100837827</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.0008112466312013566</v>
+        <v>9.682058589532971e-05</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.0008050219621509314</v>
+        <v>0.005780341569334269</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.0002215402637375519</v>
+        <v>0.002145130652934313</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.000253756414167583</v>
+        <v>0.0009277912322431803</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.0001265271566808224</v>
+        <v>0.000241448637098074</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.0007108136778697371</v>
+        <v>0.001632718602195382</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.002170156920328736</v>
+        <v>0.001166880712844431</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.0003624378587119281</v>
+        <v>0.008121511898934841</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.0006375630619004369</v>
+        <v>0.001082249218598008</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.0005112398648634553</v>
+        <v>0.001412335433997214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0001841434132074937</v>
+        <v>1.445114685338922e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>5.800674625788815e-05</v>
+        <v>0.003144495654851198</v>
       </c>
       <c r="C10" t="n">
-        <v>1.179008904728107e-05</v>
+        <v>8.192968380171806e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>7.282249862328172e-05</v>
+        <v>0.001473419135436416</v>
       </c>
       <c r="E10" t="n">
-        <v>9.927742212312296e-05</v>
+        <v>0.0007196527440100908</v>
       </c>
       <c r="F10" t="n">
-        <v>5.939438415225595e-05</v>
+        <v>0.0001785906060831621</v>
       </c>
       <c r="G10" t="n">
-        <v>6.097145524108782e-05</v>
+        <v>0.0004752656677737832</v>
       </c>
       <c r="H10" t="n">
-        <v>1.914963650051504e-05</v>
+        <v>0.0006965752108953893</v>
       </c>
       <c r="I10" t="n">
-        <v>5.629049155686516e-07</v>
+        <v>3.760624167625792e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000173307242221199</v>
+        <v>0.0001218653051182628</v>
       </c>
       <c r="K10" t="n">
-        <v>2.990925713675097e-05</v>
+        <v>0.002657324774190784</v>
       </c>
       <c r="L10" t="n">
-        <v>2.469788887538016e-05</v>
+        <v>0.0001451559219276533</v>
       </c>
       <c r="M10" t="n">
-        <v>4.940694634569809e-05</v>
+        <v>0.001144561567343771</v>
       </c>
       <c r="N10" t="n">
-        <v>0.000123240053653717</v>
+        <v>0.0009118288289755583</v>
       </c>
       <c r="O10" t="n">
-        <v>1.418036663380917e-05</v>
+        <v>0.0007832359988242388</v>
       </c>
       <c r="P10" t="n">
-        <v>5.543068255065009e-05</v>
+        <v>0.000365281302947551</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.416168965486577e-06</v>
+        <v>5.515614611795172e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>3.029779327334836e-05</v>
+        <v>0.000147904793266207</v>
       </c>
       <c r="S10" t="n">
-        <v>4.319070967540029e-07</v>
+        <v>0.0001667504839133471</v>
       </c>
       <c r="T10" t="n">
-        <v>5.645078090310562e-06</v>
+        <v>0.0005238183075562119</v>
       </c>
       <c r="U10" t="n">
-        <v>2.880053898479673e-06</v>
+        <v>5.313549627317116e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.054862514138222e-05</v>
+        <v>0.0002178904833272099</v>
       </c>
       <c r="W10" t="n">
-        <v>5.647942998621147e-06</v>
+        <v>0.0002267853124067187</v>
       </c>
       <c r="X10" t="n">
-        <v>9.355952897749376e-06</v>
+        <v>0.0004640717525035143</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.474485179642215e-05</v>
+        <v>0.0001717669947538525</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.916735891427379e-05</v>
+        <v>0.000616593926679343</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.022334567504004e-06</v>
+        <v>0.0005366635741665959</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.099682023981586e-05</v>
+        <v>0.0001188281166832894</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.238852281763684e-06</v>
+        <v>0.0003433427773416042</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.124949090415612e-06</v>
+        <v>0.0001143214612966403</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.473644781275652e-05</v>
+        <v>0.0002081276034004986</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.269266800198238e-06</v>
+        <v>0.0001845602673711255</v>
       </c>
       <c r="AG10" t="n">
-        <v>4.859417458646931e-06</v>
+        <v>8.633504330646247e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.649303708807565e-06</v>
+        <v>0.0002984986058436334</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.794858225272037e-05</v>
+        <v>3.45376756740734e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.732364398776554e-05</v>
+        <v>0.0001468215341446921</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.541715705068782e-05</v>
+        <v>0.000310294795781374</v>
       </c>
       <c r="AL10" t="n">
-        <v>8.081946361926384e-06</v>
+        <v>0.0003893894026987255</v>
       </c>
       <c r="AM10" t="n">
-        <v>9.175081686407793e-06</v>
+        <v>5.462859189719893e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.920197948697023e-05</v>
+        <v>0.0001329383521806449</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.587563383509405e-05</v>
+        <v>0.0004060311475768685</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.801199869078118e-05</v>
+        <v>1.374229759676382e-05</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.976059593289392e-06</v>
+        <v>0.0002221275644842535</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.952252417453565e-06</v>
+        <v>0.0001212297502206638</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.861235432443209e-07</v>
+        <v>9.161229536402971e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>7.899787306087092e-05</v>
+        <v>0.0002776480687316507</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.105766028165817e-06</v>
+        <v>0.002089485060423613</v>
       </c>
       <c r="AV10" t="n">
-        <v>7.406964869005606e-06</v>
+        <v>0.0003363422874826938</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.786201002891175e-05</v>
+        <v>0.0004004091897513717</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.372833766159602e-05</v>
+        <v>0.0001342833420494571</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.932576171588153e-05</v>
+        <v>0.0001306048943661153</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.454596713301726e-05</v>
+        <v>7.296483090613037e-05</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.122779281104158e-06</v>
+        <v>0.000213894309126772</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.927646735566668e-06</v>
+        <v>0.0002087459142785519</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.854130020248704e-05</v>
+        <v>0.0005357813788577914</v>
       </c>
       <c r="BD10" t="n">
-        <v>7.434942745021544e-06</v>
+        <v>0.0005193256074562669</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.56200086773606e-06</v>
+        <v>0.0007258927798829973</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.92962772618921e-06</v>
+        <v>3.044528057216667e-05</v>
       </c>
       <c r="BG10" t="n">
-        <v>7.711285434197634e-06</v>
+        <v>0.0006935378769412637</v>
       </c>
       <c r="BH10" t="n">
-        <v>6.116683380241739e-06</v>
+        <v>0.0002529829507693648</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.412373214610852e-05</v>
+        <v>0.000171672654687427</v>
       </c>
       <c r="BJ10" t="n">
-        <v>4.885041926172562e-05</v>
+        <v>0.0002522740396670997</v>
       </c>
       <c r="BK10" t="n">
-        <v>3.639416490841541e-06</v>
+        <v>0.0001592312619322911</v>
       </c>
       <c r="BL10" t="n">
-        <v>9.663126547820866e-06</v>
+        <v>0.0002097411197610199</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.078763463941868e-05</v>
+        <v>0.0001812458067433909</v>
       </c>
       <c r="BN10" t="n">
-        <v>3.805514779742225e-06</v>
+        <v>0.0004052637086715549</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.188387432193849e-05</v>
+        <v>0.0002871297474484891</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.168134051316883e-05</v>
+        <v>0.0004263765877112746</v>
       </c>
       <c r="BQ10" t="n">
-        <v>4.451385848369682e-06</v>
+        <v>0.0001775934651959687</v>
       </c>
       <c r="BR10" t="n">
-        <v>9.247363777831197e-06</v>
+        <v>1.483645974076353e-05</v>
       </c>
       <c r="BS10" t="n">
-        <v>8.125449312501587e-06</v>
+        <v>0.000269509240752086</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.298975621466525e-05</v>
+        <v>0.0003312469343654811</v>
       </c>
       <c r="BU10" t="n">
-        <v>6.915107951499522e-05</v>
+        <v>2.823562317644246e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>7.613783509441419e-06</v>
+        <v>0.00120116351172328</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.28722549561644e-05</v>
+        <v>7.76576271164231e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>4.795743370777927e-05</v>
+        <v>0.0003415480023249984</v>
       </c>
       <c r="BY10" t="n">
-        <v>5.624456389341503e-05</v>
+        <v>0.0001005341619020328</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2.122487967426423e-05</v>
+        <v>8.084205910563469e-05</v>
       </c>
       <c r="CA10" t="n">
-        <v>1.309643630520441e-05</v>
+        <v>0.0001899466151371598</v>
       </c>
       <c r="CB10" t="n">
-        <v>6.127054803073406e-06</v>
+        <v>8.441781392320991e-05</v>
       </c>
       <c r="CC10" t="n">
-        <v>1.45295744005125e-05</v>
+        <v>0.0003508736554067582</v>
       </c>
       <c r="CD10" t="n">
-        <v>3.670914156828076e-05</v>
+        <v>1.013459768728353e-05</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.955322815978434e-05</v>
+        <v>0.0005725077353417873</v>
       </c>
       <c r="CF10" t="n">
-        <v>5.782995685876813e-06</v>
+        <v>0.0002382155362283811</v>
       </c>
       <c r="CG10" t="n">
-        <v>2.021545878960751e-05</v>
+        <v>0.0001035401728586294</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.020608189923223e-05</v>
+        <v>9.15407799766399e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.658654724678854e-07</v>
+        <v>7.639802788617089e-06</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1.212565985042602e-05</v>
+        <v>0.0001125279814004898</v>
       </c>
       <c r="CK10" t="n">
-        <v>3.485242814349476e-07</v>
+        <v>8.012659236555919e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>2.515435198802152e-06</v>
+        <v>0.0001446982787456363</v>
       </c>
       <c r="CM10" t="n">
-        <v>7.132180599001003e-06</v>
+        <v>0.001007386832498014</v>
       </c>
       <c r="CN10" t="n">
-        <v>9.011782822199166e-06</v>
+        <v>0.0002253915299661458</v>
       </c>
       <c r="CO10" t="n">
-        <v>4.97433461532637e-07</v>
+        <v>5.275475268717855e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>7.791488314978778e-06</v>
+        <v>0.0006434199749492109</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2.795625005092006e-05</v>
+        <v>0.0005786604015156627</v>
       </c>
       <c r="CR10" t="n">
-        <v>9.958998816728126e-06</v>
+        <v>0.0003294218331575394</v>
       </c>
       <c r="CS10" t="n">
-        <v>1.364413037663326e-06</v>
+        <v>0.0007371885585598648</v>
       </c>
       <c r="CT10" t="n">
-        <v>3.16656478389632e-05</v>
+        <v>0.0006091574323363602</v>
       </c>
       <c r="CU10" t="n">
-        <v>7.264166924869642e-06</v>
+        <v>2.810894511640072e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>3.142317291349173e-05</v>
+        <v>1.819290991988964e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.912398122134618e-05</v>
+        <v>0.0004895766614936292</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.049841739586554e-05</v>
+        <v>0.0002998649142682552</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.438022263755556e-05</v>
+        <v>0.0002803743991535157</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.240154870174592e-05</v>
+        <v>0.0001566459104651585</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.547091869724682e-06</v>
+        <v>7.600900062243454e-06</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.155905556515791e-05</v>
+        <v>0.0001791912072803825</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.526212372482405e-06</v>
+        <v>0.0001586527505423874</v>
       </c>
       <c r="DD10" t="n">
-        <v>6.422146270779194e-06</v>
+        <v>6.74827751936391e-05</v>
       </c>
       <c r="DE10" t="n">
-        <v>9.281553502660245e-06</v>
+        <v>0.000353088224073872</v>
       </c>
       <c r="DF10" t="n">
-        <v>4.760301453643478e-05</v>
+        <v>4.271355646778829e-05</v>
       </c>
       <c r="DG10" t="n">
-        <v>2.771513027255423e-05</v>
+        <v>0.0002369832363910973</v>
       </c>
       <c r="DH10" t="n">
-        <v>9.313478585681878e-06</v>
+        <v>0.0005181955639272928</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.191640851378907e-05</v>
+        <v>5.405394767876714e-05</v>
       </c>
       <c r="DJ10" t="n">
-        <v>2.199099617428146e-05</v>
+        <v>9.357920498587191e-05</v>
       </c>
       <c r="DK10" t="n">
-        <v>1.268699634238146e-06</v>
+        <v>5.010335735278204e-05</v>
       </c>
       <c r="DL10" t="n">
-        <v>7.840704711270519e-06</v>
+        <v>5.413274993770756e-05</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.700033135421108e-05</v>
+        <v>2.233019040431827e-05</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.778586920408998e-06</v>
+        <v>0.0001178766106022522</v>
       </c>
       <c r="DO10" t="n">
-        <v>2.272770143463276e-05</v>
+        <v>1.94532549357973e-06</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.27146140584955e-05</v>
+        <v>0.0004280295688658953</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.579495074111037e-05</v>
+        <v>0.0001985856797546148</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.861929376900662e-05</v>
+        <v>0.0002593792451079935</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.328107600784278e-06</v>
+        <v>0.0001595310750417411</v>
       </c>
       <c r="DT10" t="n">
-        <v>2.175017016270431e-06</v>
+        <v>7.114209438441321e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>8.748336767894216e-06</v>
+        <v>0.000233019920415245</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.875949783425312e-05</v>
+        <v>0.0003565252118278295</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.347369106952101e-05</v>
+        <v>0.000196570428670384</v>
       </c>
       <c r="DX10" t="n">
-        <v>2.170416883018333e-05</v>
+        <v>0.0003004387835972011</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.006323600449832e-05</v>
+        <v>0.0003571383713278919</v>
       </c>
       <c r="DZ10" t="n">
-        <v>4.696920768765267e-06</v>
+        <v>8.079510007519275e-05</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.437660921510542e-05</v>
+        <v>7.765961345285177e-05</v>
       </c>
       <c r="EB10" t="n">
-        <v>5.959620011708466e-06</v>
+        <v>0.0003392805519979447</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.297549260925734e-05</v>
+        <v>4.17501105403062e-05</v>
       </c>
       <c r="ED10" t="n">
-        <v>4.195355359115638e-05</v>
+        <v>1.050195623975014e-05</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.981925379368477e-08</v>
+        <v>1.306171543546952e-05</v>
       </c>
       <c r="EF10" t="n">
-        <v>5.991084981360473e-05</v>
+        <v>0.0002029763418249786</v>
       </c>
       <c r="EG10" t="n">
-        <v>4.511661973083392e-05</v>
+        <v>0.0004794778651557863</v>
       </c>
       <c r="EH10" t="n">
-        <v>4.372289367893245e-06</v>
+        <v>0.0002910280018113554</v>
       </c>
       <c r="EI10" t="n">
-        <v>2.170353036490269e-05</v>
+        <v>0.0001869090483523905</v>
       </c>
       <c r="EJ10" t="n">
-        <v>2.485764525772538e-05</v>
+        <v>0.000193115629372187</v>
       </c>
       <c r="EK10" t="n">
-        <v>2.348977886867942e-06</v>
+        <v>5.584188329521567e-05</v>
       </c>
       <c r="EL10" t="n">
-        <v>5.867998879693914e-06</v>
+        <v>0.0001199603138957173</v>
       </c>
       <c r="EM10" t="n">
-        <v>2.135349313903134e-05</v>
+        <v>5.763747685705312e-05</v>
       </c>
       <c r="EN10" t="n">
-        <v>4.671866918215528e-06</v>
+        <v>0.0001595088833710179</v>
       </c>
       <c r="EO10" t="n">
-        <v>3.711550334628555e-06</v>
+        <v>0.0001035321183735505</v>
       </c>
       <c r="EP10" t="n">
-        <v>2.642824983922765e-05</v>
+        <v>0.000289213057840243</v>
       </c>
       <c r="EQ10" t="n">
-        <v>4.391374204715248e-06</v>
+        <v>0.0002712458954192698</v>
       </c>
       <c r="ER10" t="n">
-        <v>7.050983640510822e-06</v>
+        <v>0.0001914704625960439</v>
       </c>
       <c r="ES10" t="n">
-        <v>2.943491926998831e-05</v>
+        <v>1.646124292165041e-05</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.006990896712523e-05</v>
+        <v>0.0002538894186727703</v>
       </c>
       <c r="EU10" t="n">
-        <v>6.800282790209167e-06</v>
+        <v>0.0004889710689894855</v>
       </c>
       <c r="EV10" t="n">
-        <v>2.084859079332091e-05</v>
+        <v>0.0005905851139687002</v>
       </c>
       <c r="EW10" t="n">
-        <v>1.104942566598766e-05</v>
+        <v>0.0003074239648412913</v>
       </c>
       <c r="EX10" t="n">
-        <v>3.33862190018408e-05</v>
+        <v>8.634998084744439e-05</v>
       </c>
       <c r="EY10" t="n">
-        <v>2.401453093625605e-05</v>
+        <v>0.000496889348141849</v>
       </c>
       <c r="EZ10" t="n">
-        <v>9.78278330876492e-06</v>
+        <v>0.0002127853222191334</v>
       </c>
       <c r="FA10" t="n">
-        <v>1.571475695527624e-05</v>
+        <v>0.0002354373427806422</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.27625298773637e-05</v>
+        <v>9.625110396882519e-05</v>
       </c>
       <c r="FC10" t="n">
-        <v>6.898553237988381e-06</v>
+        <v>2.854190279322211e-05</v>
       </c>
       <c r="FD10" t="n">
-        <v>9.578241588314995e-06</v>
+        <v>0.0001877264148788527</v>
       </c>
       <c r="FE10" t="n">
-        <v>2.068233015961596e-07</v>
+        <v>5.654786218656227e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.036219373418135e-06</v>
+        <v>0.0001271067303605378</v>
       </c>
       <c r="FG10" t="n">
-        <v>2.748220867943019e-05</v>
+        <v>1.053745654644445e-05</v>
       </c>
       <c r="FH10" t="n">
-        <v>2.982967771458789e-06</v>
+        <v>2.087779466819484e-05</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.113967300625518e-05</v>
+        <v>0.0005537736578844488</v>
       </c>
       <c r="FJ10" t="n">
-        <v>2.1091280359542e-05</v>
+        <v>0.0002939051191788167</v>
       </c>
       <c r="FK10" t="n">
-        <v>2.466598380124196e-05</v>
+        <v>0.000107294887129683</v>
       </c>
       <c r="FL10" t="n">
-        <v>3.751279564312426e-06</v>
+        <v>0.0002886446891352534</v>
       </c>
       <c r="FM10" t="n">
-        <v>3.630319042713381e-06</v>
+        <v>0.0001041161813191138</v>
       </c>
       <c r="FN10" t="n">
-        <v>9.016710009746021e-07</v>
+        <v>0.0002118730335496366</v>
       </c>
       <c r="FO10" t="n">
-        <v>8.188176252588164e-06</v>
+        <v>0.000165839257533662</v>
       </c>
       <c r="FP10" t="n">
-        <v>1.498656638432294e-05</v>
+        <v>0.0004154790076427162</v>
       </c>
       <c r="FQ10" t="n">
-        <v>5.051522384746931e-05</v>
+        <v>0.0002905495930463076</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.171732947113924e-05</v>
+        <v>0.0005174201214686036</v>
       </c>
       <c r="FS10" t="n">
-        <v>1.596597212483175e-05</v>
+        <v>9.222190419677645e-05</v>
       </c>
       <c r="FT10" t="n">
-        <v>3.000865399371833e-05</v>
+        <v>0.000138633098686114</v>
       </c>
       <c r="FU10" t="n">
-        <v>1.679314846114721e-05</v>
+        <v>0.0002010844182223082</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.422904915671097e-05</v>
+        <v>0.0003263262042310089</v>
       </c>
       <c r="FW10" t="n">
-        <v>4.335620360507164e-06</v>
+        <v>9.16053177206777e-05</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.444635927327909e-05</v>
+        <v>7.45586003176868e-05</v>
       </c>
       <c r="FY10" t="n">
-        <v>2.195878550992347e-05</v>
+        <v>0.0004142020188737661</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.25712313092663e-05</v>
+        <v>0.0003577853785827756</v>
       </c>
       <c r="GA10" t="n">
-        <v>7.489247764169704e-06</v>
+        <v>1.118089676310774e-05</v>
       </c>
       <c r="GB10" t="n">
-        <v>1.243145197804552e-05</v>
+        <v>1.81433842953993e-05</v>
       </c>
       <c r="GC10" t="n">
-        <v>6.767910690541612e-06</v>
+        <v>0.0001841072662500665</v>
       </c>
       <c r="GD10" t="n">
-        <v>1.551906643726397e-05</v>
+        <v>0.0004758529830724001</v>
       </c>
       <c r="GE10" t="n">
-        <v>2.023021625063848e-05</v>
+        <v>0.001280207419767976</v>
       </c>
       <c r="GF10" t="n">
-        <v>1.581519245519303e-05</v>
+        <v>8.239092858275399e-05</v>
       </c>
       <c r="GG10" t="n">
-        <v>7.358146831393242e-06</v>
+        <v>0.0003060604503843933</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01898412220180035</v>
+        <v>0.007753857411444187</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003981881309300661</v>
+        <v>0.06456597149372101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04946961998939514</v>
+        <v>0.007068997714668512</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008702851831912994</v>
+        <v>0.02591192722320557</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01815830729901791</v>
+        <v>0.0119650000706315</v>
       </c>
       <c r="F11" t="n">
-        <v>0.009434117935597897</v>
+        <v>0.03835391253232956</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005314057692885399</v>
+        <v>0.004953915718942881</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006566959898918867</v>
+        <v>0.01912180706858635</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005266997031867504</v>
+        <v>0.007178876549005508</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01799933612346649</v>
+        <v>0.01101733930408955</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00383322942070663</v>
+        <v>0.06034954637289047</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04586394131183624</v>
+        <v>0.002318047918379307</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0008024330018088222</v>
+        <v>0.01963204331696033</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005133015103638172</v>
+        <v>0.00588435772806406</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01143461000174284</v>
+        <v>0.03337590768933296</v>
       </c>
       <c r="P11" t="n">
-        <v>0.003178352257236838</v>
+        <v>0.001102714682929218</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01812891103327274</v>
+        <v>0.004341600462794304</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01148177590221167</v>
+        <v>0.007398989517241716</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0003103684284724295</v>
+        <v>0.001659966073930264</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01595252193510532</v>
+        <v>0.006383803673088551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003483779961243272</v>
+        <v>0.002712959190830588</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002611434552818537</v>
+        <v>0.008684295229613781</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004927234724164009</v>
+        <v>0.005675442516803741</v>
       </c>
       <c r="X11" t="n">
-        <v>0.00196815375238657</v>
+        <v>0.003616258502006531</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.003136034123599529</v>
+        <v>0.002361355349421501</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.009615509770810604</v>
+        <v>0.008461222983896732</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0002211397513747215</v>
+        <v>0.004554076585918665</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.001622818177565932</v>
+        <v>0.001270783133804798</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.00137220649048686</v>
+        <v>0.002042595064267516</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.006478216964751482</v>
+        <v>0.0005342777003534138</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001628226134926081</v>
+        <v>0.002035137731581926</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.004435297101736069</v>
+        <v>0.001426767557859421</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.004474758636206388</v>
+        <v>0.001537665608339012</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.006202518939971924</v>
+        <v>0.001482749357819557</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.006557918153703213</v>
+        <v>0.003018959891051054</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01086104940623045</v>
+        <v>0.001386261312291026</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.005878416821360588</v>
+        <v>0.01023957878351212</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.01192685961723328</v>
+        <v>0.006586391013115644</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.008466976694762707</v>
+        <v>0.0005273108836263418</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.008369251154363155</v>
+        <v>0.002890016650781035</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.001836780807934701</v>
+        <v>0.001734272693283856</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.005807014182209969</v>
+        <v>0.009210530668497086</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0004915168392471969</v>
+        <v>0.003441906534135342</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001399605651386082</v>
+        <v>0.004804295487701893</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0001918462803587317</v>
+        <v>0.008239259943366051</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.007900221273303032</v>
+        <v>0.001638565096072853</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.01196074485778809</v>
+        <v>0.0354093611240387</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.02545567229390144</v>
+        <v>0.005266210064291954</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.007499426137655973</v>
+        <v>0.005164443980902433</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.001863390672951937</v>
+        <v>0.006273670587688684</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.005934388842433691</v>
+        <v>0.01850085891783237</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0006286313873715699</v>
+        <v>0.009132888168096542</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.003877249546349049</v>
+        <v>0.008669763803482056</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.00601982232183218</v>
+        <v>0.009727814234793186</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.003232703544199467</v>
+        <v>0.004456254653632641</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0001434520818293095</v>
+        <v>0.01353685278445482</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.01084142457693815</v>
+        <v>0.01521283946931362</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.004789751954376698</v>
+        <v>8.909509051591158e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.01375659182667732</v>
+        <v>0.004293766804039478</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.004712606780230999</v>
+        <v>0.00764347892254591</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.007832047529518604</v>
+        <v>0.00103641499299556</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.001047635916620493</v>
+        <v>0.007600895594805479</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.006455869413912296</v>
+        <v>0.004953298717737198</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0001747719070408493</v>
+        <v>0.003648941870778799</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.003251963295042515</v>
+        <v>0.009061484597623348</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.009923893958330154</v>
+        <v>0.005125902127474546</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0007310438668355346</v>
+        <v>0.0007418112363666296</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.005037504713982344</v>
+        <v>0.003895638510584831</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.001400750828906894</v>
+        <v>0.001745052519254386</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.009458777494728565</v>
+        <v>0.00643534492701292</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.01079880725592375</v>
+        <v>0.004223193041980267</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.00322401593439281</v>
+        <v>0.006076836958527565</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.007458368316292763</v>
+        <v>0.0006236627232283354</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.001072911778464913</v>
+        <v>0.02139545418322086</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.01480947807431221</v>
+        <v>0.007405050564557314</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.002511272439733148</v>
+        <v>0.001831521280109882</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.002219212707132101</v>
+        <v>0.003860750701278448</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.007719702553004026</v>
+        <v>0.008758878335356712</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.004325810354202986</v>
+        <v>0.002158742863684893</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.001167571870610118</v>
+        <v>0.003087135730311275</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.00116224423982203</v>
+        <v>0.00420304061844945</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.003798504360020161</v>
+        <v>0.001413146266713738</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.006375045515596867</v>
+        <v>0.01082334760576487</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.01001757942140102</v>
+        <v>0.004626153036952019</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.00134544656611979</v>
+        <v>0.004069133196026087</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.002710261149331927</v>
+        <v>0.002953908639028668</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.003388983896002173</v>
+        <v>0.004073872696608305</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0002727852261159569</v>
+        <v>0.003835247363895178</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.003617804031819105</v>
+        <v>0.003503481391817331</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.001567296450957656</v>
+        <v>0.00492109265178442</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.001032649073749781</v>
+        <v>0.01395374070852995</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.008295617066323757</v>
+        <v>0.002933094277977943</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0001487168483436108</v>
+        <v>0.0008635742124170065</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.001076958258636296</v>
+        <v>0.0178051833063364</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.00400778790935874</v>
+        <v>0.007104138378053904</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0002276597078889608</v>
+        <v>0.01674219407141209</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.005856803152710199</v>
+        <v>0.01248999871313572</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.005287640262395144</v>
+        <v>0.009332317858934402</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.001183824730105698</v>
+        <v>0.00285971537232399</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.003907778300344944</v>
+        <v>0.001394433784298599</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.006936743389815092</v>
+        <v>0.0104504032060504</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.01068451255559921</v>
+        <v>0.004415910691022873</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0001941065129358321</v>
+        <v>0.006889781914651394</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.006696101278066635</v>
+        <v>0.002180944895371795</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.003447430208325386</v>
+        <v>0.003710493911057711</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.001375124556943774</v>
+        <v>0.004052304197102785</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.002220493508502841</v>
+        <v>0.006514918524771929</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.00120193138718605</v>
+        <v>0.00414577592164278</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.0004633546341210604</v>
+        <v>0.006174941547214985</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.01185334660112858</v>
+        <v>0.01096299476921558</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.002014123369008303</v>
+        <v>0.004130481742322445</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.004087669774889946</v>
+        <v>0.0129368482157588</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.002043638378381729</v>
+        <v>0.02230158448219299</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.002999713877215981</v>
+        <v>0.01217122562229633</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.002332899253815413</v>
+        <v>0.005670794285833836</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.00316290813498199</v>
+        <v>0.008919057436287403</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.001743122120387852</v>
+        <v>0.01560742594301701</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.0004016675520688295</v>
+        <v>0.002948121633380651</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.007788138464093208</v>
+        <v>0.00653162132948637</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.003780660917982459</v>
+        <v>0.003035357221961021</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0004919804632663727</v>
+        <v>0.003401614492759109</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0002000592357944697</v>
+        <v>0.002526151947677135</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.008450764231383801</v>
+        <v>0.004364714492112398</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.001405010581947863</v>
+        <v>0.004089398309588432</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0007755830883979797</v>
+        <v>0.007529404945671558</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.002032103016972542</v>
+        <v>0.0006654374301433563</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.002696817740797997</v>
+        <v>0.0007393492851406336</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.004044253844767809</v>
+        <v>0.006170616950839758</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.00315640983171761</v>
+        <v>0.005741504486650229</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.001843709265813231</v>
+        <v>0.006608095020055771</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0053591039031744</v>
+        <v>0.004316294565796852</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.008169615641236305</v>
+        <v>0.004991922061890364</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.005433857440948486</v>
+        <v>0.003217054530978203</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.005154797341674566</v>
+        <v>0.003479782957583666</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.00126189854927361</v>
+        <v>0.01058617047965527</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.007737700361758471</v>
+        <v>0.007549950387328863</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.00443709921091795</v>
+        <v>0.01321285218000412</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.01043802313506603</v>
+        <v>0.005225914064794779</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.002154126996174455</v>
+        <v>0.002884783316403627</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.002235414925962687</v>
+        <v>0.002901303581893444</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01024773344397545</v>
+        <v>0.0007162997499108315</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.001174894860014319</v>
+        <v>0.004821863491088152</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.009232395328581333</v>
+        <v>0.002051113173365593</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.00573321059346199</v>
+        <v>0.001758971251547337</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.001728179049678147</v>
+        <v>0.00147559423930943</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.003356326371431351</v>
+        <v>0.005237163975834846</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.001872522523626685</v>
+        <v>0.005590524058789015</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0007075630710460246</v>
+        <v>0.008230580948293209</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.001060750568285584</v>
+        <v>0.008563738316297531</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.004361118655651808</v>
+        <v>0.002996424678713083</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.002771303057670593</v>
+        <v>0.01144470367580652</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0001943552633747458</v>
+        <v>0.01433752477169037</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.004719039890915155</v>
+        <v>0.001566444989293814</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.005012487061321735</v>
+        <v>0.002437534043565392</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.004889491479843855</v>
+        <v>0.009789523668587208</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.01052581332623959</v>
+        <v>0.003718142164871097</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0001800210739020258</v>
+        <v>0.002743805292993784</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.006041254382580519</v>
+        <v>0.00186608184594661</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.00147133250720799</v>
+        <v>0.003308906685560942</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.0007652203203178942</v>
+        <v>0.006333733908832073</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.004168801475316286</v>
+        <v>0.00560680078342557</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.001829486689530313</v>
+        <v>0.005941528826951981</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.003195810364559293</v>
+        <v>0.002641093218699098</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.004416340030729771</v>
+        <v>0.002676256699487567</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.0103539377450943</v>
+        <v>0.007337004877626896</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.008054596371948719</v>
+        <v>0.008812256157398224</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.004603439010679722</v>
+        <v>0.0005703432252630591</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.00346077885478735</v>
+        <v>0.004557269625365734</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.004955749027431011</v>
+        <v>0.003064330900087953</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.001401812303811312</v>
+        <v>0.005006712861359119</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.005766022484749556</v>
+        <v>0.003754568286240101</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.008203564211726189</v>
+        <v>0.007686116732656956</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.02153869345784187</v>
+        <v>0.002206563949584961</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.01084140688180923</v>
+        <v>0.01060929149389267</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.007007194682955742</v>
+        <v>0.002112051704898477</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0008440560195595026</v>
+        <v>0.0006446994957514107</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.008578573353588581</v>
+        <v>0.008028661832213402</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.002369496505707502</v>
+        <v>0.003808790352195501</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.00412174966186285</v>
+        <v>0.002554100938141346</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.002434863010421395</v>
+        <v>0.002251819474622607</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.007120123133063316</v>
+        <v>0.01084558665752411</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.00160695449449122</v>
+        <v>0.005457424558699131</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.0007398435263894498</v>
+        <v>0.004088611342012882</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.006225666962563992</v>
+        <v>0.003121792571619153</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0003829683701042086</v>
+        <v>0.004492179490625858</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.007567579858005047</v>
+        <v>0.004604684188961983</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.0007046961109153926</v>
+        <v>0.01210587285459042</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.0005912415217608213</v>
+        <v>0.0002151026856154203</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0009808987379074097</v>
+        <v>0.005710121244192123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.001828246051445603</v>
+        <v>0.0009210354182869196</v>
       </c>
       <c r="B12" t="n">
-        <v>0.000327355635818094</v>
+        <v>0.008144271560013294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001409144839271903</v>
+        <v>0.0004570763267111033</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0007835971191525459</v>
+        <v>0.001805705134756863</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0007160165114328265</v>
+        <v>0.002749538980424404</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0002589590731076896</v>
+        <v>0.005411015823483467</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0009350727777928114</v>
+        <v>0.000748204649426043</v>
       </c>
       <c r="H12" t="n">
-        <v>3.049572114832699e-05</v>
+        <v>0.0008939937688410282</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004073170421179384</v>
+        <v>0.000262877787463367</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001687631825916469</v>
+        <v>0.001025618286803365</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003093956620432436</v>
+        <v>0.008066900074481964</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001434662146493793</v>
+        <v>0.000179141090484336</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0002820771769620478</v>
+        <v>1.372149563394487e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001132344361394644</v>
+        <v>0.0009598917094990611</v>
       </c>
       <c r="O12" t="n">
-        <v>1.201518171001226e-05</v>
+        <v>0.003756266552954912</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0008101380080915987</v>
+        <v>0.0005736536113545299</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0003735234786290675</v>
+        <v>0.000433136650826782</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0008792168810032308</v>
+        <v>0.001154608675278723</v>
       </c>
       <c r="S12" t="n">
-        <v>1.356288248643978e-05</v>
+        <v>0.0002040743711404502</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0005536246462725103</v>
+        <v>0.0008132486836984754</v>
       </c>
       <c r="U12" t="n">
-        <v>8.665787390782498e-06</v>
+        <v>0.0006713622715324163</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0001718934800010175</v>
+        <v>0.0002033461787505075</v>
       </c>
       <c r="W12" t="n">
-        <v>7.036382157821208e-05</v>
+        <v>0.0003338832757435739</v>
       </c>
       <c r="X12" t="n">
-        <v>0.000192342180525884</v>
+        <v>0.0002463283308316022</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0001989055162994191</v>
+        <v>0.0008061698172241449</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0005667965742759407</v>
+        <v>0.001159945852123201</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0001298858260270208</v>
+        <v>0.001104323426261544</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0001516003248980269</v>
+        <v>0.0003901902236975729</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.211559331044555e-05</v>
+        <v>0.0008085765293799341</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0001658555120229721</v>
+        <v>0.0004481207579374313</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.535144737223163e-05</v>
+        <v>0.000790164340287447</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.248278754763305e-05</v>
+        <v>0.001347741927020252</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0001702900335658342</v>
+        <v>0.0006581292254850268</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0001916179608087987</v>
+        <v>0.0003347487945575267</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.000632015464361757</v>
+        <v>0.001643403549678624</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.000619922298938036</v>
+        <v>0.0001485258544562384</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.0002956822863779962</v>
+        <v>0.002249659039080143</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0001415092701790854</v>
+        <v>0.0007096671615727246</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0001519778743386269</v>
+        <v>0.0003572350833564997</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0004704055027104914</v>
+        <v>0.0003214317257516086</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0002085781452478841</v>
+        <v>0.0007308619096875191</v>
       </c>
       <c r="AP12" t="n">
-        <v>7.678668225707952e-06</v>
+        <v>0.000534597085788846</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6.015740655129775e-05</v>
+        <v>0.0001833552232710645</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.897166839626152e-05</v>
+        <v>0.0009740923997014761</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.086376768304035e-05</v>
+        <v>3.704341725097038e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0007685382151976228</v>
+        <v>0.0003981432237196714</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.048598591703922e-05</v>
+        <v>0.005083091091364622</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0005886512226425111</v>
+        <v>0.001013159519061446</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0004524098476395011</v>
+        <v>0.001951833837665617</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0005517715471796691</v>
+        <v>0.0005958880065008998</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0004586668219417334</v>
+        <v>0.00367978191934526</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.690549445105717e-05</v>
+        <v>0.001180892111733556</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0001984486298169941</v>
+        <v>0.001053601736202836</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.874345904681832e-06</v>
+        <v>0.0002627726644277573</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.000492776685860008</v>
+        <v>0.0005465745343826711</v>
       </c>
       <c r="BD12" t="n">
-        <v>3.334274515509605e-05</v>
+        <v>0.002520151436328888</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0004912868607789278</v>
+        <v>0.001265445374883711</v>
       </c>
       <c r="BF12" t="n">
-        <v>8.444866398349404e-05</v>
+        <v>0.000837818079162389</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.672360278666019e-05</v>
+        <v>0.002443644450977445</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0001360662572551519</v>
+        <v>0.0009018752607516944</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.0004583739791996777</v>
+        <v>0.0006459861760959029</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0003232674789614975</v>
+        <v>0.0001607284648343921</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0002045315923169255</v>
+        <v>0.000745236175134778</v>
       </c>
       <c r="BL12" t="n">
-        <v>8.24204325908795e-05</v>
+        <v>0.0009842657018452883</v>
       </c>
       <c r="BM12" t="n">
-        <v>6.618277984671295e-05</v>
+        <v>0.002165340352803469</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.0003238514764234424</v>
+        <v>0.0001064998941728845</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0001196666926261969</v>
+        <v>0.0003427854389883578</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0005031345062889159</v>
+        <v>0.001377993263304234</v>
       </c>
       <c r="BQ12" t="n">
-        <v>9.676192712504417e-05</v>
+        <v>0.0004168306768406183</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.000155959787662141</v>
+        <v>0.0006510951789095998</v>
       </c>
       <c r="BS12" t="n">
-        <v>4.571929457597435e-05</v>
+        <v>0.0004693792725447565</v>
       </c>
       <c r="BT12" t="n">
-        <v>2.894084173021838e-05</v>
+        <v>0.0004378045559860766</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.0005775497411377728</v>
+        <v>0.0003323324781376868</v>
       </c>
       <c r="BV12" t="n">
-        <v>7.003610517131165e-05</v>
+        <v>0.002482744865119457</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0003890893422067165</v>
+        <v>0.0001421968918293715</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0006938042934052646</v>
+        <v>0.0001446295063942671</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0004199123941361904</v>
+        <v>0.0004072478041052818</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0001957220956683159</v>
+        <v>0.001264384132809937</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.0001319742150371894</v>
+        <v>0.0003775603254325688</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.810268415487371e-05</v>
+        <v>0.0005753366858698428</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.000242434922256507</v>
+        <v>0.0001485486864112318</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0003248821594752371</v>
+        <v>0.0003540839825291187</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.0003304405545350164</v>
+        <v>0.001167292008176446</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0002812481834553182</v>
+        <v>0.0001967920397873968</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0001208430840051733</v>
+        <v>0.0001279547868762165</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0001538860815344378</v>
+        <v>3.012424713233486e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>9.230878640664741e-05</v>
+        <v>0.0008558568079024553</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0001816490257624537</v>
+        <v>0.0002702312194742262</v>
       </c>
       <c r="CK12" t="n">
-        <v>1.170338873635046e-05</v>
+        <v>0.0003981684858445078</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.530914960312657e-05</v>
+        <v>7.701246431679465e-06</v>
       </c>
       <c r="CM12" t="n">
-        <v>6.472932727774605e-05</v>
+        <v>0.00255183270201087</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.0002460158139001578</v>
+        <v>0.0006715792696923018</v>
       </c>
       <c r="CO12" t="n">
-        <v>6.295037019299343e-05</v>
+        <v>0.0002910135372076184</v>
       </c>
       <c r="CP12" t="n">
-        <v>1.925047399709001e-05</v>
+        <v>0.001183249056339264</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.0003602569340728223</v>
+        <v>0.0006566887022927403</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.000132282599224709</v>
+        <v>0.001080619636923075</v>
       </c>
       <c r="CS12" t="n">
-        <v>9.964380296878517e-05</v>
+        <v>0.0009802135173231363</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.0002470595354679972</v>
+        <v>0.0006449413485825062</v>
       </c>
       <c r="CU12" t="n">
-        <v>6.371286872308701e-05</v>
+        <v>0.0004991037421859801</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.0002578782441560179</v>
+        <v>0.0003363955183885992</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.0002705357619561255</v>
+        <v>0.00104645814280957</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0003044553159270436</v>
+        <v>6.914287223480642e-05</v>
       </c>
       <c r="CY12" t="n">
-        <v>8.485208672937006e-05</v>
+        <v>0.0002469049941282719</v>
       </c>
       <c r="CZ12" t="n">
-        <v>3.080379974562675e-05</v>
+        <v>6.049539661034942e-05</v>
       </c>
       <c r="DA12" t="n">
-        <v>6.876449333503842e-05</v>
+        <v>0.0008570859208703041</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.000164090990438126</v>
+        <v>0.0002546593605075032</v>
       </c>
       <c r="DC12" t="n">
-        <v>8.65783731569536e-05</v>
+        <v>0.0004507899866439402</v>
       </c>
       <c r="DD12" t="n">
-        <v>2.775605753413402e-05</v>
+        <v>0.0001930571452248842</v>
       </c>
       <c r="DE12" t="n">
-        <v>3.133445352432318e-05</v>
+        <v>0.001632809988223016</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0008433618349954486</v>
+        <v>0.0004715061804745346</v>
       </c>
       <c r="DG12" t="n">
-        <v>4.468642873689532e-05</v>
+        <v>0.0002600600419100374</v>
       </c>
       <c r="DH12" t="n">
-        <v>2.997004776261747e-05</v>
+        <v>0.001501569524407387</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0002770604332908988</v>
+        <v>0.0002021308027906343</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.0001415169390384108</v>
+        <v>0.001373633043840528</v>
       </c>
       <c r="DK12" t="n">
-        <v>8.900241664377972e-05</v>
+        <v>9.743234841153026e-08</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0001068459387170151</v>
+        <v>0.001259628916159272</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.0002416112984064966</v>
+        <v>0.001335187582299113</v>
       </c>
       <c r="DN12" t="n">
-        <v>8.892721962183714e-05</v>
+        <v>0.0001359440211672336</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.000256063969573006</v>
+        <v>0.0003839803393930197</v>
       </c>
       <c r="DP12" t="n">
-        <v>9.328452870249748e-05</v>
+        <v>0.000814535073004663</v>
       </c>
       <c r="DQ12" t="n">
-        <v>6.08066693530418e-06</v>
+        <v>0.002663666848093271</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0001696601684670895</v>
+        <v>0.001313087297603488</v>
       </c>
       <c r="DS12" t="n">
-        <v>5.043069540988654e-05</v>
+        <v>0.0001725225592963398</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.809309393749572e-05</v>
+        <v>0.000198229230591096</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0002379679935984313</v>
+        <v>0.0002566143521107733</v>
       </c>
       <c r="DV12" t="n">
-        <v>8.802686352282763e-05</v>
+        <v>0.0005171812372282147</v>
       </c>
       <c r="DW12" t="n">
-        <v>8.598171552876011e-05</v>
+        <v>5.310487176757306e-05</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0001838541065808386</v>
+        <v>0.0008582576410844922</v>
       </c>
       <c r="DY12" t="n">
-        <v>2.944155494333245e-05</v>
+        <v>0.0001161369727924466</v>
       </c>
       <c r="DZ12" t="n">
-        <v>4.491241270443425e-06</v>
+        <v>0.0002302869543200359</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0002278126339660957</v>
+        <v>0.001233509392477572</v>
       </c>
       <c r="EB12" t="n">
-        <v>6.720167584717274e-05</v>
+        <v>0.001151537406258285</v>
       </c>
       <c r="EC12" t="n">
-        <v>9.844399028224871e-05</v>
+        <v>0.0002488994505256414</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.0003467710339464247</v>
+        <v>0.0002889263560064137</v>
       </c>
       <c r="EE12" t="n">
-        <v>3.175676829414442e-05</v>
+        <v>2.842633693944663e-05</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.0005694953142665327</v>
+        <v>0.001264697406440973</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.0003078922454733402</v>
+        <v>0.001658338005654514</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.0002595666155684739</v>
+        <v>0.0001882962824311107</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.0001686130854068324</v>
+        <v>0.0005739914486184716</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.0002110383938997984</v>
+        <v>0.0001690010394668207</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.0001057587069226429</v>
+        <v>0.0005958735710009933</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.0001499387144576758</v>
+        <v>0.0003061549505218863</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.0002150751097360626</v>
+        <v>0.0004501124785747379</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.0001551555760670453</v>
+        <v>0.000346723390975967</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0001009710249491036</v>
+        <v>0.000355868338374421</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.000382603146135807</v>
+        <v>0.0002928676549345255</v>
       </c>
       <c r="EQ12" t="n">
-        <v>4.636726953322068e-05</v>
+        <v>0.001050450140610337</v>
       </c>
       <c r="ER12" t="n">
-        <v>2.894400677178055e-05</v>
+        <v>0.0003884902398567647</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0001728233764879405</v>
+        <v>0.0003277328796684742</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0001269642234547064</v>
+        <v>0.0003662628878373653</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.000150186286191456</v>
+        <v>7.843135972507298e-05</v>
       </c>
       <c r="EV12" t="n">
-        <v>8.186112972907722e-05</v>
+        <v>0.002778070047497749</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.0001350624952465296</v>
+        <v>0.001256402698345482</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.0002839412773028016</v>
+        <v>0.0005436738720163703</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.0002342231018701568</v>
+        <v>0.0009900646982714534</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.000301844731438905</v>
+        <v>0.0002444629790261388</v>
       </c>
       <c r="FA12" t="n">
-        <v>8.998025441542268e-05</v>
+        <v>0.0002059210673905909</v>
       </c>
       <c r="FB12" t="n">
-        <v>3.702626054291613e-05</v>
+        <v>0.0004942386294715106</v>
       </c>
       <c r="FC12" t="n">
-        <v>2.638951809785794e-05</v>
+        <v>0.0008627443457953632</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.0001754050026647747</v>
+        <v>0.0001135513448389247</v>
       </c>
       <c r="FE12" t="n">
-        <v>4.240995986037888e-05</v>
+        <v>0.0001590434549143538</v>
       </c>
       <c r="FF12" t="n">
-        <v>6.339694664347917e-05</v>
+        <v>8.92682874109596e-05</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.0002145327307516709</v>
+        <v>8.33957819850184e-05</v>
       </c>
       <c r="FH12" t="n">
-        <v>4.215000808471814e-05</v>
+        <v>9.885837062029168e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.0003387625911273062</v>
+        <v>4.790886305272579e-05</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.000209364399779588</v>
+        <v>0.002238084562122822</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0002303766668774188</v>
+        <v>0.0005126415635459125</v>
       </c>
       <c r="FL12" t="n">
-        <v>9.308553853770718e-05</v>
+        <v>0.0008931225165724754</v>
       </c>
       <c r="FM12" t="n">
-        <v>5.689460158464499e-05</v>
+        <v>0.0006780716357752681</v>
       </c>
       <c r="FN12" t="n">
-        <v>7.830200775060803e-05</v>
+        <v>0.0008817151538096368</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.0001737826969474554</v>
+        <v>0.001317694899626076</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0002205054770456627</v>
+        <v>0.001853187219239771</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0008702073246240616</v>
+        <v>0.0007039314950816333</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.0002071560738841072</v>
+        <v>0.001124956761486828</v>
       </c>
       <c r="FS12" t="n">
-        <v>3.419173299334943e-05</v>
+        <v>0.0005584921455010772</v>
       </c>
       <c r="FT12" t="n">
-        <v>2.290025076945312e-05</v>
+        <v>0.001303266966715455</v>
       </c>
       <c r="FU12" t="n">
-        <v>7.803268090356141e-06</v>
+        <v>0.001111521618440747</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0001866243983386084</v>
+        <v>0.0001459035993320867</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0002671167021617293</v>
+        <v>0.0009338118834421039</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0001304429169977084</v>
+        <v>0.0005038903909735382</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0003000111319124699</v>
+        <v>0.001432651886716485</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.0002413322654319927</v>
+        <v>0.001031813328154385</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.0001086293195839971</v>
+        <v>0.0003561936318874359</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.142376277130097e-05</v>
+        <v>0.000401912082452327</v>
       </c>
       <c r="GC12" t="n">
-        <v>5.861042882315814e-05</v>
+        <v>0.0005214640405029058</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0001000321863102727</v>
+        <v>0.0004423074133228511</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.0003076629946008325</v>
+        <v>0.000208672572625801</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.0001301326119573787</v>
+        <v>0.0001535575138404965</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.0001436423044651747</v>
+        <v>0.0002089977060677484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0002036841033259407</v>
+        <v>3.486855462142557e-07</v>
       </c>
       <c r="B13" t="n">
-        <v>8.800605428405106e-05</v>
+        <v>3.37102210323792e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2.760658935585525e-05</v>
+        <v>4.383126679385896e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001172517368104309</v>
+        <v>1.800467316570575e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>9.316579962614924e-05</v>
+        <v>1.096239770959073e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>5.301878991303965e-05</v>
+        <v>7.305999361051363e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>8.825706754578277e-05</v>
+        <v>1.425886750894279e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>2.857972140191123e-05</v>
+        <v>8.040737498049566e-08</v>
       </c>
       <c r="I13" t="n">
-        <v>3.477793507045135e-05</v>
+        <v>1.168558156905419e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001871794374892488</v>
+        <v>7.129963250918081e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>5.153384336153977e-05</v>
+        <v>2.699019432839123e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>3.989323158748448e-05</v>
+        <v>1.536121203571383e-07</v>
       </c>
       <c r="M13" t="n">
-        <v>9.603476064512506e-05</v>
+        <v>1.395177719132334e-06</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0001211776834679767</v>
+        <v>1.07572088836605e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>9.787826456886251e-06</v>
+        <v>1.098164943869051e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>8.422724204137921e-05</v>
+        <v>2.860170980056864e-07</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.842556674906518e-06</v>
+        <v>5.966700769022282e-07</v>
       </c>
       <c r="R13" t="n">
-        <v>7.64758515288122e-05</v>
+        <v>1.508006306494281e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>2.732875145738944e-06</v>
+        <v>2.21860148030828e-08</v>
       </c>
       <c r="T13" t="n">
-        <v>1.274719397770241e-05</v>
+        <v>5.085520342618111e-07</v>
       </c>
       <c r="U13" t="n">
-        <v>3.025778141818591e-06</v>
+        <v>9.131099432124756e-08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.319830880674999e-05</v>
+        <v>2.471902007528115e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>1.182414735012571e-06</v>
+        <v>3.844947968900669e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>6.166883395053446e-07</v>
+        <v>3.120880194273923e-07</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.135335307684727e-05</v>
+        <v>4.479652773170528e-07</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.587903847801499e-05</v>
+        <v>3.526058662828291e-07</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.443371709494386e-06</v>
+        <v>3.954508542847179e-07</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.673965743975714e-05</v>
+        <v>1.725950085074146e-07</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.551422064949293e-05</v>
+        <v>2.068702684709933e-07</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.21297562145628e-05</v>
+        <v>1.889001310928506e-08</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.328041985805612e-06</v>
+        <v>2.177216771315216e-07</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.528461820678785e-05</v>
+        <v>1.269910399059881e-07</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.111024514306337e-05</v>
+        <v>2.913726149245122e-08</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.321254967479035e-05</v>
+        <v>8.1249062588995e-08</v>
       </c>
       <c r="AI13" t="n">
-        <v>4.914095188723877e-05</v>
+        <v>9.282912571961788e-08</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.054731157841161e-05</v>
+        <v>5.075143860722164e-08</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.398175613256171e-05</v>
+        <v>3.628021545409865e-07</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.730844996927772e-05</v>
+        <v>2.394475302480714e-07</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.050779701472493e-05</v>
+        <v>1.15759902996615e-07</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.570931585272774e-05</v>
+        <v>1.024411204753051e-07</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.496322304068599e-05</v>
+        <v>1.562897580242861e-07</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.939607864187565e-05</v>
+        <v>2.115988451123485e-07</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9.510240488452837e-06</v>
+        <v>1.966137688214076e-07</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.385632094752509e-05</v>
+        <v>1.323638088024381e-09</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.990082975884434e-06</v>
+        <v>2.446553253321326e-07</v>
       </c>
       <c r="AT13" t="n">
-        <v>9.188174590235576e-05</v>
+        <v>1.039165908878203e-08</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.630468250368722e-05</v>
+        <v>2.097658125421731e-06</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.095015795726795e-05</v>
+        <v>1.382808250127709e-07</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.678964847291354e-05</v>
+        <v>4.123452015392104e-07</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.08027483697515e-05</v>
+        <v>1.978816754899526e-07</v>
       </c>
       <c r="AY13" t="n">
-        <v>2.265707007609308e-05</v>
+        <v>1.552070472143896e-08</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.834426620916929e-05</v>
+        <v>1.146400236962108e-07</v>
       </c>
       <c r="BA13" t="n">
-        <v>9.964770470105577e-06</v>
+        <v>3.039211833311128e-07</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.044731652655173e-05</v>
+        <v>2.985597973292897e-07</v>
       </c>
       <c r="BC13" t="n">
-        <v>5.878503725398332e-05</v>
+        <v>2.678528403521341e-07</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.195564254885539e-05</v>
+        <v>5.650500725096208e-07</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.272822009923402e-05</v>
+        <v>9.041157795763866e-07</v>
       </c>
       <c r="BF13" t="n">
-        <v>3.300584012322361e-06</v>
+        <v>4.785530336448574e-07</v>
       </c>
       <c r="BG13" t="n">
-        <v>2.354969728912693e-05</v>
+        <v>9.288938258578128e-07</v>
       </c>
       <c r="BH13" t="n">
-        <v>2.58890213444829e-06</v>
+        <v>4.640301654035284e-07</v>
       </c>
       <c r="BI13" t="n">
-        <v>4.461723074200563e-05</v>
+        <v>7.66524976825167e-08</v>
       </c>
       <c r="BJ13" t="n">
-        <v>6.565797229995951e-05</v>
+        <v>4.841481882067455e-07</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.393485581502318e-05</v>
+        <v>4.790380359054325e-08</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.446758687961847e-05</v>
+        <v>3.410564488603995e-07</v>
       </c>
       <c r="BM13" t="n">
-        <v>2.522956128814258e-05</v>
+        <v>5.737390438298462e-07</v>
       </c>
       <c r="BN13" t="n">
-        <v>9.223282177117653e-06</v>
+        <v>4.043017156618589e-07</v>
       </c>
       <c r="BO13" t="n">
-        <v>1.496287040936295e-05</v>
+        <v>2.601579396355191e-09</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.612227424629964e-05</v>
+        <v>2.665173042259994e-07</v>
       </c>
       <c r="BQ13" t="n">
-        <v>3.821505742962472e-07</v>
+        <v>2.267776153530576e-07</v>
       </c>
       <c r="BR13" t="n">
-        <v>2.178459544666111e-05</v>
+        <v>8.586445687797095e-08</v>
       </c>
       <c r="BS13" t="n">
-        <v>1.092282673198497e-07</v>
+        <v>1.256426855889003e-07</v>
       </c>
       <c r="BT13" t="n">
-        <v>7.566534804936964e-06</v>
+        <v>1.424093909463409e-07</v>
       </c>
       <c r="BU13" t="n">
-        <v>7.655394438188523e-05</v>
+        <v>1.523650183798964e-08</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.053503365255892e-05</v>
+        <v>1.077312845154665e-06</v>
       </c>
       <c r="BW13" t="n">
-        <v>1.185570090456167e-05</v>
+        <v>5.273441843200999e-07</v>
       </c>
       <c r="BX13" t="n">
-        <v>7.308332715183496e-05</v>
+        <v>2.092671422815329e-07</v>
       </c>
       <c r="BY13" t="n">
-        <v>5.12979386257939e-05</v>
+        <v>1.02492840881041e-08</v>
       </c>
       <c r="BZ13" t="n">
-        <v>6.413935807358939e-06</v>
+        <v>1.834625464880446e-07</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.34815345518291e-05</v>
+        <v>2.973126242977742e-07</v>
       </c>
       <c r="CB13" t="n">
-        <v>1.846727627707878e-06</v>
+        <v>4.790385688124843e-08</v>
       </c>
       <c r="CC13" t="n">
-        <v>1.214031635754509e-05</v>
+        <v>2.428860170766711e-07</v>
       </c>
       <c r="CD13" t="n">
-        <v>3.72213835362345e-05</v>
+        <v>1.363624235750649e-08</v>
       </c>
       <c r="CE13" t="n">
-        <v>4.289606658858247e-05</v>
+        <v>5.860130727342039e-07</v>
       </c>
       <c r="CF13" t="n">
-        <v>8.502563105139416e-06</v>
+        <v>2.94285371182923e-07</v>
       </c>
       <c r="CG13" t="n">
-        <v>3.270972956670448e-05</v>
+        <v>1.35297867132067e-07</v>
       </c>
       <c r="CH13" t="n">
-        <v>2.037440390267875e-05</v>
+        <v>7.956799663588754e-08</v>
       </c>
       <c r="CI13" t="n">
-        <v>4.772091415361501e-06</v>
+        <v>2.256850422099888e-07</v>
       </c>
       <c r="CJ13" t="n">
-        <v>2.255175604659598e-05</v>
+        <v>1.995044840441551e-08</v>
       </c>
       <c r="CK13" t="n">
-        <v>7.917155926406849e-07</v>
+        <v>2.573024104890465e-08</v>
       </c>
       <c r="CL13" t="n">
-        <v>2.262909674755065e-06</v>
+        <v>2.527613958136499e-07</v>
       </c>
       <c r="CM13" t="n">
-        <v>9.122030860453378e-06</v>
+        <v>3.544433866409236e-07</v>
       </c>
       <c r="CN13" t="n">
-        <v>1.017282284010435e-05</v>
+        <v>1.749220501778836e-07</v>
       </c>
       <c r="CO13" t="n">
-        <v>8.342658475157805e-07</v>
+        <v>1.20833135497378e-07</v>
       </c>
       <c r="CP13" t="n">
-        <v>7.969305443111807e-06</v>
+        <v>5.718293891732174e-07</v>
       </c>
       <c r="CQ13" t="n">
-        <v>2.455267713230569e-05</v>
+        <v>5.444723001346574e-07</v>
       </c>
       <c r="CR13" t="n">
-        <v>1.216361761180451e-05</v>
+        <v>2.159149801173044e-07</v>
       </c>
       <c r="CS13" t="n">
-        <v>7.435966836055741e-06</v>
+        <v>4.390540766507911e-07</v>
       </c>
       <c r="CT13" t="n">
-        <v>3.642412411863916e-05</v>
+        <v>1.282749479969425e-07</v>
       </c>
       <c r="CU13" t="n">
-        <v>4.612938937498257e-07</v>
+        <v>1.846686643602879e-07</v>
       </c>
       <c r="CV13" t="n">
-        <v>2.929595575551502e-05</v>
+        <v>5.130078584159037e-09</v>
       </c>
       <c r="CW13" t="n">
-        <v>4.368846202851273e-05</v>
+        <v>5.343172801985929e-07</v>
       </c>
       <c r="CX13" t="n">
-        <v>1.494887328590266e-05</v>
+        <v>3.297443527117139e-07</v>
       </c>
       <c r="CY13" t="n">
-        <v>2.32560487347655e-05</v>
+        <v>3.031107382867049e-07</v>
       </c>
       <c r="CZ13" t="n">
-        <v>5.486333066073712e-06</v>
+        <v>1.080700826605607e-07</v>
       </c>
       <c r="DA13" t="n">
-        <v>5.618667273665778e-06</v>
+        <v>2.755866717052413e-07</v>
       </c>
       <c r="DB13" t="n">
-        <v>2.191774365201127e-05</v>
+        <v>6.015053344299304e-08</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.211291646541213e-06</v>
+        <v>8.536501638900518e-08</v>
       </c>
       <c r="DD13" t="n">
-        <v>2.004283942369511e-06</v>
+        <v>1.703522798379709e-07</v>
       </c>
       <c r="DE13" t="n">
-        <v>4.511221959546674e-06</v>
+        <v>2.410640433936351e-07</v>
       </c>
       <c r="DF13" t="n">
-        <v>6.620076601393521e-05</v>
+        <v>4.225463499096804e-07</v>
       </c>
       <c r="DG13" t="n">
-        <v>3.371233469806612e-05</v>
+        <v>2.939833052550966e-07</v>
       </c>
       <c r="DH13" t="n">
-        <v>1.856574817793444e-05</v>
+        <v>1.136462856266007e-06</v>
       </c>
       <c r="DI13" t="n">
-        <v>2.836865314748138e-05</v>
+        <v>2.80054308632316e-07</v>
       </c>
       <c r="DJ13" t="n">
-        <v>6.498195944004692e-06</v>
+        <v>2.138136494522769e-07</v>
       </c>
       <c r="DK13" t="n">
-        <v>1.34820493258303e-05</v>
+        <v>2.009986985740397e-07</v>
       </c>
       <c r="DL13" t="n">
-        <v>3.942158218706027e-05</v>
+        <v>1.046619928501968e-07</v>
       </c>
       <c r="DM13" t="n">
-        <v>3.556219235179015e-05</v>
+        <v>2.036426707263672e-07</v>
       </c>
       <c r="DN13" t="n">
-        <v>2.638266778376419e-06</v>
+        <v>5.577982165050344e-08</v>
       </c>
       <c r="DO13" t="n">
-        <v>2.825294541253243e-05</v>
+        <v>4.050960455970198e-07</v>
       </c>
       <c r="DP13" t="n">
-        <v>1.84238851943519e-05</v>
+        <v>1.33250651401795e-07</v>
       </c>
       <c r="DQ13" t="n">
-        <v>2.631338429637253e-05</v>
+        <v>1.527248230104306e-07</v>
       </c>
       <c r="DR13" t="n">
-        <v>2.808375938911922e-05</v>
+        <v>4.585242407983969e-08</v>
       </c>
       <c r="DS13" t="n">
-        <v>1.749176044540945e-05</v>
+        <v>2.751450622895391e-09</v>
       </c>
       <c r="DT13" t="n">
-        <v>3.885053047270048e-06</v>
+        <v>1.724729514762657e-07</v>
       </c>
       <c r="DU13" t="n">
-        <v>3.069853391934885e-06</v>
+        <v>5.356073984330578e-08</v>
       </c>
       <c r="DV13" t="n">
-        <v>5.22615891895839e-06</v>
+        <v>3.168753721638495e-07</v>
       </c>
       <c r="DW13" t="n">
-        <v>1.320093178946991e-05</v>
+        <v>2.411449600003834e-07</v>
       </c>
       <c r="DX13" t="n">
-        <v>1.927363518916536e-05</v>
+        <v>2.02566681650751e-07</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.440224241378019e-05</v>
+        <v>4.319010429298942e-07</v>
       </c>
       <c r="DZ13" t="n">
-        <v>4.690948117058724e-06</v>
+        <v>1.980674824153539e-08</v>
       </c>
       <c r="EA13" t="n">
-        <v>1.802646875148639e-05</v>
+        <v>4.372738970914725e-08</v>
       </c>
       <c r="EB13" t="n">
-        <v>7.391533472400624e-06</v>
+        <v>1.753650025193565e-07</v>
       </c>
       <c r="EC13" t="n">
-        <v>1.877981958386954e-05</v>
+        <v>1.220195713358407e-07</v>
       </c>
       <c r="ED13" t="n">
-        <v>4.026266833534464e-05</v>
+        <v>3.498376699440087e-09</v>
       </c>
       <c r="EE13" t="n">
-        <v>2.233914892713074e-05</v>
+        <v>7.316133121548773e-08</v>
       </c>
       <c r="EF13" t="n">
-        <v>6.155778100946918e-05</v>
+        <v>1.55804855239694e-07</v>
       </c>
       <c r="EG13" t="n">
-        <v>5.39226493856404e-05</v>
+        <v>4.725147562112397e-07</v>
       </c>
       <c r="EH13" t="n">
-        <v>7.135069154173834e-06</v>
+        <v>2.881625391637499e-07</v>
       </c>
       <c r="EI13" t="n">
-        <v>4.684846135205589e-05</v>
+        <v>9.793629374144075e-08</v>
       </c>
       <c r="EJ13" t="n">
-        <v>2.030108225881122e-05</v>
+        <v>2.095224687082009e-07</v>
       </c>
       <c r="EK13" t="n">
-        <v>1.069558129529469e-05</v>
+        <v>2.010115167649928e-07</v>
       </c>
       <c r="EL13" t="n">
-        <v>7.48141246731393e-06</v>
+        <v>1.011128958339214e-07</v>
       </c>
       <c r="EM13" t="n">
-        <v>1.640749360376503e-05</v>
+        <v>2.506380702982369e-08</v>
       </c>
       <c r="EN13" t="n">
-        <v>3.066539647988975e-06</v>
+        <v>9.857676985802755e-08</v>
       </c>
       <c r="EO13" t="n">
-        <v>3.815172476606676e-06</v>
+        <v>8.832962805627176e-08</v>
       </c>
       <c r="EP13" t="n">
-        <v>5.013856934965588e-05</v>
+        <v>2.42328411559356e-07</v>
       </c>
       <c r="EQ13" t="n">
-        <v>6.350797775667161e-06</v>
+        <v>4.556753765427857e-07</v>
       </c>
       <c r="ER13" t="n">
-        <v>4.446252205525525e-06</v>
+        <v>1.41860553526385e-07</v>
       </c>
       <c r="ES13" t="n">
-        <v>4.133950278628618e-05</v>
+        <v>2.116461104151313e-07</v>
       </c>
       <c r="ET13" t="n">
-        <v>1.441306380911556e-06</v>
+        <v>3.188073094406718e-08</v>
       </c>
       <c r="EU13" t="n">
-        <v>4.350586095824838e-06</v>
+        <v>9.818015200835362e-08</v>
       </c>
       <c r="EV13" t="n">
-        <v>6.148606189526618e-06</v>
+        <v>4.733468870199431e-07</v>
       </c>
       <c r="EW13" t="n">
-        <v>5.656685516441939e-06</v>
+        <v>2.250197539410692e-08</v>
       </c>
       <c r="EX13" t="n">
-        <v>3.31804076267872e-05</v>
+        <v>6.028346888342639e-08</v>
       </c>
       <c r="EY13" t="n">
-        <v>3.368747638887726e-05</v>
+        <v>5.324162088982121e-07</v>
       </c>
       <c r="EZ13" t="n">
-        <v>1.281661570828874e-05</v>
+        <v>2.669382297426637e-07</v>
       </c>
       <c r="FA13" t="n">
-        <v>2.523580224078614e-05</v>
+        <v>1.823477759899106e-07</v>
       </c>
       <c r="FB13" t="n">
-        <v>7.972590537974611e-06</v>
+        <v>9.769066622311584e-08</v>
       </c>
       <c r="FC13" t="n">
-        <v>1.31023853100487e-05</v>
+        <v>2.471676054938143e-07</v>
       </c>
       <c r="FD13" t="n">
-        <v>1.936294211191125e-05</v>
+        <v>8.326153988491569e-08</v>
       </c>
       <c r="FE13" t="n">
-        <v>1.23928907669324e-06</v>
+        <v>3.003509618793032e-08</v>
       </c>
       <c r="FF13" t="n">
-        <v>3.45197713613743e-06</v>
+        <v>2.684807896002894e-07</v>
       </c>
       <c r="FG13" t="n">
-        <v>2.441312608425505e-05</v>
+        <v>2.948289363757794e-07</v>
       </c>
       <c r="FH13" t="n">
-        <v>2.959348648801097e-06</v>
+        <v>2.964027245866419e-08</v>
       </c>
       <c r="FI13" t="n">
-        <v>1.713790334179066e-05</v>
+        <v>4.243798628067452e-07</v>
       </c>
       <c r="FJ13" t="n">
-        <v>1.53539476741571e-05</v>
+        <v>3.620421864525269e-07</v>
       </c>
       <c r="FK13" t="n">
-        <v>1.408420030202251e-05</v>
+        <v>1.579079444979925e-08</v>
       </c>
       <c r="FL13" t="n">
-        <v>6.952063358767191e-06</v>
+        <v>3.563259838301747e-07</v>
       </c>
       <c r="FM13" t="n">
-        <v>2.699841934372671e-05</v>
+        <v>2.701854384667968e-08</v>
       </c>
       <c r="FN13" t="n">
-        <v>8.216872629418503e-06</v>
+        <v>4.110903830678581e-07</v>
       </c>
       <c r="FO13" t="n">
-        <v>1.07198020486976e-05</v>
+        <v>1.647045877462006e-07</v>
       </c>
       <c r="FP13" t="n">
-        <v>2.135870636266191e-05</v>
+        <v>1.101380320278622e-07</v>
       </c>
       <c r="FQ13" t="n">
-        <v>5.680666799889877e-05</v>
+        <v>1.515033147825307e-07</v>
       </c>
       <c r="FR13" t="n">
-        <v>8.138984412653372e-06</v>
+        <v>1.864830068143419e-07</v>
       </c>
       <c r="FS13" t="n">
-        <v>1.893231456051581e-05</v>
+        <v>1.949380532551004e-07</v>
       </c>
       <c r="FT13" t="n">
-        <v>2.446237886033487e-05</v>
+        <v>4.180322150659777e-07</v>
       </c>
       <c r="FU13" t="n">
-        <v>5.767197217210196e-05</v>
+        <v>2.339749016755377e-07</v>
       </c>
       <c r="FV13" t="n">
-        <v>3.093484701821581e-05</v>
+        <v>2.668860688004315e-08</v>
       </c>
       <c r="FW13" t="n">
-        <v>8.827752026263624e-06</v>
+        <v>2.886663139634038e-07</v>
       </c>
       <c r="FX13" t="n">
-        <v>1.609669379831757e-05</v>
+        <v>2.961237157705909e-07</v>
       </c>
       <c r="FY13" t="n">
-        <v>2.88328665192239e-05</v>
+        <v>6.741734068782534e-07</v>
       </c>
       <c r="FZ13" t="n">
-        <v>9.786478585738223e-06</v>
+        <v>1.04438242942706e-07</v>
       </c>
       <c r="GA13" t="n">
-        <v>2.390935151197482e-05</v>
+        <v>1.516102088316984e-07</v>
       </c>
       <c r="GB13" t="n">
-        <v>3.021330667252187e-05</v>
+        <v>7.387743750086884e-08</v>
       </c>
       <c r="GC13" t="n">
-        <v>1.507500201114453e-06</v>
+        <v>2.936281475740543e-07</v>
       </c>
       <c r="GD13" t="n">
-        <v>1.122918911278248e-05</v>
+        <v>2.773087715013389e-07</v>
       </c>
       <c r="GE13" t="n">
-        <v>3.385942181921564e-05</v>
+        <v>7.562042014797044e-07</v>
       </c>
       <c r="GF13" t="n">
-        <v>9.064488040166907e-07</v>
+        <v>1.701233571793637e-07</v>
       </c>
       <c r="GG13" t="n">
-        <v>2.550862882344518e-05</v>
+        <v>2.910508953846147e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1316033899784088</v>
+        <v>0.0002374263131059706</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03054425865411758</v>
+        <v>0.002523765899240971</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1445026099681854</v>
+        <v>0.0003460117732174695</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008705395273864269</v>
+        <v>0.002188677899539471</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02039306983351707</v>
+        <v>0.0006042835884727538</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0192726943641901</v>
+        <v>0.004816655535250902</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04350277408957481</v>
+        <v>0.001463473308831453</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03292049095034599</v>
+        <v>0.003200932405889034</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03848874568939209</v>
+        <v>0.0006251570302993059</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1174947023391724</v>
+        <v>0.0003996531304437667</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01782767102122307</v>
+        <v>0.002777280518785119</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1467088758945465</v>
+        <v>0.000243763264734298</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01399013213813305</v>
+        <v>0.0007626391598023474</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03704595193266869</v>
+        <v>0.001703612972050905</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004413691814988852</v>
+        <v>0.004250139929354191</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04381692036986351</v>
+        <v>0.002046583220362663</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02836425974965096</v>
+        <v>0.000573975732550025</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0525820180773735</v>
+        <v>0.001351870014332235</v>
       </c>
       <c r="S14" t="n">
-        <v>0.001449876232072711</v>
+        <v>0.0001588760642334819</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01946906372904778</v>
+        <v>0.0005583931342698634</v>
       </c>
       <c r="U14" t="n">
-        <v>0.002872103825211525</v>
+        <v>0.0005288562970235944</v>
       </c>
       <c r="V14" t="n">
-        <v>0.001276481081731617</v>
+        <v>0.0005930119077675045</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04704568535089493</v>
+        <v>0.001058021909557283</v>
       </c>
       <c r="X14" t="n">
-        <v>0.02213565446436405</v>
+        <v>0.0006622343207709491</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.005060236435383558</v>
+        <v>8.553639054298401e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.006533493287861347</v>
+        <v>0.000158166978508234</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01060031447559595</v>
+        <v>0.0002394411567365751</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0009004621533676982</v>
+        <v>0.0008470246102660894</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02126887068152428</v>
+        <v>0.000124843863886781</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.00992407463490963</v>
+        <v>0.0001788462104741484</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01272735092788935</v>
+        <v>0.0001769242517184466</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.02125163003802299</v>
+        <v>0.0003467600618023425</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0280187577009201</v>
+        <v>0.0006321848486550152</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.003447016235440969</v>
+        <v>0.0003640481154434383</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.007148665376007557</v>
+        <v>0.0004849391989409924</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.01951194368302822</v>
+        <v>0.0009250554139725864</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.02560697495937347</v>
+        <v>0.0006574410945177078</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.02861867100000381</v>
+        <v>0.0004799373564310372</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.01180652435868979</v>
+        <v>0.0004169661551713943</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.02526303194463253</v>
+        <v>5.041412077844143e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.00753379799425602</v>
+        <v>0.0006322961417026818</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01906724087893963</v>
+        <v>0.001254020258784294</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.001040055882185698</v>
+        <v>5.419774970505387e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0004856102168560028</v>
+        <v>0.0009345617727376521</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.004585914313793182</v>
+        <v>2.382798993494362e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.06258951872587204</v>
+        <v>0.00133896095212549</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.02983215823769569</v>
+        <v>0.001851633074693382</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.07773567736148834</v>
+        <v>0.0005236744182184339</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.007661557756364346</v>
+        <v>0.0005071128834970295</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.02578688226640224</v>
+        <v>0.0009627314284443855</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.02295703999698162</v>
+        <v>0.0008339757332578301</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.004361201077699661</v>
+        <v>0.0004255651438143104</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.01227192021906376</v>
+        <v>0.002254186663776636</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.005969760939478874</v>
+        <v>0.0005258105229586363</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.02817489765584469</v>
+        <v>0.0001176719088107347</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.004264113027602434</v>
+        <v>9.314834460383281e-05</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.02651035785675049</v>
+        <v>0.0004109768487978727</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.001173674128949642</v>
+        <v>0.000911257229745388</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0441792868077755</v>
+        <v>0.0007379283779300749</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.03086798638105392</v>
+        <v>0.002582289278507233</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.01857846789062023</v>
+        <v>0.00106522417627275</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.02166334539651871</v>
+        <v>0.0002275377191836014</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0199775043874979</v>
+        <v>0.0003275170456618071</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.01032272167503834</v>
+        <v>0.0002722183999139816</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.006281864829361439</v>
+        <v>0.0004270153003744781</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.02443235367536545</v>
+        <v>0.0005080648115836084</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.005315399263054132</v>
+        <v>0.001000064774416387</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.04146454483270645</v>
+        <v>0.0002312996075488627</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.03465862199664116</v>
+        <v>0.0006817643297836185</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.03618580847978592</v>
+        <v>0.0001373191480524838</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.03698475286364555</v>
+        <v>0.0002265449438709766</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.01375993620604277</v>
+        <v>0.0006518752197735012</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.04730691015720367</v>
+        <v>8.5296924225986e-06</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.007508761249482632</v>
+        <v>0.0008066978771239519</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.03614385798573494</v>
+        <v>0.0004031300195492804</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.006884174421429634</v>
+        <v>0.0002244158677058294</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.01212165132164955</v>
+        <v>0.0005352637963369489</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.009247267618775368</v>
+        <v>0.0003775343939196318</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.02286968193948269</v>
+        <v>0.0001672197395237163</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.021306237205863</v>
+        <v>0.0007883792277425528</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.001422557979822159</v>
+        <v>8.522278949385509e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.02702238038182259</v>
+        <v>0.0001839088363340124</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.02923206239938736</v>
+        <v>0.0002978660340886563</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.03047737665474415</v>
+        <v>5.064087599748746e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.001385195646435022</v>
+        <v>0.0006833364022895694</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0009760493412613869</v>
+        <v>0.000147166836541146</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.001614865497685969</v>
+        <v>0.000535413739271462</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.004914882127195597</v>
+        <v>0.000564145331736654</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.01412501186132431</v>
+        <v>0.0003423955058678985</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.01186455693095922</v>
+        <v>4.264155722921714e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.005996496882289648</v>
+        <v>0.0004811579128727317</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.004802617244422436</v>
+        <v>0.0005449388409033418</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.005267704837024212</v>
+        <v>0.0003529594978317618</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.01127938739955425</v>
+        <v>0.0005751105491071939</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0344795435667038</v>
+        <v>0.0004386866639833897</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.00725247897207737</v>
+        <v>0.0005922384443692863</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.01511180587112904</v>
+        <v>0.0005958392866887152</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.002531502861529589</v>
+        <v>0.0001157633378170431</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.007718493230640888</v>
+        <v>0.0006480521988123655</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.02811465784907341</v>
+        <v>5.128400516696274e-06</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.02683211676776409</v>
+        <v>0.0003171322168782353</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.02973222173750401</v>
+        <v>8.643584442324936e-05</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.002333684591576457</v>
+        <v>0.0005202259635552764</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0170817244797945</v>
+        <v>8.171143417712301e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.001523680868558586</v>
+        <v>0.0007643777644261718</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.003090375801548362</v>
+        <v>0.0005306777893565595</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.008449461311101913</v>
+        <v>0.0004559509106911719</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.007876215502619743</v>
+        <v>0.0002781941439025104</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.01379743684083223</v>
+        <v>0.0002536923857405782</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.04546428844332695</v>
+        <v>0.001410113763995469</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.01433811988681555</v>
+        <v>0.0003748437447939068</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.007777745369821787</v>
+        <v>0.00250391848385334</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.01092653535306454</v>
+        <v>0.002306014765053988</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.02383048459887505</v>
+        <v>0.002508270787075162</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.01355607621371746</v>
+        <v>0.0008905349532142282</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.02699847146868706</v>
+        <v>0.000589547271374613</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.000320027582347393</v>
+        <v>2.202227915404364e-05</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.001687564188614488</v>
+        <v>0.0001258950505871326</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.02657775208353996</v>
+        <v>0.0003459297586232424</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.00430742371827364</v>
+        <v>0.0002413007750874385</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.007686318829655647</v>
+        <v>0.0004977022181265056</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.01370535790920258</v>
+        <v>0.001316178473643959</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.0486438013613224</v>
+        <v>4.982216341886669e-05</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.01219121553003788</v>
+        <v>0.002067752182483673</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.00713726319372654</v>
+        <v>0.0001394618884660304</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.006037828512489796</v>
+        <v>0.0005294250440783799</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.01388711668550968</v>
+        <v>3.171380376443267e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.01988226920366287</v>
+        <v>0.0007866026135161519</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.002847560681402683</v>
+        <v>0.0008642965694889426</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.001382396556437016</v>
+        <v>0.0001841109478846192</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.01047717593610287</v>
+        <v>0.001123781083151698</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.01790439523756504</v>
+        <v>0.0004651288036257029</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.02762051112949848</v>
+        <v>0.0002627804933581501</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.01641343720257282</v>
+        <v>0.0004793237894773483</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.0003877042036037892</v>
+        <v>0.0003271734167356044</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.03963399305939674</v>
+        <v>5.537563993129879e-06</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.01503658853471279</v>
+        <v>0.0004119369550608099</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.03282483294606209</v>
+        <v>0.0002147125196643174</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.007754586637020111</v>
+        <v>0.0003417374973651022</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.005350298248231411</v>
+        <v>0.0002356767363380641</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.03397359326481819</v>
+        <v>0.001204285537824035</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.01154802832752466</v>
+        <v>9.466413757763803e-05</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.02502548880875111</v>
+        <v>7.515001925639808e-06</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.00798505824059248</v>
+        <v>0.000338839105097577</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.002105685882270336</v>
+        <v>7.652854401385412e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.0116769215092063</v>
+        <v>0.0003263507387600839</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.006799092050641775</v>
+        <v>0.0001466195972170681</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.006679248996078968</v>
+        <v>0.00075849040877074</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.005060326308012009</v>
+        <v>9.513692202745005e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.01439402252435684</v>
+        <v>0.0006495980196632445</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.0008759442716836929</v>
+        <v>0.0007080381619744003</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.01502692606300116</v>
+        <v>0.000728482031263411</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.005677719600498676</v>
+        <v>0.0007874618750065565</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.03005891665816307</v>
+        <v>0.0001516962074674666</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.02121379226446152</v>
+        <v>0.0002138304407708347</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.03054348938167095</v>
+        <v>8.600180444773287e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.004445650149136782</v>
+        <v>0.0005733727593906224</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.0121801495552063</v>
+        <v>4.029960837215185e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.005789031274616718</v>
+        <v>0.0006617263425141573</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.0004756280686706305</v>
+        <v>0.0005867599393241107</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.01920861750841141</v>
+        <v>0.0004496744659263641</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.00851458590477705</v>
+        <v>0.0002919729449786246</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.01460308395326138</v>
+        <v>2.328273694729432e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.02596869319677353</v>
+        <v>0.001262950128875673</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.03404472023248672</v>
+        <v>0.0007431039121001959</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.02172242477536201</v>
+        <v>0.0008654854027554393</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.02639257721602917</v>
+        <v>0.000488457502797246</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.01046971417963505</v>
+        <v>0.0002679043100215495</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.001547620981000364</v>
+        <v>0.0002883840352296829</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.03614068776369095</v>
+        <v>0.0006282557733356953</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.01720486581325531</v>
+        <v>0.0003989133110735565</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.01371478475630283</v>
+        <v>1.369020537822507e-05</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.07235516607761383</v>
+        <v>0.001081103808246553</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.02647293917834759</v>
+        <v>0.001842471654526889</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.04300622642040253</v>
+        <v>0.0002384409017395228</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.0371629111468792</v>
+        <v>0.001955617219209671</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.002613686257973313</v>
+        <v>0.0004704095190390944</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.01117466110736132</v>
+        <v>0.0003462505992501974</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.005271458998322487</v>
+        <v>0.001882411888800561</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.03126696869730949</v>
+        <v>0.0001665577001404017</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.01305319182574749</v>
+        <v>0.0001139307714765891</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.0007832457195036113</v>
+        <v>0.0002783000818453729</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.01039199810475111</v>
+        <v>0.0004884188529103994</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.03851219639182091</v>
+        <v>0.0003703508118633181</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.01823792792856693</v>
+        <v>0.002002417808398604</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.003501023864373565</v>
+        <v>0.0007123156683519483</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.006317573599517345</v>
+        <v>0.00113112828694284</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.01016370672732592</v>
+        <v>0.0005986580508761108</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.007010208442807198</v>
+        <v>0.0007440397748723626</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01870615407824516</v>
+        <v>0.0004118129727430642</v>
       </c>
       <c r="B15" t="n">
-        <v>0.008089000359177589</v>
+        <v>0.007756754290312529</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09193482995033264</v>
+        <v>0.000422396813519299</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002732846885919571</v>
+        <v>0.003180555999279022</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02618077769875526</v>
+        <v>0.0007339577423408628</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01635562442243099</v>
+        <v>0.005864545237272978</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001318899914622307</v>
+        <v>0.0005485326983034611</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01047062873840332</v>
+        <v>0.002456562127918005</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05162353068590164</v>
+        <v>4.051224823342636e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02107609249651432</v>
+        <v>0.001661615213379264</v>
       </c>
       <c r="K15" t="n">
-        <v>0.009561829268932343</v>
+        <v>0.006437366362661123</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09930896013975143</v>
+        <v>0.0003637332993093878</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001783541403710842</v>
+        <v>0.003352949395775795</v>
       </c>
       <c r="N15" t="n">
-        <v>0.002579055726528168</v>
+        <v>0.0003611576976254582</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01395777985453606</v>
+        <v>0.005545507650822401</v>
       </c>
       <c r="P15" t="n">
-        <v>0.003895893227308989</v>
+        <v>0.0008413924952037632</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.003149410476908088</v>
+        <v>0.0008144238963723183</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0551595613360405</v>
+        <v>0.0007833329145796597</v>
       </c>
       <c r="S15" t="n">
-        <v>0.005667516030371189</v>
+        <v>5.475504076457582e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.009463299065828323</v>
+        <v>0.000650558271445334</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006580271758139133</v>
+        <v>0.0003979194443672895</v>
       </c>
       <c r="V15" t="n">
-        <v>0.006045788992196321</v>
+        <v>0.000890272727701813</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0005096502136439085</v>
+        <v>0.0009570568799972534</v>
       </c>
       <c r="X15" t="n">
-        <v>0.009803773835301399</v>
+        <v>0.001007641316391528</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.006200902629643679</v>
+        <v>0.00070143339689821</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.000860169529914856</v>
+        <v>0.001104658702388406</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.001605951925739646</v>
+        <v>0.001025261241011322</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.005434794351458549</v>
+        <v>7.624702993780375e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01538938749581575</v>
+        <v>0.001038017449900508</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.005685256794095039</v>
+        <v>0.0003369622281752527</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0106420423835516</v>
+        <v>0.0005372431478463113</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.001231750240549445</v>
+        <v>0.0003466648049652576</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.008174360729753971</v>
+        <v>0.0002582592715043575</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.003446656279265881</v>
+        <v>8.894203347153962e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.007262320723384619</v>
+        <v>0.0001163516353699379</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.01207375526428223</v>
+        <v>0.0003536911681294441</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.005541546735912561</v>
+        <v>0.0007593021146021783</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.004214161075651646</v>
+        <v>0.0008937341626733541</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.01860506646335125</v>
+        <v>0.0001060988870449364</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.002369909780099988</v>
+        <v>0.0007511891890317202</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.002616423647850752</v>
+        <v>0.0007590733584947884</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.009161272086203098</v>
+        <v>0.001238575205206871</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0002903135027736425</v>
+        <v>0.0003379251284059137</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.01371428649872541</v>
+        <v>0.0003488370857667178</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0001079952635336667</v>
+        <v>0.0009130854159593582</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.00994553230702877</v>
+        <v>0.0009974436834454536</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.002601474523544312</v>
+        <v>0.004815455060452223</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.04578706622123718</v>
+        <v>0.0006242240197025239</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.006181424017995596</v>
+        <v>0.0002660881436895579</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0008532435167580843</v>
+        <v>0.000286811264231801</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.01944571174681187</v>
+        <v>0.00390477804467082</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.006477711256593466</v>
+        <v>0.001380173140205443</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.002724036108702421</v>
+        <v>0.001135177095420659</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.01042044162750244</v>
+        <v>0.0022151586599648</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.004548251628875732</v>
+        <v>0.0009359559044241905</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.01096028368920088</v>
+        <v>0.001637836219742894</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.0239090770483017</v>
+        <v>0.001805179635994136</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.0004086545668542385</v>
+        <v>0.001113621750846505</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.01029833406209946</v>
+        <v>0.001551203895360231</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.01814946345984936</v>
+        <v>0.001571945496834815</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.001505321823060513</v>
+        <v>0.00109085557051003</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.001724772155284882</v>
+        <v>0.0009566480293869972</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.02369860745966434</v>
+        <v>0.000576210324652493</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.009039618074893951</v>
+        <v>0.0002434018824715167</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.008684594184160233</v>
+        <v>0.001655094791203737</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.01976750791072845</v>
+        <v>9.593482536729425e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.001946583157405257</v>
+        <v>0.0007076783804222941</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.02087092027068138</v>
+        <v>0.0002834241895470768</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.004084572196006775</v>
+        <v>0.0005569712375290692</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.001872201100923121</v>
+        <v>0.0003283550904598087</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.004412706010043621</v>
+        <v>0.0002256097504869103</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.003014501184225082</v>
+        <v>0.0009117294102907181</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.01067366451025009</v>
+        <v>0.0004342779866419733</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.001659443019889295</v>
+        <v>0.002745712641626596</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0288117416203022</v>
+        <v>0.0009119783062487841</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0004120717057958245</v>
+        <v>0.000428529514465481</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.0180208757519722</v>
+        <v>0.0001071296428563073</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.01134047750383615</v>
+        <v>0.001949265832081437</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.002501638606190681</v>
+        <v>1.259689452126622e-05</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.001753112650476396</v>
+        <v>0.0005339424824342132</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.01711997576057911</v>
+        <v>0.001068686367943883</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.007902681827545166</v>
+        <v>5.578006675932556e-05</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.008511455729603767</v>
+        <v>0.001112511847168207</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.01566708832979202</v>
+        <v>0.0007332982495427132</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.0002497493987902999</v>
+        <v>0.0004150521417614073</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.00235570315271616</v>
+        <v>0.0001154752681031823</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.007127947639673948</v>
+        <v>0.0008121521095745265</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.002908470807597041</v>
+        <v>0.000508734374307096</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.005270438268780708</v>
+        <v>0.000495127635076642</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.007356957066804171</v>
+        <v>0.0006315935170277953</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.01474671624600887</v>
+        <v>0.0008373979362659156</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.004548681899905205</v>
+        <v>0.0005343370139598846</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.001761921914294362</v>
+        <v>0.0001617862144485116</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.005735883023589849</v>
+        <v>0.001126809744164348</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.006689803674817085</v>
+        <v>0.0001454395242035389</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.002436017617583275</v>
+        <v>3.553688293322921e-05</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.00707256468012929</v>
+        <v>0.0009846515022218227</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.007582663558423519</v>
+        <v>0.0009280579397454858</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0003114272840321064</v>
+        <v>0.0001371886173728853</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.008585165254771709</v>
+        <v>4.911555879516527e-05</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.005058409180492163</v>
+        <v>0.0009619264164939523</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.01585756056010723</v>
+        <v>0.000802986731287092</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.0006872705998830497</v>
+        <v>0.0007353606633841991</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.008356522768735886</v>
+        <v>0.0002419349475530908</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.008972886018455029</v>
+        <v>0.0008427781285718083</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.001559096970595419</v>
+        <v>0.0004146330174989998</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.003480480285361409</v>
+        <v>0.000859975116327405</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.008692404255270958</v>
+        <v>0.0005196037818677723</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.00401526503264904</v>
+        <v>0.0003694098559208214</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.02877561189234257</v>
+        <v>0.0006494661793112755</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.02041126042604446</v>
+        <v>2.099466655636206e-06</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.007614863105118275</v>
+        <v>0.003101311391219497</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.003387519624084234</v>
+        <v>0.0001211488852277398</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.01348427496850491</v>
+        <v>0.002420138800516725</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.004091178998351097</v>
+        <v>0.0006956837605684996</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.0008105081506073475</v>
+        <v>0.001732248696498573</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.001497090561315417</v>
+        <v>0.001112361089326441</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.002688996959477663</v>
+        <v>0.0001216532473335974</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.009692137129604816</v>
+        <v>0.0005922499112784863</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0004863318172283471</v>
+        <v>0.0003121623594779521</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.004293457604944706</v>
+        <v>2.654627314768732e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.003927863202989101</v>
+        <v>0.0001113657854148187</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.006258733104914427</v>
+        <v>0.0007385864737443626</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.005293996538966894</v>
+        <v>0.000110156019218266</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.01093054842203856</v>
+        <v>0.0002453447959851474</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.002453684341162443</v>
+        <v>0.0006171002169139683</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0081502515822649</v>
+        <v>0.0001774419797584414</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.00517315324395895</v>
+        <v>0.0001146161885117181</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.007792740128934383</v>
+        <v>0.00085062300786376</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.002433047164231539</v>
+        <v>0.0004332169482950121</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.006469295360147953</v>
+        <v>5.801381485071033e-05</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.004099860787391663</v>
+        <v>0.001008750055916607</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.001478314050473273</v>
+        <v>0.0001921435759868473</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.001430083764716983</v>
+        <v>0.0003670227015390992</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.009118271991610527</v>
+        <v>0.00110764498822391</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.009858584031462669</v>
+        <v>0.000315052893711254</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.005972984246909618</v>
+        <v>0.0006094678537920117</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.01877133175730705</v>
+        <v>0.0005905646248720586</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.001456012716516852</v>
+        <v>0.0002355063916184008</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.003253854811191559</v>
+        <v>0.0004622415290214121</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.0220270324498415</v>
+        <v>0.0002024084533331916</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.001759547856636345</v>
+        <v>0.0007599826203659177</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.004148934967815876</v>
+        <v>0.0005760305793955922</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.002190948929637671</v>
+        <v>9.835670061875135e-05</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.001959205605089664</v>
+        <v>4.533008905127645e-05</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.004818488843739033</v>
+        <v>0.0005720889312215149</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.005474750883877277</v>
+        <v>0.0009157411986961961</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.002722088946029544</v>
+        <v>0.0002602490421850234</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0004133016336709261</v>
+        <v>0.0005304197547957301</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0009952373802661896</v>
+        <v>0.0001891443971544504</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.003587945131585002</v>
+        <v>0.0008948687463998795</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.007136536296457052</v>
+        <v>0.001614282606169581</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.009305791929364204</v>
+        <v>0.0003199102648068219</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.01067601889371872</v>
+        <v>4.806947254110128e-05</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.003636299166828394</v>
+        <v>0.000984931131824851</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.01620003208518028</v>
+        <v>0.0005924647557549179</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.001730562653392553</v>
+        <v>0.0003447326307650656</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.004970753099769354</v>
+        <v>0.0002935984230134636</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.005552403628826141</v>
+        <v>0.0006848868215456605</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0009701693197712302</v>
+        <v>0.0008298109169118106</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.003018615301698446</v>
+        <v>0.0005210612434893847</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.01078891381621361</v>
+        <v>0.0008355280733667314</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.001928840414620936</v>
+        <v>0.0005222597392275929</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.009191492572426796</v>
+        <v>0.0006210406427271664</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.01481185480952263</v>
+        <v>0.000554107129573822</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.00353812356479466</v>
+        <v>0.001472773728892207</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.007444027811288834</v>
+        <v>0.0001247907057404518</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.002063194056972861</v>
+        <v>0.0006381084676831961</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0003559304168447852</v>
+        <v>8.785462705418468e-05</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.01075417920947075</v>
+        <v>0.0005224636988714337</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.003486538305878639</v>
+        <v>0.0005231930408626795</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.0006568180397152901</v>
+        <v>0.0006523008341901004</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.02353908494114876</v>
+        <v>0.0003317184746265411</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.005929739214479923</v>
+        <v>0.0006565037765540183</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.006307022646069527</v>
+        <v>0.0008483353885821998</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.009845338761806488</v>
+        <v>0.0004996851203031838</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.002480848925188184</v>
+        <v>0.0005580995930358768</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.0004088351561222225</v>
+        <v>0.0007286160252988338</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.006010622251778841</v>
+        <v>0.0008091498166322708</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.009152548387646675</v>
+        <v>0.0008693806594237685</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.004676313139498234</v>
+        <v>0.001355200656689703</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.004515884444117546</v>
+        <v>0.0002858682128135115</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0113277155905962</v>
+        <v>0.0008948341128416359</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.01288973726332188</v>
+        <v>0.0002462587144691497</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.01218819245696068</v>
+        <v>0.0004305460897739977</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.002823276212438941</v>
+        <v>0.0006741653778590262</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.004670710302889347</v>
+        <v>0.002687775762751698</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.008048245683312416</v>
+        <v>0.0008148502092808485</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.003132402431219816</v>
+        <v>0.0003641460789367557</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01145018730312586</v>
+        <v>6.467221203010354e-10</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0001108169963117689</v>
+        <v>5.241297396096911e-10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006033930461853743</v>
+        <v>4.926535290827871e-10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003321435651741922</v>
+        <v>5.327869256888107e-10</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002101252321153879</v>
+        <v>8.039029442130641e-10</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0001187241869047284</v>
+        <v>1.455565667995984e-10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003149341326206923</v>
+        <v>2.990631353672057e-11</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005614709574729204</v>
+        <v>6.499308730090192e-11</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0041651651263237</v>
+        <v>3.275905657851297e-10</v>
       </c>
       <c r="J16" t="n">
-        <v>0.009597483091056347</v>
+        <v>3.170376183803114e-10</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001278757234103978</v>
+        <v>7.983579353165737e-10</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006261457689106464</v>
+        <v>1.979754554737312e-10</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0003279817174188793</v>
+        <v>1.615542144506321e-10</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002180196344852448</v>
+        <v>1.689544476546345e-10</v>
       </c>
       <c r="O16" t="n">
-        <v>0.000417947128880769</v>
+        <v>2.612131067003531e-10</v>
       </c>
       <c r="P16" t="n">
-        <v>0.005057666450738907</v>
+        <v>3.892411670758378e-10</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.003607415128499269</v>
+        <v>2.098526907801102e-10</v>
       </c>
       <c r="R16" t="n">
-        <v>0.00696765910834074</v>
+        <v>1.853831810283424e-10</v>
       </c>
       <c r="S16" t="n">
-        <v>6.243292591534555e-05</v>
+        <v>1.853161929465941e-10</v>
       </c>
       <c r="T16" t="n">
-        <v>0.000290494121145457</v>
+        <v>2.176717972535158e-10</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0005386872799135745</v>
+        <v>1.678146233086153e-10</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0001492769952164963</v>
+        <v>2.189023129428591e-10</v>
       </c>
       <c r="W16" t="n">
-        <v>0.003226307686418295</v>
+        <v>6.321529411046356e-10</v>
       </c>
       <c r="X16" t="n">
-        <v>0.00199802708812058</v>
+        <v>1.206410804588387e-10</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0005263164639472961</v>
+        <v>3.640618917444272e-10</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0002958458208013326</v>
+        <v>1.295877571916293e-10</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0002216222928836942</v>
+        <v>1.954703204853914e-10</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.001047364668920636</v>
+        <v>1.486393508276507e-10</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0001653482904657722</v>
+        <v>2.299167384256506e-10</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.001050980528816581</v>
+        <v>4.61708005161654e-10</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0005272821290418506</v>
+        <v>1.127182236437818e-10</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0001782872132025659</v>
+        <v>1.946704186739368e-10</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.001894820481538773</v>
+        <v>3.394416692170665e-10</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.002299409359693527</v>
+        <v>1.257462051151848e-10</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0004609415773302317</v>
+        <v>9.482450935571762e-11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0008514224318787456</v>
+        <v>1.458377862917359e-10</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.002048354363068938</v>
+        <v>2.77679462756808e-10</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.002460210584104061</v>
+        <v>1.165541135828008e-10</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.0003528700035531074</v>
+        <v>2.022602502149695e-10</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.001446072477847338</v>
+        <v>1.648163688861004e-10</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.001233356073498726</v>
+        <v>1.026978849183457e-11</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0006044048350304365</v>
+        <v>1.754517642282849e-10</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0006154865841381252</v>
+        <v>3.060831449408496e-11</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.001228654407896101</v>
+        <v>3.248440405556607e-10</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.0006508004735223949</v>
+        <v>4.026858707595338e-12</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.006486530881375074</v>
+        <v>3.278122495675717e-10</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.004029346164315939</v>
+        <v>2.217035999230177e-10</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.004453664645552635</v>
+        <v>1.675674599077581e-10</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0007861003978177905</v>
+        <v>5.923527224283021e-10</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0001253514783456922</v>
+        <v>6.099709626283811e-10</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.002730116946622729</v>
+        <v>1.50157622447189e-10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.002003582660108805</v>
+        <v>4.344806181499905e-10</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.003550287568941712</v>
+        <v>2.658016584611289e-10</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0001549277221783996</v>
+        <v>3.4720330777116e-11</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.001751163974404335</v>
+        <v>1.573055713466331e-10</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0002695001312531531</v>
+        <v>3.043706398031532e-10</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.002573867095634341</v>
+        <v>3.236693968400317e-10</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.001274667331017554</v>
+        <v>1.780793984496043e-10</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0002907590242102742</v>
+        <v>1.135480598435379e-11</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.002385282889008522</v>
+        <v>2.584429059648841e-10</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.001721907407045364</v>
+        <v>1.095311757959294e-10</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.002042522421106696</v>
+        <v>4.313618073847891e-10</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.003455109428614378</v>
+        <v>2.015919653430842e-10</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.001894244225695729</v>
+        <v>4.758207716726304e-11</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0001375638821627945</v>
+        <v>5.200080643863458e-11</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.001777417957782745</v>
+        <v>5.919119361319503e-11</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.0002845046401489526</v>
+        <v>1.468636878776408e-10</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.001223943312652409</v>
+        <v>1.512081848620284e-10</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.002247140510007739</v>
+        <v>3.780600832392622e-12</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.0003052753745578229</v>
+        <v>6.773121646874714e-11</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.001756511395797133</v>
+        <v>5.861713892052478e-12</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.001123438938520849</v>
+        <v>7.941763913166255e-11</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.004987073130905628</v>
+        <v>3.493218769801132e-10</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.002724574878811836</v>
+        <v>6.791887885437831e-11</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0009124325588345528</v>
+        <v>3.454809216485444e-10</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.0007555625634267926</v>
+        <v>2.739812023089261e-11</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.003573414171114564</v>
+        <v>4.362517291855994e-10</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.0003773414646275342</v>
+        <v>2.672786297841512e-11</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.0008356106118299067</v>
+        <v>1.012436523506466e-10</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.002184367040172219</v>
+        <v>1.743686306454606e-10</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.000474597531137988</v>
+        <v>1.903011082049488e-11</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.00260468153283</v>
+        <v>3.566362136164791e-11</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.002283425768837333</v>
+        <v>1.165500612687609e-10</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.001163813285529613</v>
+        <v>5.360718119407082e-11</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.0002982880687341094</v>
+        <v>4.415876345142955e-11</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0006756550865247846</v>
+        <v>6.956206444197477e-12</v>
       </c>
       <c r="CI16" t="n">
-        <v>6.860389839857817e-05</v>
+        <v>2.715000273212365e-11</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.0005493541248142719</v>
+        <v>6.968081667224624e-11</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.0001564376289024949</v>
+        <v>5.525997021083029e-11</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.0006128497188910842</v>
+        <v>1.447976877289037e-10</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.002677871147170663</v>
+        <v>1.230300167298637e-10</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.0002852604957297444</v>
+        <v>7.555150949301037e-12</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.002702542580664158</v>
+        <v>8.315188815277708e-11</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.001985606038942933</v>
+        <v>1.403539506839024e-10</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.001311899977736175</v>
+        <v>3.585582941667553e-10</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.0003508058725856245</v>
+        <v>1.017912837353308e-11</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.00369642861187458</v>
+        <v>1.628639445527824e-10</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.003647236153483391</v>
+        <v>3.173965534841727e-10</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.000284071487840265</v>
+        <v>3.042615881465593e-10</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.002928326604887843</v>
+        <v>5.757270354900257e-11</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.002007456962019205</v>
+        <v>5.930866908698817e-11</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.001651728292927146</v>
+        <v>2.26363892907866e-12</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.0003741382097359747</v>
+        <v>7.441661870055682e-11</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.0009288433357141912</v>
+        <v>2.235643441206303e-11</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.000205621327040717</v>
+        <v>5.480399467572283e-11</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.0002721257042139769</v>
+        <v>8.086210173674502e-11</v>
       </c>
       <c r="DC16" t="n">
-        <v>2.709927503019571e-05</v>
+        <v>2.196626387729328e-11</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.0005148830823600292</v>
+        <v>1.706459973327412e-10</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.001200760016217828</v>
+        <v>3.27089327845087e-10</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.004800331778824329</v>
+        <v>3.276774962479578e-10</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.000124333513667807</v>
+        <v>4.006019960201002e-10</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.001370433834381402</v>
+        <v>4.212301063510893e-10</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.0004832830163650215</v>
+        <v>5.144866754847044e-10</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.00340361101552844</v>
+        <v>6.446815303817743e-11</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.001384439063258469</v>
+        <v>1.606244998120232e-11</v>
       </c>
       <c r="DL16" t="n">
-        <v>6.157706957310438e-05</v>
+        <v>7.617772523893507e-10</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.001841611228883266</v>
+        <v>3.67400332379475e-10</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.0006750991451554</v>
+        <v>1.367673196916996e-10</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.003020603908225894</v>
+        <v>2.297177448262744e-10</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.0005790001014247537</v>
+        <v>1.26478327810986e-10</v>
       </c>
       <c r="DQ16" t="n">
-        <v>5.9283192967996e-06</v>
+        <v>3.853811991749723e-10</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.001281341654248536</v>
+        <v>3.198113301960959e-11</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.002045338740572333</v>
+        <v>1.151545248045949e-10</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.002080375095829368</v>
+        <v>6.174680905468577e-11</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.001950744423083961</v>
+        <v>6.457724632813466e-11</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.0008520650444552302</v>
+        <v>6.951254849507649e-11</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.000431040592957288</v>
+        <v>1.790132764245556e-10</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.0006901157903485</v>
+        <v>1.361079582373748e-10</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.0004178951494395733</v>
+        <v>4.317010360299633e-10</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.001140035805292428</v>
+        <v>1.314080927405925e-10</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.00223818514496088</v>
+        <v>2.23965929135872e-10</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.0003948423254769295</v>
+        <v>7.085571018805581e-11</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.001017888775095344</v>
+        <v>6.045260125819851e-11</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.0001997460494749248</v>
+        <v>1.144325745272567e-10</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.0005768826231360435</v>
+        <v>1.894083778708477e-10</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.0020872144959867</v>
+        <v>2.728609005409055e-10</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.001616626046597958</v>
+        <v>9.425096814119627e-11</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.001162868109531701</v>
+        <v>8.570168880117635e-11</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.0006447010673582554</v>
+        <v>1.220489403985781e-10</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.001070989179424942</v>
+        <v>1.596914545043404e-10</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.00308397738263011</v>
+        <v>1.697962048741175e-10</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.0013646159786731</v>
+        <v>4.048597568306889e-11</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.0001805175561457872</v>
+        <v>1.529774570907527e-12</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.0004033937002532184</v>
+        <v>9.919035037775359e-11</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.001270545530132949</v>
+        <v>8.868480949608681e-11</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.001362517010420561</v>
+        <v>1.247968950401912e-10</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.002238248009234667</v>
+        <v>1.506309244003745e-10</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.002533830935135484</v>
+        <v>1.585011566440642e-10</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.00158958334941417</v>
+        <v>2.349345717966855e-10</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.002251217607408762</v>
+        <v>1.005798846986927e-10</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.001593009335920215</v>
+        <v>2.10036765757593e-10</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.0005565620958805084</v>
+        <v>3.418628435891691e-10</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.001570170978084207</v>
+        <v>3.556340638644073e-11</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.002682423451915383</v>
+        <v>7.933792511849447e-11</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.00169946055393666</v>
+        <v>4.411376819390966e-11</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.001198244863189757</v>
+        <v>1.397547876036409e-11</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.0001384108909405768</v>
+        <v>2.670083945610635e-11</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.0002063967403955758</v>
+        <v>5.303160688363562e-11</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.0002815659390762448</v>
+        <v>2.950534261358939e-11</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.0005491948686540127</v>
+        <v>9.143080736961906e-11</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.0001618430251255631</v>
+        <v>5.809252384691987e-12</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.0005802156520076096</v>
+        <v>1.915070046987211e-10</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.002195211593061686</v>
+        <v>2.798505177592503e-11</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.0008175229886546731</v>
+        <v>4.801951891675316e-11</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.0001136511273216456</v>
+        <v>3.772857581907374e-10</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.002553088124841452</v>
+        <v>3.127055836493753e-10</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.002520587760955095</v>
+        <v>1.189350840036241e-10</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.001540568424388766</v>
+        <v>3.513095370166752e-10</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.002130284905433655</v>
+        <v>1.028941098990543e-10</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.00216198991984129</v>
+        <v>3.156073180576868e-10</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.0002219736925326288</v>
+        <v>3.608200405125217e-10</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.001308706821873784</v>
+        <v>1.451436609789525e-10</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.00316029298119247</v>
+        <v>2.547125010909923e-11</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.0006487497594207525</v>
+        <v>4.285269639137113e-10</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.003030951367691159</v>
+        <v>3.491691380475004e-10</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0002317888429388404</v>
+        <v>3.348402666247807e-10</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.001968035707250237</v>
+        <v>1.579856245825795e-10</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.001075874781236053</v>
+        <v>1.670632659989124e-10</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.002169294049963355</v>
+        <v>7.877965640945561e-11</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.0004151441680733114</v>
+        <v>9.796199962330832e-11</v>
       </c>
       <c r="FY16" t="n">
-        <v>9.587060776539147e-05</v>
+        <v>2.487227368508371e-10</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.0001705366012174636</v>
+        <v>4.207606207895509e-10</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.0001455378660466522</v>
+        <v>1.873202565283449e-10</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.002152538392692804</v>
+        <v>1.948531891393657e-10</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.002500168513506651</v>
+        <v>3.681468740968086e-10</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.001047945697791874</v>
+        <v>1.272211502811871e-12</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.002076460514217615</v>
+        <v>2.613165586695665e-11</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.000289450865238905</v>
+        <v>3.306583895579251e-10</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.0003565352526493371</v>
+        <v>9.497055225571316e-11</v>
       </c>
     </row>
   </sheetData>
